--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -559,6 +559,7 @@
     <col customWidth="true" min="27" max="27" width="13.8359375"/>
     <col customWidth="true" min="28" max="28" width="13.8359375"/>
     <col customWidth="true" min="29" max="29" width="13.8359375"/>
+    <col customWidth="true" min="30" max="30" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -569,140 +570,145 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>INr</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>AktuellGültig</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzDe</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzEn</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>EtappenzielDe</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>EtappenzielEn</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Zieltyp</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Zielrichtung</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Zielwert</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>VorherigesZieljahr</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Gültig bis</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Gültig seit</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -714,52 +720,52 @@
           <t>W_0701a_2030a</t>
         </is>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>Increase by 2.1% per year</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>239,376</t>
         </is>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>2030</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -782,7 +788,7 @@
       </c>
       <c r="S2" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T2" s="4" t="inlineStr">
@@ -817,7 +823,7 @@
       </c>
       <c r="Z2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA2" s="4" t="inlineStr">
@@ -831,6 +837,11 @@
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -842,52 +853,52 @@
           <t>W_0701b_2020a</t>
         </is>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020 compared to 2008</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>2020</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -910,7 +921,7 @@
       </c>
       <c r="S3" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T3" s="4" t="inlineStr">
@@ -920,14 +931,14 @@
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
           <t>W</t>
@@ -940,7 +951,7 @@
       </c>
       <c r="Y3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z3" s="4" t="inlineStr">
@@ -959,6 +970,11 @@
         </is>
       </c>
       <c r="AC3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -970,58 +986,58 @@
           <t>W_0701b_2030a</t>
         </is>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>Reduction by 30% by 2030</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Reduction by 30% by 2030 compared to 2008</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>2030</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>2020</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>2021</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1044,24 +1060,24 @@
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
           <t>W</t>
@@ -1069,19 +1085,19 @@
       </c>
       <c r="X4" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AA4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1093,6 +1109,11 @@
         </is>
       </c>
       <c r="AC4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1104,55 +1125,55 @@
           <t>W_0701b_2050a</t>
         </is>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Senkung um 50 % bis 2050</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>Reduction by 50% by 2050</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Reduction by 50% by 2050 compared to 2008</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>2050</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>2030</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1175,24 +1196,24 @@
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
           <t>W</t>
@@ -1200,19 +1221,19 @@
       </c>
       <c r="X5" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AA5" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1224,6 +1245,11 @@
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD5" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1235,52 +1261,52 @@
           <t>W_0702a_2020a</t>
         </is>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>Increase to 18% by 2020</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Increase to 18% by 2020</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>2020</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O6" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1303,14 +1329,14 @@
       </c>
       <c r="S6" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
           <t>W</t>
@@ -1318,24 +1344,24 @@
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="Z6" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1352,6 +1378,11 @@
         </is>
       </c>
       <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1363,55 +1394,55 @@
           <t>W_0702a_2030a</t>
         </is>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>Increase to 30% by 2030</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Increase to 30% by 2030</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>2030</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>2020</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O7" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1434,7 +1465,7 @@
       </c>
       <c r="S7" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T7" s="4" t="inlineStr">
@@ -1459,17 +1490,17 @@
       </c>
       <c r="X7" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Y7" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="Z7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA7" s="4" t="inlineStr">
@@ -1483,6 +1514,11 @@
         </is>
       </c>
       <c r="AC7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1494,58 +1530,58 @@
           <t>W_0702a_2040a</t>
         </is>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>Increase to 45% by 2040</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>Increase to 45% by 2040</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>2040</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>2030</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>2021</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O8" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1568,7 +1604,7 @@
       </c>
       <c r="S8" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T8" s="4" t="inlineStr">
@@ -1603,7 +1639,7 @@
       </c>
       <c r="Z8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA8" s="4" t="inlineStr">
@@ -1617,6 +1653,11 @@
         </is>
       </c>
       <c r="AC8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD8" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1628,55 +1669,55 @@
           <t>W_0702a_2050a</t>
         </is>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>Increase to 60% by 2050</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2050</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>2050</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>2040</v>
       </c>
-      <c r="N9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O9" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1699,7 +1740,7 @@
       </c>
       <c r="S9" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T9" s="4" t="inlineStr">
@@ -1734,7 +1775,7 @@
       </c>
       <c r="Z9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA9" s="4" t="inlineStr">
@@ -1748,6 +1789,11 @@
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD9" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1756,61 +1802,58 @@
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050b</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="b">
+          <t>W_0702b_2020a</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>Treibhausgasneutralität bis 2050</t>
-        </is>
-      </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality by 2050</t>
+          <t>Anstieg auf 35 % bis 2020</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+          <t>Increase to 35% by 2020</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 35 % bis 2020</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 35% by 2020</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J10" s="7">
-        <v>2050</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K10" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M10" s="7">
         <v>2022</v>
       </c>
-      <c r="M10" s="7">
-        <v>2021</v>
-      </c>
-      <c r="N10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O10" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1882,6 +1925,11 @@
         </is>
       </c>
       <c r="AC10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD10" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1890,57 +1938,60 @@
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2020a</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="b">
+          <t>W_0702b_2030a</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 35 % bis 2020</t>
-        </is>
-      </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>Increase to 35% by 2020</t>
+          <t>Anstieg auf 50 % bis 2030</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 35 % bis 2020</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 35% by 2020</t>
+          <t>Increase to 50% by 2030</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 50 % bis 2030</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 50% by 2030</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J11" s="7">
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K11" s="7">
+        <v>2030</v>
+      </c>
+      <c r="L11" s="7">
         <v>2020</v>
       </c>
-      <c r="L11" s="7">
-        <v>2022</v>
-      </c>
-      <c r="N11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="M11" s="7">
+        <v>2021</v>
       </c>
       <c r="O11" s="4" t="inlineStr">
         <is>
@@ -2013,6 +2064,11 @@
         </is>
       </c>
       <c r="AC11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD11" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2021,61 +2077,61 @@
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030a</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="b">
+          <t>W_0702b_2030b</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 50 % bis 2030</t>
-        </is>
-      </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
+          <t>Anstieg auf 65 % bis 2030</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 50 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 50% by 2030</t>
+          <t>Increase to 65% by 2030</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 65 % bis 2030</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 65% by 2030</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J12" s="7">
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K12" s="7">
         <v>2030</v>
       </c>
-      <c r="K12" s="7">
-        <v>2020</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N12" s="7">
         <v>2021</v>
       </c>
-      <c r="N12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O12" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2147,6 +2203,11 @@
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2155,60 +2216,60 @@
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030b</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 65 % bis 2030</t>
-        </is>
+          <t>W_0702b_2030c</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 65 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 65% by 2030</t>
+          <t>Increase to 80% by 2030</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 80% by 2030</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="J13" s="7">
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K13" s="7">
         <v>2030</v>
       </c>
       <c r="L13" s="7">
         <v>2022</v>
       </c>
-      <c r="M13" s="7">
-        <v>2021</v>
-      </c>
-      <c r="N13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="N13" s="7">
+        <v>2022</v>
       </c>
       <c r="O13" s="4" t="inlineStr">
         <is>
@@ -2281,6 +2342,11 @@
         </is>
       </c>
       <c r="AC13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2289,60 +2355,60 @@
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030c</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 80 % bis 2030</t>
-        </is>
+          <t>W_0702b_2040a</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2030</t>
+          <t>Anstieg auf 65 % bis 2040</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 80% by 2030</t>
+          <t>Increase to 65% by 2040</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 65 % bis 2040</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 65% by 2040</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J14" s="7">
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K14" s="7">
+        <v>2040</v>
+      </c>
+      <c r="L14" s="7">
         <v>2030</v>
       </c>
-      <c r="K14" s="7">
-        <v>2022</v>
-      </c>
       <c r="M14" s="7">
-        <v>2022</v>
-      </c>
-      <c r="N14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2021</v>
       </c>
       <c r="O14" s="4" t="inlineStr">
         <is>
@@ -2415,6 +2481,11 @@
         </is>
       </c>
       <c r="AC14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD14" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2423,61 +2494,61 @@
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2040a</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="b">
+          <t>W_0702b_2050a</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 65 % bis 2040</t>
-        </is>
-      </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2040</t>
+          <t>Anstieg auf 80 % bis 2050</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 65 % bis 2040</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 65% by 2040</t>
+          <t>Increase to 80% by 2050</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 80 % bis 2050</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 80% by 2050</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="I15" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="J15" s="7">
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K15" s="7">
+        <v>2050</v>
+      </c>
+      <c r="L15" s="7">
         <v>2040</v>
       </c>
-      <c r="K15" s="7">
-        <v>2030</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>2021</v>
       </c>
-      <c r="N15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O15" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2549,6 +2620,11 @@
         </is>
       </c>
       <c r="AC15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD15" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2557,61 +2633,61 @@
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050a</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="b">
+          <t>W_0702b_2050b</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 80 % bis 2050</t>
-        </is>
-      </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2050</t>
+          <t>Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2050</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 80% by 2050</t>
+          <t>Greenhouse gas neutrality by 2050</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
+          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="I16" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J16" s="7">
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K16" s="7">
         <v>2050</v>
       </c>
-      <c r="K16" s="7">
-        <v>2040</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N16" s="7">
         <v>2021</v>
       </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2683,6 +2759,11 @@
         </is>
       </c>
       <c r="AC16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD16" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -531,11 +531,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="20.80078125"/>
-    <col customWidth="true" min="2" max="2" width="13.8359375"/>
+    <col customWidth="true" min="2" max="2" width="16.84375"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="20.06640625"/>
-    <col customWidth="true" min="5" max="5" width="19.04296875"/>
-    <col customWidth="true" min="6" max="6" width="13.8359375"/>
+    <col customWidth="true" min="4" max="4" width="13.8359375"/>
+    <col customWidth="true" min="5" max="5" width="26.07421875"/>
+    <col customWidth="true" min="6" max="6" width="19.04296875"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
     <col customWidth="true" min="9" max="9" width="13.8359375"/>
@@ -581,191 +581,189 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>InGrafikAnzeigen?</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>ZielÜbersichtDe</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtEn</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Zieltyp</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Zielrichtung</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Zielwert</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>VorherigesZieljahr</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Gültig bis</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Gültig seit</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzDe</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzEn</t>
-        </is>
-      </c>
-      <c r="AE1" s="2" t="inlineStr">
-        <is>
-          <t>InGrafikAnzeigen?</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>W_0701a_2030a</t>
+          <t>W_0101a_J</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z01_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>Increase by 2.1% per year</t>
+      <c r="D2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Keep the proportion of persons who are materially deprived considerably below the EU-level by 2030</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>239,376</t>
-        </is>
-      </c>
-      <c r="I2" s="7">
-        <v>2030</v>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t/>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M2" s="7">
+        <v>2018</v>
       </c>
       <c r="N2" s="4" t="inlineStr">
         <is>
@@ -789,37 +787,37 @@
       </c>
       <c r="R2" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="S2" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T2" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X2" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Y2" s="4" t="inlineStr">
@@ -842,66 +840,66 @@
           <t/>
         </is>
       </c>
-      <c r="AC2" s="6" t="inlineStr">
-        <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+      <c r="AC2" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD2" s="6" t="inlineStr">
         <is>
-          <t>Increase by 2.1% per year</t>
-        </is>
-      </c>
-      <c r="AE2" s="5" t="b">
-        <v>0</v>
+          <t/>
+        </is>
+      </c>
+      <c r="AE2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>W_0701b_2020a</t>
+          <t>W_0101b_J</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z01_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 20% by 2020 compared to 2008</t>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU level by 2030</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I3" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t/>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M3" s="7">
+        <v>2018</v>
       </c>
       <c r="N3" s="4" t="inlineStr">
         <is>
@@ -925,32 +923,32 @@
       </c>
       <c r="R3" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="S3" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X3" s="4" t="inlineStr">
@@ -978,73 +976,67 @@
           <t/>
         </is>
       </c>
-      <c r="AC3" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 20 % bis 2020</t>
+      <c r="AC3" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD3" s="6" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020</t>
-        </is>
-      </c>
-      <c r="AE3" s="5" t="b">
-        <v>0</v>
+          <t/>
+        </is>
+      </c>
+      <c r="AE3" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>W_0701b_2030a</t>
+          <t>W_0201a_2030a</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z02_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 30% by 2030 compared to 2008</t>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
+          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>2030</v>
       </c>
-      <c r="J4" s="7">
-        <v>2020</v>
-      </c>
-      <c r="L4" s="7">
-        <v>2021</v>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1067,37 +1059,37 @@
       </c>
       <c r="R4" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X4" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -1120,69 +1112,69 @@
           <t/>
         </is>
       </c>
-      <c r="AC4" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 30 % bis 2030</t>
+      <c r="AC4" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD4" s="6" t="inlineStr">
         <is>
-          <t>Reduction by 30% by 2030</t>
-        </is>
-      </c>
-      <c r="AE4" s="5" t="b">
-        <v>0</v>
+          <t/>
+        </is>
+      </c>
+      <c r="AE4" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>W_0701b_2050a</t>
+          <t>W_0201b_2030a</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z02_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 50% by 2050 compared to 2008</t>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
+          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I5" s="7">
-        <v>2050</v>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="J5" s="7">
         <v>2030</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="L5" s="7">
+        <v>2021</v>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
@@ -1206,37 +1198,37 @@
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X5" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Y5" s="4" t="inlineStr">
@@ -1259,66 +1251,69 @@
           <t/>
         </is>
       </c>
-      <c r="AC5" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 50 % bis 2050</t>
+      <c r="AC5" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD5" s="6" t="inlineStr">
         <is>
-          <t>Reduction by 50% by 2050</t>
-        </is>
-      </c>
-      <c r="AE5" s="5" t="b">
-        <v>0</v>
+          <t/>
+        </is>
+      </c>
+      <c r="AE5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>W_0702a_2020a</t>
+          <t>W_0201b_2030b</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z02_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 18 % bis 2020</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 18% by 2020</t>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
+          <t>Increase the proportion of organically farmed agricultural land to 30% by 2030</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I6" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J6" s="7">
+        <v>2030</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2022</v>
       </c>
       <c r="N6" s="4" t="inlineStr">
         <is>
@@ -1342,32 +1337,32 @@
       </c>
       <c r="R6" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T6" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X6" s="4" t="inlineStr">
@@ -1395,70 +1390,67 @@
           <t/>
         </is>
       </c>
-      <c r="AC6" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 18 % bis 2020</t>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD6" s="6" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020</t>
-        </is>
-      </c>
-      <c r="AE6" s="5" t="b">
-        <v>0</v>
+          <t/>
+        </is>
+      </c>
+      <c r="AE6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>W_0702a_2030a</t>
+          <t>W_0701a_2030</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 30 % bis 2030</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 30% by 2030</t>
+      <c r="D7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>239,376</t>
+        </is>
+      </c>
+      <c r="J7" s="7">
         <v>2030</v>
       </c>
-      <c r="J7" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N7" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1481,34 +1473,34 @@
       </c>
       <c r="R7" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
       <c r="X7" s="4" t="inlineStr">
         <is>
           <t>W</t>
@@ -1516,7 +1508,7 @@
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z7" s="4" t="inlineStr">
@@ -1534,72 +1526,66 @@
           <t/>
         </is>
       </c>
-      <c r="AC7" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+      <c r="AC7" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD7" s="6" t="inlineStr">
         <is>
-          <t>Increase to 30% by 2030</t>
-        </is>
-      </c>
-      <c r="AE7" s="5" t="b">
-        <v>0</v>
+          <t>Steigerung um 2,1 % pro Jahr</t>
+        </is>
+      </c>
+      <c r="AE7" s="6" t="inlineStr">
+        <is>
+          <t>Increase by 2.1% per year</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>W_0702a_2040a</t>
+          <t>W_0701b_2020</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 45 % bis 2040</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 45% by 2040</t>
+      <c r="D8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
+          <t>Reduction by 20% by 2020 compared to 2008</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="I8" s="7">
-        <v>2040</v>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="J8" s="7">
-        <v>2030</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2021</v>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2020</v>
       </c>
       <c r="N8" s="4" t="inlineStr">
         <is>
@@ -1623,39 +1609,39 @@
       </c>
       <c r="R8" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="Y8" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1676,69 +1662,72 @@
           <t/>
         </is>
       </c>
-      <c r="AC8" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 45 % bis 2040</t>
+      <c r="AC8" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD8" s="6" t="inlineStr">
         <is>
-          <t>Increase to 45% by 2040</t>
-        </is>
-      </c>
-      <c r="AE8" s="5" t="b">
-        <v>0</v>
+          <t>Senkung um 20 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AE8" s="6" t="inlineStr">
+        <is>
+          <t>Reduction by 20% by 2020</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>W_0702a_2050a</t>
+          <t>W_0701b_2030</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2050</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2050</t>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
+          <t>Reduction by 30% by 2030 compared to 2008</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="I9" s="7">
-        <v>2050</v>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="J9" s="7">
-        <v>2040</v>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2030</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2021</v>
       </c>
       <c r="N9" s="4" t="inlineStr">
         <is>
@@ -1762,42 +1751,42 @@
       </c>
       <c r="R9" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S9" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T9" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="X9" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="Z9" s="4" t="inlineStr">
@@ -1815,69 +1804,69 @@
           <t/>
         </is>
       </c>
-      <c r="AC9" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2050</t>
+      <c r="AC9" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD9" s="6" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2050</t>
-        </is>
-      </c>
-      <c r="AE9" s="5" t="b">
-        <v>0</v>
+          <t>Senkung um 30 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AE9" s="6" t="inlineStr">
+        <is>
+          <t>Reduction by 30% by 2030</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2020a</t>
+          <t>W_0701b_2050</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 35 % bis 2020</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 35% by 2020</t>
+      <c r="D10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
+          <t>Reduction by 50% by 2050 compared to 2008</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="I10" s="7">
-        <v>2020</v>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J10" s="7">
+        <v>2050</v>
       </c>
       <c r="K10" s="7">
-        <v>2022</v>
-      </c>
-      <c r="M10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2030</v>
       </c>
       <c r="N10" s="4" t="inlineStr">
         <is>
@@ -1901,44 +1890,44 @@
       </c>
       <c r="R10" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S10" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="W10" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="X10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="Z10" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1954,73 +1943,67 @@
           <t/>
         </is>
       </c>
-      <c r="AC10" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 35 % bis 2020</t>
+      <c r="AC10" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD10" s="6" t="inlineStr">
         <is>
-          <t>Increase to 35% by 2020</t>
-        </is>
-      </c>
-      <c r="AE10" s="5" t="b">
-        <v>0</v>
+          <t>Senkung um 50 % bis 2050</t>
+        </is>
+      </c>
+      <c r="AE10" s="6" t="inlineStr">
+        <is>
+          <t>Reduction by 50% by 2050</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030a</t>
+          <t>W_0702a_2020</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 50 % bis 2030</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 50% by 2030</t>
+      <c r="D11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
+          <t>Increase to 18% by 2020</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I11" s="7">
-        <v>2030</v>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="J11" s="7">
         <v>2020</v>
       </c>
-      <c r="K11" s="7">
-        <v>2021</v>
-      </c>
-      <c r="M11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N11" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2043,34 +2026,34 @@
       </c>
       <c r="R11" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S11" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="T11" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="U11" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V11" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="X11" s="4" t="inlineStr">
         <is>
           <t>S</t>
@@ -2096,72 +2079,69 @@
           <t/>
         </is>
       </c>
-      <c r="AC11" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 50 % bis 2030</t>
+      <c r="AC11" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD11" s="6" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
-        </is>
-      </c>
-      <c r="AE11" s="5" t="b">
-        <v>0</v>
+          <t>Anstieg auf 18 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AE11" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 18% by 2020</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030b</t>
+          <t>W_0702a_2030</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 65 % bis 2030</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 65% by 2030</t>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
+          <t>Increase to 30% by 2030</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J12" s="7">
         <v>2030</v>
       </c>
       <c r="K12" s="7">
-        <v>2022</v>
-      </c>
-      <c r="L12" s="7">
-        <v>2021</v>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2020</v>
       </c>
       <c r="N12" s="4" t="inlineStr">
         <is>
@@ -2185,42 +2165,42 @@
       </c>
       <c r="R12" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="T12" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="X12" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z12" s="4" t="inlineStr">
@@ -2238,72 +2218,72 @@
           <t/>
         </is>
       </c>
-      <c r="AC12" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 65 % bis 2030</t>
+      <c r="AC12" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD12" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
-        </is>
-      </c>
-      <c r="AE12" s="5" t="b">
-        <v>0</v>
+          <t>Anstieg auf 30 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AE12" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 30% by 2030</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030c</t>
+          <t>W_0702a_2040</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 80% by 2030</t>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
+          <t>Increase to 45% by 2040</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="7">
+        <v>2040</v>
+      </c>
+      <c r="K13" s="7">
         <v>2030</v>
       </c>
-      <c r="J13" s="7">
-        <v>2022</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2022</v>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="M13" s="7">
+        <v>2021</v>
       </c>
       <c r="N13" s="4" t="inlineStr">
         <is>
@@ -2327,12 +2307,12 @@
       </c>
       <c r="R13" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="T13" s="4" t="inlineStr">
@@ -2342,7 +2322,7 @@
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -2352,7 +2332,7 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="X13" s="4" t="inlineStr">
@@ -2362,7 +2342,7 @@
       </c>
       <c r="Y13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z13" s="4" t="inlineStr">
@@ -2380,73 +2360,70 @@
           <t/>
         </is>
       </c>
-      <c r="AC13" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+      <c r="AC13" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD13" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2030</t>
-        </is>
-      </c>
-      <c r="AE13" s="5" t="b">
-        <v>0</v>
+          <t>Anstieg auf 45 % bis 2040</t>
+        </is>
+      </c>
+      <c r="AE13" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 45% by 2040</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2040a</t>
+          <t>W_0702a_2050</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 65 % bis 2040</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 65% by 2040</t>
+      <c r="D14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
+          <t>Increase to 60% by 2050</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J14" s="7">
+        <v>2050</v>
+      </c>
+      <c r="K14" s="7">
         <v>2040</v>
       </c>
-      <c r="J14" s="7">
-        <v>2030</v>
-      </c>
-      <c r="K14" s="7">
-        <v>2021</v>
-      </c>
-      <c r="M14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2469,17 +2446,17 @@
       </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S14" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="T14" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -2489,22 +2466,22 @@
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="X14" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="Y14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z14" s="4" t="inlineStr">
@@ -2522,24 +2499,26 @@
           <t/>
         </is>
       </c>
-      <c r="AC14" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 65 % bis 2040</t>
+      <c r="AC14" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD14" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2040</t>
-        </is>
-      </c>
-      <c r="AE14" s="5" t="b">
-        <v>0</v>
+          <t>Anstieg auf 60 % bis 2050</t>
+        </is>
+      </c>
+      <c r="AE14" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2050</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050a</t>
+          <t>W_0702b_2020</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -2550,44 +2529,39 @@
       <c r="C15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 80 % bis 2050</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 80% by 2050</t>
+      <c r="D15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 35 % bis 2020</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 35% by 2020</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I15" s="7">
-        <v>2050</v>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="J15" s="7">
-        <v>2040</v>
-      </c>
-      <c r="K15" s="7">
-        <v>2021</v>
-      </c>
-      <c r="M15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2020</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2022</v>
       </c>
       <c r="N15" s="4" t="inlineStr">
         <is>
@@ -2611,37 +2585,37 @@
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S15" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="U15" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="W15" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="X15" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Y15" s="4" t="inlineStr">
@@ -2664,24 +2638,26 @@
           <t/>
         </is>
       </c>
-      <c r="AC15" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 80 % bis 2050</t>
+      <c r="AC15" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AD15" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2050</t>
-        </is>
-      </c>
-      <c r="AE15" s="5" t="b">
-        <v>0</v>
+          <t>Anstieg auf 35 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AE15" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 35% by 2020</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050b</t>
+          <t>W_0702b_2030a</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -2692,45 +2668,43 @@
       <c r="C16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+      <c r="D16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 50 % bis 2030</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 50% by 2030</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I16" s="7">
-        <v>2050</v>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J16" s="7">
+        <v>2030</v>
       </c>
       <c r="K16" s="7">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="L16" s="7">
         <v>2021</v>
       </c>
-      <c r="M16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N16" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2753,44 +2727,44 @@
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S16" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="T16" s="4" t="inlineStr">
+      <c r="U16" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr">
+      <c r="X16" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="Z16" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2806,18 +2780,4535 @@
           <t/>
         </is>
       </c>
-      <c r="AC16" s="6" t="inlineStr">
+      <c r="AC16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD16" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 50 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AE16" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 50% by 2030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>W_0702b_2030b</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>Increase to at least 65% by 2030</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J17" s="7">
+        <v>2030</v>
+      </c>
+      <c r="L17" s="7">
+        <v>2022</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S17" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T17" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="U17" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="V17" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X17" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y17" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD17" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AE17" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 65% by 2030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>W_0702b_2030c</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>Increase to at least 80% by 2030</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J18" s="7">
+        <v>2030</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2022</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S18" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T18" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="U18" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V18" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="W18" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="X18" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y18" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Z18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD18" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 80 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AE18" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 80% by 2030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>W_0702b_2040</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 65 % bis 2040</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Increase to at least 65% by 2040</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J19" s="7">
+        <v>2040</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2030</v>
+      </c>
+      <c r="L19" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S19" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T19" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="U19" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V19" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Y19" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD19" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 65 % bis 2040</t>
+        </is>
+      </c>
+      <c r="AE19" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 65% by 2040</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>W_0702b_2050a</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 80 % bis 2050</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>Increase to at least 80% by 2050</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J20" s="7">
+        <v>2050</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2040</v>
+      </c>
+      <c r="L20" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="U20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="V20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="W20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Y20" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD20" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 80 % bis 2050</t>
+        </is>
+      </c>
+      <c r="AE20" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 80% by 2050</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>W_0702b_2050b</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J21" s="7">
+        <v>2050</v>
+      </c>
+      <c r="L21" s="7">
+        <v>2022</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S21" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T21" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="U21" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="V21" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="W21" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X21" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y21" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Z21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD21" s="6" t="inlineStr">
         <is>
           <t>Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
-      <c r="AD16" s="6" t="inlineStr">
+      <c r="AE21" s="6" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality by 2050</t>
         </is>
       </c>
-      <c r="AE16" s="5" t="b">
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>W_0202x_R</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="b">
         <v>0</v>
+      </c>
+      <c r="D22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD22" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE22" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>W_0301a_2030</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J23" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD23" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE23" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>W_0301b_2030</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J24" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>W_0301c_2030</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>Senkung auf 7 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to 7% by 2030</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J25" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>W_0301d_2030</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>Senkung auf 19 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to 19% by 2030</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J26" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>W_0301e_R</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>W_0301f_R</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib04_I01</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>W_0302a_2030</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J29" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>W_0302b_2030</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>W_0303x_2030</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung der Ausgaben bis 2030</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>Expenditure to be increased by 2030</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>272,5</t>
+        </is>
+      </c>
+      <c r="J31" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>W_0401a_2020</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf 10 % bis 2020</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the proportion to 10% by 2020</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J32" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L32" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>W_0401a_2030</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the proportion to 9.5% by 2030</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="J33" s="7">
+        <v>2030</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>W_0401b_2020</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 42 % bis 2020</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 24% by 2020</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J34" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L34" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>W_0401b_2030</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 55% by 2030</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J35" s="7">
+        <v>2030</v>
+      </c>
+      <c r="M35" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD35" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE35" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>W_0402a_2030</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 35 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 35% by 2030</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J36" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD36" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE36" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>W_0402b_2020</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2020</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2020</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J37" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD37" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE37" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>W_0402b_2030</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 70 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 70% by 2030</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J38" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD38" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE38" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>W_0501a_2020</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>Verringerung des Abstandes auf 10 % bis 2020</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the gap to 10% by 2020</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J39" s="7">
+        <v>2020</v>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD39" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE39" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>W_0501a_J</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>Beibehaltung des Abstandes von 10 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>Maintaine the gap of 10 % by 2030</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD40" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE40" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>W_0501b_2030a</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J41" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD41" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE41" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>W_0501c_2025</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J42" s="7">
+        <v>2025</v>
+      </c>
+      <c r="N42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD42" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE42" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>W_0501d_2030</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>65% by 2030</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="I43" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J43" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD43" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE43" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>W_0501e_2030</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="J44" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD44" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE44" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>W_0601a_J</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD45" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE45" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>W_0601b_J</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H46" s="4" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD46" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE46" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>W_0602a_2030</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>6 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="I47" s="4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M47" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD47" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE47" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>W_0602b_2030</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>4 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M48" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD48" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE48" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>W_0602x_2030</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01_I03</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>10 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>10 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L49" s="7">
+        <v>2021</v>
+      </c>
+      <c r="N49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD49" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE49" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -532,11 +532,11 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="20.80078125"/>
     <col customWidth="true" min="2" max="2" width="16.84375"/>
-    <col customWidth="true" min="3" max="3" width="13.8359375"/>
+    <col customWidth="true" min="3" max="3" width="28.5625"/>
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
-    <col customWidth="true" min="5" max="5" width="26.07421875"/>
-    <col customWidth="true" min="6" max="6" width="19.04296875"/>
-    <col customWidth="true" min="7" max="7" width="13.8359375"/>
+    <col customWidth="true" min="5" max="5" width="13.8359375"/>
+    <col customWidth="true" min="6" max="6" width="26.07421875"/>
+    <col customWidth="true" min="7" max="7" width="19.04296875"/>
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
     <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>
@@ -561,6 +561,7 @@
     <col customWidth="true" min="29" max="29" width="13.8359375"/>
     <col customWidth="true" min="30" max="30" width="13.8359375"/>
     <col customWidth="true" min="31" max="31" width="13.8359375"/>
+    <col customWidth="true" min="32" max="32" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -576,145 +577,150 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>Spezifikation</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>AktuellGültig?</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>InGrafikAnzeigen?</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtDe</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtEn</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Zieltyp</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Zielrichtung</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Zielwert</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>VorherigesZieljahr</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Gültig bis</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Gültig seit</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzDe</t>
         </is>
       </c>
-      <c r="AE1" s="2" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzEn</t>
         </is>
@@ -731,45 +737,45 @@
           <t>Z01_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="E2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>Keep the proportion of persons who are materially deprived considerably below the EU-level by 2030</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="M2" s="7">
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N2" s="7">
         <v>2018</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -845,12 +851,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD2" s="6" t="inlineStr">
+      <c r="AD2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF2" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -867,45 +878,45 @@
           <t>Z01_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Keep the proportion of persons who are severely materially deprived considerably below the EU level by 2030</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="M3" s="7">
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N3" s="7">
         <v>2018</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -981,12 +992,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD3" s="6" t="inlineStr">
+      <c r="AD3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE3" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF3" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1003,45 +1019,45 @@
           <t>Z02_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_5YAVERAGE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="E4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>2030</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1117,12 +1133,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD4" s="6" t="inlineStr">
+      <c r="AD4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE4" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF4" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1139,48 +1160,48 @@
           <t>Z02_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="C5" s="5" t="b">
-        <v>0</v>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_DSTTS</t>
+        </is>
       </c>
       <c r="D5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>2030</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>2021</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1256,12 +1277,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD5" s="6" t="inlineStr">
+      <c r="AD5" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF5" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1278,48 +1304,48 @@
           <t>Z02_B01_P01_Ib02_I01</t>
         </is>
       </c>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 30% by 2030</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>2030</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>2022</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O6" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1395,12 +1421,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD6" s="6" t="inlineStr">
+      <c r="AD6" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF6" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1409,49 +1440,46 @@
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>W_0701a_2030</t>
+          <t>W_0202x_R</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="b">
-        <v>1</v>
+          <t>Z02_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>239,376</t>
-        </is>
-      </c>
-      <c r="J7" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1478,37 +1506,37 @@
       </c>
       <c r="S7" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T7" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X7" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Z7" s="4" t="inlineStr">
@@ -1531,66 +1559,71 @@
           <t/>
         </is>
       </c>
-      <c r="AD7" s="6" t="inlineStr">
-        <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+      <c r="AD7" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE7" s="6" t="inlineStr">
         <is>
-          <t>Increase by 2.1% per year</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>W_0701b_2020</t>
+          <t>W_0301a_2030</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="b">
-        <v>0</v>
+          <t>Z03_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 20% by 2020 compared to 2008</t>
+      <c r="E8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
+          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J8" s="7">
-        <v>2020</v>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K8" s="7">
+        <v>2030</v>
       </c>
       <c r="O8" s="4" t="inlineStr">
         <is>
@@ -1614,32 +1647,32 @@
       </c>
       <c r="S8" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T8" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X8" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Y8" s="4" t="inlineStr">
@@ -1667,73 +1700,72 @@
           <t/>
         </is>
       </c>
-      <c r="AD8" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 20 % bis 2020</t>
+      <c r="AD8" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE8" s="6" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF8" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>W_0701b_2030</t>
+          <t>W_0301b_2030</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="b">
-        <v>1</v>
+          <t>Z03_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 30% by 2030 compared to 2008</t>
+      <c r="E9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
+          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="K9" s="7">
         <v>2030</v>
       </c>
-      <c r="K9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="M9" s="7">
-        <v>2021</v>
-      </c>
-      <c r="N9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O9" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1756,37 +1788,37 @@
       </c>
       <c r="S9" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="T9" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X9" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Y9" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="Z9" s="4" t="inlineStr">
@@ -1809,70 +1841,72 @@
           <t/>
         </is>
       </c>
-      <c r="AD9" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 30 % bis 2030</t>
+      <c r="AD9" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE9" s="6" t="inlineStr">
         <is>
-          <t>Reduction by 30% by 2030</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF9" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>W_0701b_2050</t>
+          <t>W_0301c_2030</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="b">
-        <v>0</v>
+          <t>Z03_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 50% by 2050 compared to 2008</t>
+      <c r="E10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Senkung auf 7 % bis 2030</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
+          <t>Reduction to 7% by 2030</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J10" s="7">
-        <v>2050</v>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="K10" s="7">
         <v>2030</v>
       </c>
-      <c r="N10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O10" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1895,37 +1929,37 @@
       </c>
       <c r="S10" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="T10" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X10" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Y10" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Z10" s="4" t="inlineStr">
@@ -1948,66 +1982,71 @@
           <t/>
         </is>
       </c>
-      <c r="AD10" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 50 % bis 2050</t>
+      <c r="AD10" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE10" s="6" t="inlineStr">
         <is>
-          <t>Reduction by 50% by 2050</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF10" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>W_0702a_2020</t>
+          <t>W_0301d_2030</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="b">
-        <v>0</v>
+          <t>Z03_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 18 % bis 2020</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 18% by 2020</t>
+      <c r="E11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Senkung auf 19 % bis 2030</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
+          <t>Reduction to 19% by 2030</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J11" s="7">
-        <v>2020</v>
-      </c>
-      <c r="N11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K11" s="7">
+        <v>2030</v>
       </c>
       <c r="O11" s="4" t="inlineStr">
         <is>
@@ -2031,32 +2070,32 @@
       </c>
       <c r="S11" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="T11" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X11" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Y11" s="4" t="inlineStr">
@@ -2084,66 +2123,65 @@
           <t/>
         </is>
       </c>
-      <c r="AD11" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 18 % bis 2020</t>
+      <c r="AD11" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE11" s="6" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF11" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>W_0702a_2030</t>
+          <t>W_0301e_R</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="b">
-        <v>1</v>
+          <t>Z03_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 30 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 30% by 2030</t>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Increase to be permanently halted</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J12" s="7">
-        <v>2030</v>
-      </c>
-      <c r="K12" s="7">
-        <v>2020</v>
-      </c>
-      <c r="N12" s="4" t="inlineStr">
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2170,37 +2208,37 @@
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T12" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X12" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Z12" s="4" t="inlineStr">
@@ -2223,69 +2261,65 @@
           <t/>
         </is>
       </c>
-      <c r="AD12" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+      <c r="AD12" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE12" s="6" t="inlineStr">
         <is>
-          <t>Increase to 30% by 2030</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF12" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>W_0702a_2040</t>
+          <t>W_0301f_R</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="b">
-        <v>0</v>
+          <t>Z03_B01_P01_Ib04_I01</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D13" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 45 % bis 2040</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 45% by 2040</t>
+      <c r="E13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Increase to be permanently halted</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J13" s="7">
-        <v>2040</v>
-      </c>
-      <c r="K13" s="7">
-        <v>2030</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2021</v>
-      </c>
-      <c r="N13" s="4" t="inlineStr">
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2312,37 +2346,37 @@
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T13" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X13" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Y13" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Z13" s="4" t="inlineStr">
@@ -2365,69 +2399,71 @@
           <t/>
         </is>
       </c>
-      <c r="AD13" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 45 % bis 2040</t>
+      <c r="AD13" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE13" s="6" t="inlineStr">
         <is>
-          <t>Increase to 45% by 2040</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF13" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>W_0702a_2050</t>
+          <t>W_0302a_2030</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="b">
-        <v>0</v>
+          <t>Z03_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2050</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2050</t>
+      <c r="E14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
+          <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J14" s="7">
-        <v>2050</v>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K14" s="7">
-        <v>2040</v>
-      </c>
-      <c r="N14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2030</v>
       </c>
       <c r="O14" s="4" t="inlineStr">
         <is>
@@ -2451,37 +2487,37 @@
       </c>
       <c r="S14" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T14" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X14" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Y14" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Z14" s="4" t="inlineStr">
@@ -2504,69 +2540,71 @@
           <t/>
         </is>
       </c>
-      <c r="AD14" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2050</t>
+      <c r="AD14" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE14" s="6" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2050</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF14" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2020</t>
+          <t>W_0302b_2030</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="b">
-        <v>0</v>
+          <t>Z03_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 35 % bis 2020</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 35% by 2020</t>
+      <c r="E15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
+          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J15" s="7">
-        <v>2020</v>
-      </c>
-      <c r="L15" s="7">
-        <v>2022</v>
-      </c>
-      <c r="N15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" s="7">
+        <v>2030</v>
       </c>
       <c r="O15" s="4" t="inlineStr">
         <is>
@@ -2590,32 +2628,32 @@
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="T15" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X15" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="Y15" s="4" t="inlineStr">
@@ -2643,73 +2681,72 @@
           <t/>
         </is>
       </c>
-      <c r="AD15" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 35 % bis 2020</t>
+      <c r="AD15" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE15" s="6" t="inlineStr">
         <is>
-          <t>Increase to 35% by 2020</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF15" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030a</t>
+          <t>W_0303x_2030</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="b">
-        <v>0</v>
+          <t>Z03_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 50 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 50% by 2030</t>
+      <c r="E16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung der Ausgaben bis 2030</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
+          <t>Expenditure to be increased by 2030</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="I16" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J16" s="7">
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>272,5</t>
+        </is>
+      </c>
+      <c r="K16" s="7">
         <v>2030</v>
       </c>
-      <c r="K16" s="7">
-        <v>2020</v>
-      </c>
-      <c r="L16" s="7">
-        <v>2021</v>
-      </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2732,37 +2769,37 @@
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="T16" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X16" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Z16" s="4" t="inlineStr">
@@ -2785,73 +2822,75 @@
           <t/>
         </is>
       </c>
-      <c r="AD16" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 50 % bis 2030</t>
+      <c r="AD16" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE16" s="6" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF16" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030b</t>
+          <t>W_0401a_2020</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="b">
-        <v>0</v>
+          <t>Z04_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 65 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 65% by 2030</t>
+      <c r="E17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf 10 % bis 2020</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
+          <t>Reduce the proportion to 10% by 2020</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="J17" s="7">
-        <v>2030</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2022</v>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K17" s="7">
+        <v>2020</v>
       </c>
       <c r="M17" s="7">
         <v>2021</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2874,37 +2913,37 @@
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="T17" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X17" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Z17" s="4" t="inlineStr">
@@ -2927,72 +2966,74 @@
           <t/>
         </is>
       </c>
-      <c r="AD17" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 65 % bis 2030</t>
+      <c r="AD17" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE17" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF17" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030c</t>
+          <t>W_0401a_2030</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="b">
-        <v>1</v>
+          <t>Z04_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 80% by 2030</t>
+      <c r="E18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
+          <t>Reduce the proportion to 9.5% by 2030</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H18" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J18" s="7">
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="K18" s="7">
         <v>2030</v>
       </c>
-      <c r="K18" s="7">
-        <v>2022</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2022</v>
-      </c>
-      <c r="N18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="N18" s="7">
+        <v>2021</v>
       </c>
       <c r="O18" s="4" t="inlineStr">
         <is>
@@ -3016,37 +3057,37 @@
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="T18" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X18" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="Y18" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Z18" s="4" t="inlineStr">
@@ -3069,73 +3110,75 @@
           <t/>
         </is>
       </c>
-      <c r="AD18" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+      <c r="AD18" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE18" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2030</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF18" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2040</t>
+          <t>W_0401b_2020</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="b">
-        <v>0</v>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 65 % bis 2040</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 65% by 2040</t>
+      <c r="E19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 42 % bis 2020</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
+          <t>Increase the proportion to 24% by 2020</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="J19" s="7">
-        <v>2040</v>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="K19" s="7">
-        <v>2030</v>
-      </c>
-      <c r="L19" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M19" s="7">
         <v>2021</v>
       </c>
-      <c r="N19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3158,37 +3201,37 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="T19" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X19" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Y19" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Z19" s="4" t="inlineStr">
@@ -3211,73 +3254,75 @@
           <t/>
         </is>
       </c>
-      <c r="AD19" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 65 % bis 2040</t>
+      <c r="AD19" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE19" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2040</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF19" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050a</t>
+          <t>W_0401b_2030</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="b">
-        <v>0</v>
+          <t>Z04_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 80 % bis 2050</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 80% by 2050</t>
+      <c r="E20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
+          <t>Increase the proportion to 55% by 2030</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H20" s="4" t="inlineStr">
+      <c r="I20" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J20" s="7">
-        <v>2050</v>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K20" s="7">
-        <v>2040</v>
-      </c>
-      <c r="L20" s="7">
+        <v>2030</v>
+      </c>
+      <c r="N20" s="7">
         <v>2021</v>
       </c>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O20" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3300,37 +3345,37 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="T20" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X20" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Y20" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Z20" s="4" t="inlineStr">
@@ -3353,72 +3398,71 @@
           <t/>
         </is>
       </c>
-      <c r="AD20" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 80 % bis 2050</t>
+      <c r="AD20" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE20" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2050</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF20" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050b</t>
+          <t>W_0402a_2030</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="b">
-        <v>0</v>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+      <c r="E21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
+          <t>Increase to 35% by 2030</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J21" s="7">
-        <v>2050</v>
-      </c>
-      <c r="L21" s="7">
-        <v>2022</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2021</v>
-      </c>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K21" s="7">
+        <v>2030</v>
       </c>
       <c r="O21" s="4" t="inlineStr">
         <is>
@@ -3442,37 +3486,37 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="T21" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="X21" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="Y21" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="Z21" s="4" t="inlineStr">
@@ -3495,63 +3539,74 @@
           <t/>
         </is>
       </c>
-      <c r="AD21" s="6" t="inlineStr">
-        <is>
-          <t>Treibhausgasneutralität bis 2050</t>
+      <c r="AD21" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="AE21" s="6" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality by 2050</t>
+          <t/>
+        </is>
+      </c>
+      <c r="AF21" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>W_0202x_R</t>
+          <t>W_0402b_2020</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z02_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="b">
-        <v>0</v>
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D22" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
+      <c r="E22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2020</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Increase to 60% by 2020</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K22" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2022</v>
       </c>
       <c r="O22" s="4" t="inlineStr">
         <is>
@@ -3628,12 +3683,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD22" s="6" t="inlineStr">
+      <c r="AD22" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE22" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF22" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3642,53 +3702,53 @@
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>W_0301a_2030</t>
+          <t>W_0402b_2030</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="b">
+          <t>Z04_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="5" t="b">
+      <c r="E23" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
+          <t>Increase to 70% by 2030</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J23" s="7">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K23" s="7">
         <v>2030</v>
       </c>
-      <c r="N23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O23" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3764,12 +3824,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD23" s="6" t="inlineStr">
+      <c r="AD23" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE23" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF23" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3778,52 +3843,52 @@
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>W_0301b_2030</t>
+          <t>W_0501a_2020</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib01_I02</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="b">
+          <t>Z05_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D24" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="5" t="b">
+      <c r="E24" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E24" s="6" t="inlineStr">
-        <is>
-          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>Verringerung des Abstandes auf 10 % bis 2020</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
+          <t>Reduce the gap to 10% by 2020</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="J24" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K24" s="7">
+        <v>2020</v>
       </c>
       <c r="O24" s="4" t="inlineStr">
         <is>
@@ -3900,12 +3965,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD24" s="6" t="inlineStr">
+      <c r="AD24" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF24" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3914,51 +3984,48 @@
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>W_0301c_2030</t>
+          <t>W_0501a_J</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="b">
+          <t>Z05_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="5" t="b">
+      <c r="E25" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="6" t="inlineStr">
-        <is>
-          <t>Senkung auf 7 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to 7% by 2030</t>
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>Beibehaltung des Abstandes von 10 % bis 2030</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Maintaine the gap of 10 % by 2030</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J25" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="O25" s="4" t="inlineStr">
@@ -4036,12 +4103,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD25" s="6" t="inlineStr">
+      <c r="AD25" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF25" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4050,53 +4122,53 @@
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>W_0301d_2030</t>
+          <t>W_0501b_2030a</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="b">
+          <t>Z05_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="5" t="b">
+      <c r="E26" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>Senkung auf 19 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to 19% by 2030</t>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
+          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J26" s="7">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K26" s="7">
         <v>2030</v>
       </c>
-      <c r="N26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O26" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4172,12 +4244,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD26" s="6" t="inlineStr">
+      <c r="AD26" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF26" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4186,49 +4263,52 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>W_0301e_R</t>
+          <t>W_0501c_2025</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib03_I01</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="b">
-        <v>0</v>
+          <t>Z05_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D27" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg dauerhaft stoppen</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>Increase to be permanently halted</t>
+      <c r="E27" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>K</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K27" s="7">
+        <v>2025</v>
       </c>
       <c r="O27" s="4" t="inlineStr">
         <is>
@@ -4305,12 +4385,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD27" s="6" t="inlineStr">
+      <c r="AD27" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF27" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4319,49 +4404,52 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>W_0301f_R</t>
+          <t>W_0501d_2030</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib04_I01</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="b">
-        <v>0</v>
+          <t>Z05_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D28" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg dauerhaft stoppen</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>Increase to be permanently halted</t>
+      <c r="E28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>65% by 2030</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>K</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K28" s="7">
+        <v>2030</v>
       </c>
       <c r="O28" s="4" t="inlineStr">
         <is>
@@ -4438,12 +4526,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD28" s="6" t="inlineStr">
+      <c r="AD28" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF28" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4452,53 +4545,53 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>W_0302a_2030</t>
+          <t>W_0501e_2030</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z03_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="b">
+          <t>Z05_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D29" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="b">
+      <c r="E29" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J29" s="7">
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="K29" s="7">
         <v>2030</v>
       </c>
-      <c r="N29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4574,12 +4667,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD29" s="6" t="inlineStr">
+      <c r="AD29" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF29" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4588,51 +4686,48 @@
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>W_0302b_2030</t>
+          <t>W_0601a_J</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z03_B02_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="b">
+          <t>Z06_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D30" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="5" t="b">
+      <c r="E30" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="6" t="inlineStr">
-        <is>
-          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>J</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J30" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="O30" s="4" t="inlineStr">
@@ -4710,12 +4805,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD30" s="6" t="inlineStr">
+      <c r="AD30" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF30" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4724,51 +4824,48 @@
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>W_0303x_2030</t>
+          <t>W_0601b_J</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z03_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="b">
+          <t>Z06_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D31" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="5" t="b">
+      <c r="E31" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="6" t="inlineStr">
-        <is>
-          <t>Steigerung der Ausgaben bis 2030</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>Expenditure to be increased by 2030</t>
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>steigen</t>
+          <t>J</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>272,5</t>
-        </is>
-      </c>
-      <c r="J31" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t/>
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="O31" s="4" t="inlineStr">
@@ -4846,12 +4943,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD31" s="6" t="inlineStr">
+      <c r="AD31" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF31" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4860,56 +4962,53 @@
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>W_0401a_2020</t>
+          <t>W_0602a_2030</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="b">
-        <v>0</v>
+          <t>Z06_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D32" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>Verringerung des Anteils auf 10 % bis 2020</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the proportion to 10% by 2020</t>
+      <c r="E32" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
+          <t>6 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J32" s="7">
-        <v>2020</v>
-      </c>
-      <c r="L32" s="7">
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N32" s="7">
         <v>2021</v>
       </c>
-      <c r="N32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4985,12 +5084,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD32" s="6" t="inlineStr">
+      <c r="AD32" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF32" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4999,56 +5103,53 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>W_0401a_2030</t>
+          <t>W_0602b_2030</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="b">
+          <t>Z06_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D33" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="5" t="b">
+      <c r="E33" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the proportion to 9.5% by 2030</t>
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
+          <t>4 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>9,5</t>
-        </is>
-      </c>
-      <c r="J33" s="7">
-        <v>2030</v>
-      </c>
-      <c r="M33" s="7">
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N33" s="7">
         <v>2021</v>
       </c>
-      <c r="N33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O33" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5124,12 +5225,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD33" s="6" t="inlineStr">
+      <c r="AD33" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF33" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5138,56 +5244,53 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>W_0401b_2020</t>
+          <t>W_0602x_2030</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="b">
-        <v>0</v>
+          <t>Z06_B02_P01_Ib01_I03</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D34" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils auf 42 % bis 2020</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion to 24% by 2020</t>
+      <c r="E34" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>10 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
+          <t>10 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H34" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="J34" s="7">
-        <v>2020</v>
-      </c>
-      <c r="L34" s="7">
+          <t>steigern</t>
+        </is>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M34" s="7">
         <v>2021</v>
       </c>
-      <c r="N34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O34" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5263,12 +5366,17 @@
           <t/>
         </is>
       </c>
-      <c r="AD34" s="6" t="inlineStr">
+      <c r="AD34" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF34" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5277,56 +5385,53 @@
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>W_0401b_2030</t>
+          <t>W_0701a_2030</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="b">
-        <v>0</v>
+          <t>Z07_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D35" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion to 55% by 2030</t>
+      <c r="E35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J35" s="7">
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>239,376</t>
+        </is>
+      </c>
+      <c r="K35" s="7">
         <v>2030</v>
       </c>
-      <c r="M35" s="7">
-        <v>2021</v>
-      </c>
-      <c r="N35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O35" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5354,37 +5459,37 @@
       </c>
       <c r="T35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA35" s="4" t="inlineStr">
@@ -5402,66 +5507,71 @@
           <t/>
         </is>
       </c>
-      <c r="AD35" s="6" t="inlineStr">
+      <c r="AD35" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE35" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung um 2,1 % pro Jahr</t>
+        </is>
+      </c>
+      <c r="AF35" s="6" t="inlineStr">
+        <is>
+          <t>Increase by 2.1% per year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>W_0402a_2030</t>
+          <t>W_0701b_2020</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="b">
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D36" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D36" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 35 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 35% by 2030</t>
+      <c r="E36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="inlineStr">
+        <is>
+          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
+          <t>Reduction by 20% by 2020 compared to 2008</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H36" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J36" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K36" s="7">
+        <v>2020</v>
       </c>
       <c r="O36" s="4" t="inlineStr">
         <is>
@@ -5490,32 +5600,32 @@
       </c>
       <c r="T36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z36" s="4" t="inlineStr">
@@ -5538,69 +5648,77 @@
           <t/>
         </is>
       </c>
-      <c r="AD36" s="6" t="inlineStr">
+      <c r="AD36" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE36" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung um 20 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AF36" s="6" t="inlineStr">
+        <is>
+          <t>Reduction by 20% by 2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>W_0402b_2020</t>
+          <t>W_0701b_2030</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="b">
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D37" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2020</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2020</t>
+      <c r="F37" s="6" t="inlineStr">
+        <is>
+          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
+          <t>Reduction by 30% by 2030 compared to 2008</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J37" s="7">
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K37" s="7">
+        <v>2030</v>
+      </c>
+      <c r="L37" s="7">
         <v>2020</v>
       </c>
-      <c r="L37" s="7">
-        <v>2022</v>
-      </c>
-      <c r="N37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="N37" s="7">
+        <v>2021</v>
       </c>
       <c r="O37" s="4" t="inlineStr">
         <is>
@@ -5629,37 +5747,37 @@
       </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Z37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AA37" s="4" t="inlineStr">
@@ -5677,67 +5795,75 @@
           <t/>
         </is>
       </c>
-      <c r="AD37" s="6" t="inlineStr">
+      <c r="AD37" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE37" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung um 30 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AF37" s="6" t="inlineStr">
+        <is>
+          <t>Reduction by 30% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>W_0402b_2030</t>
+          <t>W_0701b_2050</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="b">
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D38" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 70 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 70% by 2030</t>
+      <c r="E38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
+          <t>Reduction by 50% by 2050 compared to 2008</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H38" s="4" t="inlineStr">
-        <is>
-          <t>steigen</t>
-        </is>
-      </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J38" s="7">
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K38" s="7">
+        <v>2050</v>
+      </c>
+      <c r="L38" s="7">
         <v>2030</v>
       </c>
-      <c r="N38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5765,37 +5891,37 @@
       </c>
       <c r="T38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Z38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AA38" s="4" t="inlineStr">
@@ -5813,67 +5939,72 @@
           <t/>
         </is>
       </c>
-      <c r="AD38" s="6" t="inlineStr">
+      <c r="AD38" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE38" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung um 50 % bis 2050</t>
+        </is>
+      </c>
+      <c r="AF38" s="6" t="inlineStr">
+        <is>
+          <t>Reduction by 50% by 2050</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>W_0501a_2020</t>
+          <t>W_0702a_2020</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="b">
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D39" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="inlineStr">
-        <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the gap to 10% by 2020</t>
+      <c r="E39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
+          <t>Increase to 18% by 2020</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr">
-        <is>
-          <t>sinken</t>
-        </is>
-      </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J39" s="7">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K39" s="7">
         <v>2020</v>
       </c>
-      <c r="N39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O39" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5901,32 +6032,32 @@
       </c>
       <c r="T39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="X39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Y39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Z39" s="4" t="inlineStr">
@@ -5949,63 +6080,74 @@
           <t/>
         </is>
       </c>
-      <c r="AD39" s="6" t="inlineStr">
+      <c r="AD39" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE39" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 18 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AF39" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 18% by 2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>W_0501a_J</t>
+          <t>W_0702a_2030</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="b">
-        <v>0</v>
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D40" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>Beibehaltung des Abstandes von 10 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>Maintaine the gap of 10 % by 2030</t>
+      <c r="E40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Increase to 30% by 2030</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>sinken</t>
+          <t>K</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K40" s="7">
+        <v>2030</v>
+      </c>
+      <c r="L40" s="7">
+        <v>2020</v>
       </c>
       <c r="O40" s="4" t="inlineStr">
         <is>
@@ -6034,37 +6176,37 @@
       </c>
       <c r="T40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="Z40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA40" s="4" t="inlineStr">
@@ -6082,66 +6224,77 @@
           <t/>
         </is>
       </c>
-      <c r="AD40" s="6" t="inlineStr">
+      <c r="AD40" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE40" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 30 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AF40" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 30% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>W_0501b_2030a</t>
+          <t>W_0702a_2040</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="b">
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D41" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D41" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
+      <c r="E41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
+          <t>Increase to 45% by 2040</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr">
+      <c r="I41" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J41" s="7">
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K41" s="7">
+        <v>2040</v>
+      </c>
+      <c r="L41" s="7">
         <v>2030</v>
       </c>
-      <c r="N41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="N41" s="7">
+        <v>2021</v>
       </c>
       <c r="O41" s="4" t="inlineStr">
         <is>
@@ -6170,37 +6323,37 @@
       </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA41" s="4" t="inlineStr">
@@ -6218,66 +6371,74 @@
           <t/>
         </is>
       </c>
-      <c r="AD41" s="6" t="inlineStr">
+      <c r="AD41" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE41" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 45 % bis 2040</t>
+        </is>
+      </c>
+      <c r="AF41" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 45% by 2040</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>W_0501c_2025</t>
+          <t>W_0702a_2050</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="b">
+          <t>Z07_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D42" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+      <c r="E42" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
+          <t>Increase to 60% by 2050</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H42" s="4" t="inlineStr">
+      <c r="I42" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I42" s="4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J42" s="7">
-        <v>2025</v>
-      </c>
-      <c r="N42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K42" s="7">
+        <v>2050</v>
+      </c>
+      <c r="L42" s="7">
+        <v>2040</v>
       </c>
       <c r="O42" s="4" t="inlineStr">
         <is>
@@ -6306,37 +6467,37 @@
       </c>
       <c r="T42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA42" s="4" t="inlineStr">
@@ -6354,66 +6515,74 @@
           <t/>
         </is>
       </c>
-      <c r="AD42" s="6" t="inlineStr">
+      <c r="AD42" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE42" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 60 % bis 2050</t>
+        </is>
+      </c>
+      <c r="AF42" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2050</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>W_0501d_2030</t>
+          <t>W_0702b_2020</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="b">
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D43" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>65 % bis 2030</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr">
-        <is>
-          <t>65% by 2030</t>
+      <c r="E43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 35 % bis 2020</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 35% by 2020</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H43" s="4" t="inlineStr">
+      <c r="I43" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="J43" s="7">
-        <v>2030</v>
-      </c>
-      <c r="N43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K43" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M43" s="7">
+        <v>2022</v>
       </c>
       <c r="O43" s="4" t="inlineStr">
         <is>
@@ -6442,32 +6611,32 @@
       </c>
       <c r="T43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="X43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Y43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="Z43" s="4" t="inlineStr">
@@ -6490,66 +6659,77 @@
           <t/>
         </is>
       </c>
-      <c r="AD43" s="6" t="inlineStr">
+      <c r="AD43" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE43" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 35 % bis 2020</t>
+        </is>
+      </c>
+      <c r="AF43" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 35% by 2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>W_0501e_2030</t>
+          <t>W_0702b_2030a</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="b">
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D44" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+      <c r="E44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 50 % bis 2030</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 50% by 2030</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H44" s="4" t="inlineStr">
-        <is>
-          <t>steigern</t>
-        </is>
-      </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="J44" s="7">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K44" s="7">
         <v>2030</v>
       </c>
-      <c r="N44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="L44" s="7">
+        <v>2020</v>
+      </c>
+      <c r="M44" s="7">
+        <v>2021</v>
       </c>
       <c r="O44" s="4" t="inlineStr">
         <is>
@@ -6578,37 +6758,37 @@
       </c>
       <c r="T44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="X44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Y44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="Z44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AA44" s="4" t="inlineStr">
@@ -6626,63 +6806,77 @@
           <t/>
         </is>
       </c>
-      <c r="AD44" s="6" t="inlineStr">
+      <c r="AD44" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE44" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 50 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AF44" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 50% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>W_0601a_J</t>
+          <t>W_0702b_2030b</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="b">
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D45" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="inlineStr">
-        <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
-        </is>
-      </c>
-      <c r="F45" s="4" t="inlineStr">
-        <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+      <c r="E45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 65 % bis 2030</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Increase to at least 65% by 2030</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>K</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="N45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K45" s="7">
+        <v>2030</v>
+      </c>
+      <c r="M45" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N45" s="7">
+        <v>2021</v>
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
@@ -6711,37 +6905,37 @@
       </c>
       <c r="T45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="U45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="X45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Y45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="Z45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AA45" s="4" t="inlineStr">
@@ -6759,63 +6953,77 @@
           <t/>
         </is>
       </c>
-      <c r="AD45" s="6" t="inlineStr">
+      <c r="AD45" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE45" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AF45" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 65% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>W_0601b_J</t>
+          <t>W_0702b_2030c</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="b">
-        <v>0</v>
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D46" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="6" t="inlineStr">
-        <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
-        </is>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+      <c r="E46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Increase to at least 80% by 2030</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>steigern</t>
+          <t>K</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="N46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K46" s="7">
+        <v>2030</v>
+      </c>
+      <c r="L46" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2022</v>
       </c>
       <c r="O46" s="4" t="inlineStr">
         <is>
@@ -6844,37 +7052,37 @@
       </c>
       <c r="T46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="X46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="Z46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA46" s="4" t="inlineStr">
@@ -6892,67 +7100,78 @@
           <t/>
         </is>
       </c>
-      <c r="AD46" s="6" t="inlineStr">
+      <c r="AD46" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE46" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 80 % bis 2030</t>
+        </is>
+      </c>
+      <c r="AF46" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 80% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>W_0602a_2030</t>
+          <t>W_0702b_2040</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C47" s="5" t="b">
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6" t="inlineStr">
-        <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>6 million people per year by 2030</t>
+      <c r="E47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 65 % bis 2040</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 65% by 2040</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr">
-        <is>
-          <t>steigern</t>
-        </is>
-      </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K47" s="7">
+        <v>2040</v>
+      </c>
+      <c r="L47" s="7">
+        <v>2030</v>
       </c>
       <c r="M47" s="7">
         <v>2021</v>
       </c>
-      <c r="N47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O47" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6980,37 +7199,37 @@
       </c>
       <c r="T47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="U47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Y47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Z47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AA47" s="4" t="inlineStr">
@@ -7028,67 +7247,78 @@
           <t/>
         </is>
       </c>
-      <c r="AD47" s="6" t="inlineStr">
+      <c r="AD47" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE47" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 65 % bis 2040</t>
+        </is>
+      </c>
+      <c r="AF47" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 65% by 2040</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>W_0602b_2030</t>
+          <t>W_0702b_2050a</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
-        </is>
-      </c>
-      <c r="C48" s="5" t="b">
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D48" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D48" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6" t="inlineStr">
-        <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>4 million people per year by 2030</t>
+      <c r="E48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>Anstieg auf mindestens 80 % bis 2050</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
+          <t>Increase to at least 80% by 2050</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H48" s="4" t="inlineStr">
-        <is>
-          <t>steigern</t>
-        </is>
-      </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K48" s="7">
+        <v>2050</v>
+      </c>
+      <c r="L48" s="7">
+        <v>2040</v>
       </c>
       <c r="M48" s="7">
         <v>2021</v>
       </c>
-      <c r="N48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O48" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7116,37 +7346,37 @@
       </c>
       <c r="T48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="U48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="X48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Y48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Z48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AA48" s="4" t="inlineStr">
@@ -7164,67 +7394,78 @@
           <t/>
         </is>
       </c>
-      <c r="AD48" s="6" t="inlineStr">
+      <c r="AD48" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE48" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 80 % bis 2050</t>
+        </is>
+      </c>
+      <c r="AF48" s="6" t="inlineStr">
+        <is>
+          <t>Increase to 80% by 2050</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>W_0602x_2030</t>
+          <t>W_0702b_2050b</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="b">
+          <t>Z07_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D49" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D49" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6" t="inlineStr">
-        <is>
-          <t>10 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>10 million people per year by 2030</t>
+      <c r="E49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
+          <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr">
-        <is>
-          <t>steigern</t>
-        </is>
-      </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L49" s="7">
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K49" s="7">
+        <v>2050</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N49" s="7">
         <v>2021</v>
       </c>
-      <c r="N49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O49" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7252,37 +7493,37 @@
       </c>
       <c r="T49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="U49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="X49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Y49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="Z49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AA49" s="4" t="inlineStr">
@@ -7300,14 +7541,19 @@
           <t/>
         </is>
       </c>
-      <c r="AD49" s="6" t="inlineStr">
+      <c r="AD49" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AE49" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgasneutralität bis 2050</t>
+        </is>
+      </c>
+      <c r="AF49" s="6" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality by 2050</t>
         </is>
       </c>
     </row>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="D6" s="5" t="b">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib02_I01</t>
+          <t>Z03_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="D16" s="5" t="b">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -221,11 +221,11 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -535,13 +535,13 @@
     <col customWidth="true" min="3" max="3" width="28.5625"/>
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
-    <col customWidth="true" min="6" max="6" width="26.07421875"/>
-    <col customWidth="true" min="7" max="7" width="19.04296875"/>
+    <col customWidth="true" min="6" max="6" width="13.8359375"/>
+    <col customWidth="true" min="7" max="7" width="13.8359375"/>
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
     <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>
-    <col customWidth="true" min="11" max="11" width="13.8359375"/>
-    <col customWidth="true" min="12" max="12" width="13.8359375"/>
+    <col customWidth="true" min="11" max="11" width="26.07421875"/>
+    <col customWidth="true" min="12" max="12" width="19.04296875"/>
     <col customWidth="true" min="13" max="13" width="13.8359375"/>
     <col customWidth="true" min="14" max="14" width="13.8359375"/>
     <col customWidth="true" min="15" max="15" width="13.8359375"/>
@@ -562,6 +562,9 @@
     <col customWidth="true" min="30" max="30" width="13.8359375"/>
     <col customWidth="true" min="31" max="31" width="13.8359375"/>
     <col customWidth="true" min="32" max="32" width="13.8359375"/>
+    <col customWidth="true" min="33" max="33" width="13.8359375"/>
+    <col customWidth="true" min="34" max="34" width="13.8359375"/>
+    <col customWidth="true" min="35" max="35" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -582,147 +585,162 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>LabelPositionY</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>AnzeigenAb</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>AnzeigenBis</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>AktuellGültig?</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>InGrafikAnzeigen?</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>ZielKurzDe</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>ZielKurzEn</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtDe</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtEn</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Zieltyp</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Zielrichtung</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Zielwert</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>VorherigesZieljahr</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Gültig bis</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Gültig seit</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>2025</t>
-        </is>
-      </c>
-      <c r="AE1" s="2" t="inlineStr">
-        <is>
-          <t>ZielKurzDe</t>
-        </is>
-      </c>
-      <c r="AF1" s="2" t="inlineStr">
-        <is>
-          <t>ZielKurzEn</t>
         </is>
       </c>
     </row>
@@ -742,65 +760,50 @@
           <t/>
         </is>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="b">
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>Keep the proportion of persons who are materially deprived considerably below the EU-level by 2030</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N2" s="7">
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S2" s="5">
         <v>2018</v>
       </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -856,12 +859,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF2" s="6" t="inlineStr">
+      <c r="AE2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -883,65 +901,50 @@
           <t/>
         </is>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="b">
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
         <is>
           <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>Keep the proportion of persons who are severely materially deprived considerably below the EU level by 2030</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N3" s="7">
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S3" s="5">
         <v>2018</v>
       </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -997,12 +1000,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF3" s="6" t="inlineStr">
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1024,65 +1042,53 @@
           <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="5">
+        <v>80</v>
+      </c>
+      <c r="G4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="b">
+      <c r="H4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K4" s="7" t="inlineStr">
         <is>
           <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="K4" s="7">
+      <c r="P4" s="5">
         <v>2030</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1138,12 +1144,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF4" s="6" t="inlineStr">
+      <c r="AE4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1165,68 +1186,53 @@
           <t>A_SERIES_DSTTS</t>
         </is>
       </c>
-      <c r="D5" s="5" t="b">
+      <c r="G5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="b">
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="K5" s="7">
+      <c r="P5" s="5">
         <v>2030</v>
       </c>
-      <c r="M5" s="7">
+      <c r="R5" s="5">
         <v>2021</v>
       </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1282,12 +1288,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF5" s="6" t="inlineStr">
+      <c r="AE5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI5" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1309,68 +1330,56 @@
           <t>A_SERIES_DSTTS</t>
         </is>
       </c>
-      <c r="D6" s="5" t="b">
+      <c r="D6" s="5">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="b">
+      <c r="H6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K6" s="7" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 30% by 2030</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="K6" s="7">
+      <c r="P6" s="5">
         <v>2030</v>
       </c>
-      <c r="N6" s="7">
+      <c r="S6" s="5">
         <v>2022</v>
       </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T6" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1426,12 +1435,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF6" s="6" t="inlineStr">
+      <c r="AE6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI6" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1453,62 +1477,47 @@
           <t/>
         </is>
       </c>
-      <c r="D7" s="5" t="b">
+      <c r="G7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="b">
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="7" t="inlineStr">
         <is>
           <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T7" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1564,12 +1573,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF7" s="6" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1591,65 +1615,53 @@
           <t/>
         </is>
       </c>
-      <c r="D8" s="5" t="b">
+      <c r="D8" s="5">
+        <v>120</v>
+      </c>
+      <c r="G8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="b">
+      <c r="H8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="K8" s="7">
+      <c r="P8" s="5">
         <v>2030</v>
       </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T8" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1705,12 +1717,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF8" s="6" t="inlineStr">
+      <c r="AE8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1732,65 +1759,53 @@
           <t/>
         </is>
       </c>
-      <c r="D9" s="5" t="b">
+      <c r="D9" s="5">
+        <v>210</v>
+      </c>
+      <c r="G9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="5" t="b">
+      <c r="H9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="7" t="inlineStr">
         <is>
           <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="K9" s="7">
+      <c r="P9" s="5">
         <v>2030</v>
       </c>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T9" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1846,12 +1861,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE9" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF9" s="6" t="inlineStr">
+      <c r="AE9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI9" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1873,65 +1903,53 @@
           <t/>
         </is>
       </c>
-      <c r="D10" s="5" t="b">
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="5" t="b">
+      <c r="H10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="7" t="inlineStr">
         <is>
           <t>Senkung auf 7 % bis 2030</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>Reduction to 7% by 2030</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="K10" s="7">
+      <c r="P10" s="5">
         <v>2030</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T10" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1987,12 +2005,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE10" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF10" s="6" t="inlineStr">
+      <c r="AE10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI10" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2014,65 +2047,53 @@
           <t/>
         </is>
       </c>
-      <c r="D11" s="5" t="b">
+      <c r="D11" s="5">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="b">
+      <c r="H11" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K11" s="7" t="inlineStr">
         <is>
           <t>Senkung auf 19 % bis 2030</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>Reduction to 19% by 2030</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="K11" s="7">
+      <c r="P11" s="5">
         <v>2030</v>
       </c>
-      <c r="O11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T11" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2128,12 +2149,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE11" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF11" s="6" t="inlineStr">
+      <c r="AE11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI11" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2155,62 +2191,47 @@
           <t/>
         </is>
       </c>
-      <c r="D12" s="5" t="b">
+      <c r="G12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="5" t="b">
+      <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" s="7" t="inlineStr">
         <is>
           <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>Increase to be permanently halted</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T12" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2266,12 +2287,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE12" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF12" s="6" t="inlineStr">
+      <c r="AE12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2293,62 +2329,47 @@
           <t/>
         </is>
       </c>
-      <c r="D13" s="5" t="b">
+      <c r="G13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="5" t="b">
+      <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F13" s="6" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K13" s="7" t="inlineStr">
         <is>
           <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>Increase to be permanently halted</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T13" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2404,12 +2425,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE13" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF13" s="6" t="inlineStr">
+      <c r="AE13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2431,65 +2467,53 @@
           <t/>
         </is>
       </c>
-      <c r="D14" s="5" t="b">
+      <c r="D14" s="5">
+        <v>60</v>
+      </c>
+      <c r="G14" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="5" t="b">
+      <c r="H14" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="7" t="inlineStr">
         <is>
           <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="K14" s="7">
+      <c r="P14" s="5">
         <v>2030</v>
       </c>
-      <c r="O14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2545,12 +2569,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE14" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF14" s="6" t="inlineStr">
+      <c r="AE14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI14" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2572,65 +2611,53 @@
           <t/>
         </is>
       </c>
-      <c r="D15" s="5" t="b">
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="5" t="b">
+      <c r="H15" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K15" s="7" t="inlineStr">
         <is>
           <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K15" s="7">
+      <c r="P15" s="5">
         <v>2030</v>
       </c>
-      <c r="O15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T15" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2686,12 +2713,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE15" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF15" s="6" t="inlineStr">
+      <c r="AE15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI15" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2713,65 +2755,53 @@
           <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
-      <c r="D16" s="5" t="b">
+      <c r="D16" s="5">
+        <v>320</v>
+      </c>
+      <c r="G16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="5" t="b">
+      <c r="H16" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K16" s="7" t="inlineStr">
         <is>
           <t>Steigerung der Ausgaben bis 2030</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>Expenditure to be increased by 2030</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>272,5</t>
         </is>
       </c>
-      <c r="K16" s="7">
+      <c r="P16" s="5">
         <v>2030</v>
       </c>
-      <c r="O16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T16" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2827,12 +2857,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE16" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF16" s="6" t="inlineStr">
+      <c r="AE16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI16" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2854,68 +2899,53 @@
           <t/>
         </is>
       </c>
-      <c r="D17" s="5" t="b">
+      <c r="G17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="5" t="b">
+      <c r="H17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="I17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K17" s="7" t="inlineStr">
         <is>
           <t>Verringerung des Anteils auf 10 % bis 2020</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion to 10% by 2020</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K17" s="7">
+      <c r="P17" s="5">
         <v>2020</v>
       </c>
-      <c r="M17" s="7">
+      <c r="R17" s="5">
         <v>2021</v>
       </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2971,12 +3001,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF17" s="6" t="inlineStr">
+      <c r="AE17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI17" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2998,68 +3043,56 @@
           <t/>
         </is>
       </c>
-      <c r="D18" s="5" t="b">
+      <c r="D18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="5" t="b">
+      <c r="H18" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" s="7" t="inlineStr">
         <is>
           <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion to 9.5% by 2030</t>
         </is>
       </c>
-      <c r="H18" s="4" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="K18" s="7">
+      <c r="P18" s="5">
         <v>2030</v>
       </c>
-      <c r="N18" s="7">
+      <c r="S18" s="5">
         <v>2021</v>
       </c>
-      <c r="O18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3115,12 +3148,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE18" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF18" s="6" t="inlineStr">
+      <c r="AE18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI18" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3142,68 +3190,53 @@
           <t/>
         </is>
       </c>
-      <c r="D19" s="5" t="b">
+      <c r="G19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="5" t="b">
+      <c r="H19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K19" s="7" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 42 % bis 2020</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 24% by 2020</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="K19" s="7">
+      <c r="P19" s="5">
         <v>2020</v>
       </c>
-      <c r="M19" s="7">
+      <c r="R19" s="5">
         <v>2021</v>
       </c>
-      <c r="O19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3259,12 +3292,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF19" s="6" t="inlineStr">
+      <c r="AE19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI19" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3286,68 +3334,56 @@
           <t/>
         </is>
       </c>
-      <c r="D20" s="5" t="b">
+      <c r="D20" s="5">
+        <v>60</v>
+      </c>
+      <c r="G20" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="5" t="b">
+      <c r="H20" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K20" s="7" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 55% by 2030</t>
         </is>
       </c>
-      <c r="H20" s="4" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="K20" s="7">
+      <c r="P20" s="5">
         <v>2030</v>
       </c>
-      <c r="N20" s="7">
+      <c r="S20" s="5">
         <v>2021</v>
       </c>
-      <c r="O20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T20" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3403,12 +3439,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF20" s="6" t="inlineStr">
+      <c r="AE20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI20" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3430,65 +3481,53 @@
           <t/>
         </is>
       </c>
-      <c r="D21" s="5" t="b">
+      <c r="D21" s="5">
+        <v>40</v>
+      </c>
+      <c r="G21" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E21" s="5" t="b">
+      <c r="H21" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="I21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K21" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>Increase to 35% by 2030</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="K21" s="7">
+      <c r="P21" s="5">
         <v>2030</v>
       </c>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T21" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3544,12 +3583,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF21" s="6" t="inlineStr">
+      <c r="AE21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI21" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3571,68 +3625,53 @@
           <t/>
         </is>
       </c>
-      <c r="D22" s="5" t="b">
+      <c r="G22" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E22" s="5" t="b">
+      <c r="H22" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="I22" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J22" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K22" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2020</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2020</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="K22" s="7">
+      <c r="P22" s="5">
         <v>2020</v>
       </c>
-      <c r="M22" s="7">
+      <c r="R22" s="5">
         <v>2022</v>
       </c>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3688,12 +3727,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF22" s="6" t="inlineStr">
+      <c r="AE22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI22" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3715,65 +3769,53 @@
           <t/>
         </is>
       </c>
-      <c r="D23" s="5" t="b">
+      <c r="D23" s="5">
+        <v>80</v>
+      </c>
+      <c r="G23" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="5" t="b">
+      <c r="H23" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="6" t="inlineStr">
+      <c r="I23" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J23" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K23" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
         <is>
           <t>Increase to 70% by 2030</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I23" s="4" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="K23" s="7">
+      <c r="P23" s="5">
         <v>2030</v>
       </c>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T23" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3829,12 +3871,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF23" s="6" t="inlineStr">
+      <c r="AE23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI23" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3856,65 +3913,53 @@
           <t/>
         </is>
       </c>
-      <c r="D24" s="5" t="b">
+      <c r="D24" s="5">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="5" t="b">
+      <c r="H24" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="6" t="inlineStr">
+      <c r="I24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K24" s="7" t="inlineStr">
         <is>
           <t>Verringerung des Abstandes auf 10 % bis 2020</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>Reduce the gap to 10% by 2020</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K24" s="7">
+      <c r="P24" s="5">
         <v>2020</v>
       </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T24" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3970,12 +4015,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF24" s="6" t="inlineStr">
+      <c r="AE24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI24" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3997,62 +4057,50 @@
           <t/>
         </is>
       </c>
-      <c r="D25" s="5" t="b">
+      <c r="E25" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G25" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="5" t="b">
+      <c r="H25" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="6" t="inlineStr">
+      <c r="I25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K25" s="7" t="inlineStr">
         <is>
           <t>Beibehaltung des Abstandes von 10 % bis 2030</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="L25" s="4" t="inlineStr">
         <is>
           <t>Maintaine the gap of 10 % by 2030</t>
         </is>
       </c>
-      <c r="H25" s="4" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T25" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4108,12 +4156,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF25" s="6" t="inlineStr">
+      <c r="AE25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI25" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4135,65 +4198,53 @@
           <t/>
         </is>
       </c>
-      <c r="D26" s="5" t="b">
+      <c r="D26" s="5">
+        <v>33</v>
+      </c>
+      <c r="G26" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="5" t="b">
+      <c r="H26" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="I26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K26" s="7" t="inlineStr">
         <is>
           <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
         <is>
           <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="K26" s="7">
+      <c r="P26" s="5">
         <v>2030</v>
       </c>
-      <c r="O26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T26" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4249,12 +4300,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF26" s="6" t="inlineStr">
+      <c r="AE26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI26" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4268,7 +4334,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -4276,65 +4342,53 @@
           <t/>
         </is>
       </c>
-      <c r="D27" s="5" t="b">
+      <c r="D27" s="5">
+        <v>53</v>
+      </c>
+      <c r="G27" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E27" s="5" t="b">
+      <c r="H27" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="6" t="inlineStr">
+      <c r="I27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K27" s="7" t="inlineStr">
         <is>
           <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="N27" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="K27" s="7">
+      <c r="P27" s="5">
         <v>2025</v>
       </c>
-      <c r="O27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4390,12 +4444,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF27" s="6" t="inlineStr">
+      <c r="AE27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI27" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4417,65 +4486,50 @@
           <t/>
         </is>
       </c>
-      <c r="D28" s="5" t="b">
+      <c r="G28" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="5" t="b">
+      <c r="H28" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="6" t="inlineStr">
+      <c r="I28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K28" s="7" t="inlineStr">
         <is>
           <t>65 % bis 2030</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>65% by 2030</t>
         </is>
       </c>
-      <c r="H28" s="4" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I28" s="4" t="inlineStr">
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="K28" s="7">
+      <c r="P28" s="5">
         <v>2030</v>
       </c>
-      <c r="O28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T28" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4531,12 +4585,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF28" s="6" t="inlineStr">
+      <c r="AE28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI28" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4558,65 +4627,50 @@
           <t/>
         </is>
       </c>
-      <c r="D29" s="5" t="b">
+      <c r="G29" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E29" s="5" t="b">
+      <c r="H29" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="6" t="inlineStr">
+      <c r="I29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K29" s="7" t="inlineStr">
         <is>
           <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="K29" s="7">
+      <c r="P29" s="5">
         <v>2030</v>
       </c>
-      <c r="O29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T29" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4672,12 +4726,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF29" s="6" t="inlineStr">
+      <c r="AE29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI29" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4699,62 +4768,47 @@
           <t/>
         </is>
       </c>
-      <c r="D30" s="5" t="b">
+      <c r="G30" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E30" s="5" t="b">
+      <c r="H30" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K30" s="7" t="inlineStr">
         <is>
           <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="L30" s="4" t="inlineStr">
         <is>
           <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
-      <c r="H30" s="4" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr">
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="O30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T30" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4810,12 +4864,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF30" s="6" t="inlineStr">
+      <c r="AE30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI30" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4837,62 +4906,47 @@
           <t/>
         </is>
       </c>
-      <c r="D31" s="5" t="b">
+      <c r="G31" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="5" t="b">
+      <c r="H31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F31" s="6" t="inlineStr">
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K31" s="7" t="inlineStr">
         <is>
           <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="L31" s="4" t="inlineStr">
         <is>
           <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
-      <c r="H31" s="4" t="inlineStr">
+      <c r="M31" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr">
+      <c r="N31" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="O31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4948,12 +5002,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF31" s="6" t="inlineStr">
+      <c r="AE31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI31" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4975,65 +5044,50 @@
           <t/>
         </is>
       </c>
-      <c r="D32" s="5" t="b">
+      <c r="G32" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="5" t="b">
+      <c r="H32" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K32" s="7" t="inlineStr">
         <is>
           <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="L32" s="4" t="inlineStr">
         <is>
           <t>6 million people per year by 2030</t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr">
+      <c r="M32" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N32" s="7">
+      <c r="S32" s="5">
         <v>2021</v>
       </c>
-      <c r="O32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T32" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5089,12 +5143,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF32" s="6" t="inlineStr">
+      <c r="AE32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI32" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5116,65 +5185,50 @@
           <t/>
         </is>
       </c>
-      <c r="D33" s="5" t="b">
+      <c r="G33" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E33" s="5" t="b">
+      <c r="H33" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F33" s="6" t="inlineStr">
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K33" s="7" t="inlineStr">
         <is>
           <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="L33" s="4" t="inlineStr">
         <is>
           <t>4 million people per year by 2030</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="M33" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="N33" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N33" s="7">
+      <c r="S33" s="5">
         <v>2021</v>
       </c>
-      <c r="O33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T33" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5230,12 +5284,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF33" s="6" t="inlineStr">
+      <c r="AE33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI33" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5257,65 +5326,50 @@
           <t/>
         </is>
       </c>
-      <c r="D34" s="5" t="b">
+      <c r="G34" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="5" t="b">
+      <c r="H34" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="6" t="inlineStr">
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K34" s="7" t="inlineStr">
         <is>
           <t>10 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>10 million people per year by 2030</t>
         </is>
       </c>
-      <c r="H34" s="4" t="inlineStr">
+      <c r="M34" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I34" s="4" t="inlineStr">
+      <c r="N34" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M34" s="7">
+      <c r="R34" s="5">
         <v>2021</v>
       </c>
-      <c r="O34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T34" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5371,12 +5425,27 @@
           <t/>
         </is>
       </c>
-      <c r="AE34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF34" s="6" t="inlineStr">
+      <c r="AE34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI34" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5398,128 +5467,128 @@
           <t/>
         </is>
       </c>
-      <c r="D35" s="5" t="b">
+      <c r="G35" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="5" t="b">
+      <c r="H35" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung um 2,1 % pro Jahr</t>
+        </is>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
+        <is>
+          <t>Increase by 2.1% per year</t>
+        </is>
+      </c>
+      <c r="K35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr">
+      <c r="N35" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>239,376</t>
         </is>
       </c>
-      <c r="K35" s="7">
+      <c r="P35" s="5">
         <v>2030</v>
       </c>
-      <c r="O35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T35" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y35" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U35" s="4" t="inlineStr">
+      <c r="Z35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V35" s="4" t="inlineStr">
+      <c r="AA35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="W35" s="4" t="inlineStr">
+      <c r="AB35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="X35" s="4" t="inlineStr">
+      <c r="AC35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="AD35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="inlineStr">
+      <c r="AE35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE35" s="6" t="inlineStr">
-        <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
-        </is>
-      </c>
-      <c r="AF35" s="6" t="inlineStr">
-        <is>
-          <t>Increase by 2.1% per year</t>
+      <c r="AF35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI35" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5539,128 +5608,128 @@
           <t/>
         </is>
       </c>
-      <c r="D36" s="5" t="b">
+      <c r="G36" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E36" s="5" t="b">
+      <c r="H36" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="6" t="inlineStr">
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>Senkung um 20 % bis 2020</t>
+        </is>
+      </c>
+      <c r="J36" s="7" t="inlineStr">
+        <is>
+          <t>Reduction by 20% by 2020</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="L36" s="4" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020 compared to 2008</t>
         </is>
       </c>
-      <c r="H36" s="4" t="inlineStr">
+      <c r="M36" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I36" s="4" t="inlineStr">
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="O36" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="K36" s="7">
+      <c r="P36" s="5">
         <v>2020</v>
       </c>
-      <c r="O36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T36" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y36" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U36" s="4" t="inlineStr">
+      <c r="Z36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V36" s="4" t="inlineStr">
+      <c r="AA36" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="W36" s="4" t="inlineStr">
+      <c r="AB36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="X36" s="4" t="inlineStr">
+      <c r="AC36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="AD36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE36" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 20 % bis 2020</t>
-        </is>
-      </c>
-      <c r="AF36" s="6" t="inlineStr">
-        <is>
-          <t>Reduction by 20% by 2020</t>
+      <c r="AE36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI36" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5680,134 +5749,134 @@
           <t/>
         </is>
       </c>
-      <c r="D37" s="5" t="b">
+      <c r="G37" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E37" s="5" t="b">
+      <c r="H37" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="6" t="inlineStr">
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>Senkung um 30 % bis 2030</t>
+        </is>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
+        <is>
+          <t>Reduction by 30% by 2030</t>
+        </is>
+      </c>
+      <c r="K37" s="7" t="inlineStr">
         <is>
           <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="L37" s="4" t="inlineStr">
         <is>
           <t>Reduction by 30% by 2030 compared to 2008</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr">
+      <c r="M37" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr">
+      <c r="N37" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="O37" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="K37" s="7">
+      <c r="P37" s="5">
         <v>2030</v>
       </c>
-      <c r="L37" s="7">
+      <c r="Q37" s="5">
         <v>2020</v>
       </c>
-      <c r="N37" s="7">
+      <c r="S37" s="5">
         <v>2021</v>
       </c>
-      <c r="O37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y37" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="U37" s="4" t="inlineStr">
+      <c r="Z37" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V37" s="4" t="inlineStr">
+      <c r="AA37" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="W37" s="4" t="inlineStr">
+      <c r="AB37" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="X37" s="4" t="inlineStr">
+      <c r="AC37" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="AD37" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="inlineStr">
+      <c r="AE37" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AA37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE37" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 30 % bis 2030</t>
-        </is>
-      </c>
-      <c r="AF37" s="6" t="inlineStr">
-        <is>
-          <t>Reduction by 30% by 2030</t>
+      <c r="AF37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI37" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5827,131 +5896,131 @@
           <t/>
         </is>
       </c>
-      <c r="D38" s="5" t="b">
+      <c r="G38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="5" t="b">
+      <c r="H38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>Senkung um 50 % bis 2050</t>
+        </is>
+      </c>
+      <c r="J38" s="7" t="inlineStr">
+        <is>
+          <t>Reduction by 50% by 2050</t>
+        </is>
+      </c>
+      <c r="K38" s="7" t="inlineStr">
         <is>
           <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="L38" s="4" t="inlineStr">
         <is>
           <t>Reduction by 50% by 2050 compared to 2008</t>
         </is>
       </c>
-      <c r="H38" s="4" t="inlineStr">
+      <c r="M38" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I38" s="4" t="inlineStr">
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="K38" s="7">
+      <c r="P38" s="5">
         <v>2050</v>
       </c>
-      <c r="L38" s="7">
+      <c r="Q38" s="5">
         <v>2030</v>
       </c>
-      <c r="O38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T38" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y38" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U38" s="4" t="inlineStr">
+      <c r="Z38" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V38" s="4" t="inlineStr">
+      <c r="AA38" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="W38" s="4" t="inlineStr">
+      <c r="AB38" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="X38" s="4" t="inlineStr">
+      <c r="AC38" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Y38" s="4" t="inlineStr">
+      <c r="AD38" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z38" s="4" t="inlineStr">
+      <c r="AE38" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AA38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE38" s="6" t="inlineStr">
-        <is>
-          <t>Senkung um 50 % bis 2050</t>
-        </is>
-      </c>
-      <c r="AF38" s="6" t="inlineStr">
-        <is>
-          <t>Reduction by 50% by 2050</t>
+      <c r="AF38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI38" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5971,128 +6040,128 @@
           <t/>
         </is>
       </c>
-      <c r="D39" s="5" t="b">
+      <c r="G39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="5" t="b">
+      <c r="H39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="I39" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="J39" s="7" t="inlineStr">
         <is>
           <t>Increase to 18% by 2020</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr">
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 18 % bis 2020</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 18% by 2020</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
+      <c r="N39" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="K39" s="7">
+      <c r="P39" s="5">
         <v>2020</v>
       </c>
-      <c r="O39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T39" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y39" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U39" s="4" t="inlineStr">
+      <c r="Z39" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V39" s="4" t="inlineStr">
+      <c r="AA39" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="W39" s="4" t="inlineStr">
+      <c r="AB39" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="X39" s="4" t="inlineStr">
+      <c r="AC39" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y39" s="4" t="inlineStr">
+      <c r="AD39" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE39" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 18 % bis 2020</t>
-        </is>
-      </c>
-      <c r="AF39" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 18% by 2020</t>
+      <c r="AE39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI39" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6112,131 +6181,131 @@
           <t/>
         </is>
       </c>
-      <c r="D40" s="5" t="b">
+      <c r="G40" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="b">
+      <c r="H40" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="I40" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="J40" s="7" t="inlineStr">
         <is>
           <t>Increase to 30% by 2030</t>
         </is>
       </c>
-      <c r="H40" s="4" t="inlineStr">
+      <c r="K40" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 30 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 30% by 2030</t>
+        </is>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I40" s="4" t="inlineStr">
+      <c r="N40" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="K40" s="7">
+      <c r="P40" s="5">
         <v>2030</v>
       </c>
-      <c r="L40" s="7">
+      <c r="Q40" s="5">
         <v>2020</v>
       </c>
-      <c r="O40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T40" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y40" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U40" s="4" t="inlineStr">
+      <c r="Z40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V40" s="4" t="inlineStr">
+      <c r="AA40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="W40" s="4" t="inlineStr">
+      <c r="AB40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="X40" s="4" t="inlineStr">
+      <c r="AC40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Y40" s="4" t="inlineStr">
+      <c r="AD40" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="Z40" s="4" t="inlineStr">
+      <c r="AE40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE40" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 30 % bis 2030</t>
-        </is>
-      </c>
-      <c r="AF40" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 30% by 2030</t>
+      <c r="AF40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI40" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6256,134 +6325,134 @@
           <t/>
         </is>
       </c>
-      <c r="D41" s="5" t="b">
+      <c r="G41" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="5" t="b">
+      <c r="H41" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="I41" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="J41" s="7" t="inlineStr">
         <is>
           <t>Increase to 45% by 2040</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 45 % bis 2040</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 45% by 2040</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr">
+      <c r="N41" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="K41" s="7">
+      <c r="P41" s="5">
         <v>2040</v>
       </c>
-      <c r="L41" s="7">
+      <c r="Q41" s="5">
         <v>2030</v>
       </c>
-      <c r="N41" s="7">
+      <c r="S41" s="5">
         <v>2021</v>
       </c>
-      <c r="O41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y41" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U41" s="4" t="inlineStr">
+      <c r="Z41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V41" s="4" t="inlineStr">
+      <c r="AA41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="W41" s="4" t="inlineStr">
+      <c r="AB41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="X41" s="4" t="inlineStr">
+      <c r="AC41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Y41" s="4" t="inlineStr">
+      <c r="AD41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z41" s="4" t="inlineStr">
+      <c r="AE41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE41" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 45 % bis 2040</t>
-        </is>
-      </c>
-      <c r="AF41" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 45% by 2040</t>
+      <c r="AF41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI41" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6403,131 +6472,131 @@
           <t/>
         </is>
       </c>
-      <c r="D42" s="5" t="b">
+      <c r="G42" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E42" s="5" t="b">
+      <c r="H42" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="I42" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="J42" s="7" t="inlineStr">
         <is>
           <t>Increase to 60% by 2050</t>
         </is>
       </c>
-      <c r="H42" s="4" t="inlineStr">
+      <c r="K42" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2050</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2050</t>
+        </is>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I42" s="4" t="inlineStr">
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="K42" s="7">
+      <c r="P42" s="5">
         <v>2050</v>
       </c>
-      <c r="L42" s="7">
+      <c r="Q42" s="5">
         <v>2040</v>
       </c>
-      <c r="O42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T42" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y42" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U42" s="4" t="inlineStr">
+      <c r="Z42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="V42" s="4" t="inlineStr">
+      <c r="AA42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="W42" s="4" t="inlineStr">
+      <c r="AB42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="X42" s="4" t="inlineStr">
+      <c r="AC42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Y42" s="4" t="inlineStr">
+      <c r="AD42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z42" s="4" t="inlineStr">
+      <c r="AE42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE42" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2050</t>
-        </is>
-      </c>
-      <c r="AF42" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2050</t>
+      <c r="AF42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI42" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6547,131 +6616,131 @@
           <t/>
         </is>
       </c>
-      <c r="D43" s="5" t="b">
+      <c r="G43" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E43" s="5" t="b">
+      <c r="H43" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="6" t="inlineStr">
+      <c r="I43" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 35 % bis 2020</t>
+        </is>
+      </c>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>Increase to 35% by 2020</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 35 % bis 2020</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="L43" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 35% by 2020</t>
         </is>
       </c>
-      <c r="H43" s="4" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr">
+      <c r="N43" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="K43" s="7">
+      <c r="P43" s="5">
         <v>2020</v>
       </c>
-      <c r="M43" s="7">
+      <c r="R43" s="5">
         <v>2022</v>
       </c>
-      <c r="O43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T43" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y43" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U43" s="4" t="inlineStr">
+      <c r="Z43" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V43" s="4" t="inlineStr">
+      <c r="AA43" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W43" s="4" t="inlineStr">
+      <c r="AB43" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="X43" s="4" t="inlineStr">
+      <c r="AC43" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y43" s="4" t="inlineStr">
+      <c r="AD43" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Z43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE43" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 35 % bis 2020</t>
-        </is>
-      </c>
-      <c r="AF43" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 35% by 2020</t>
+      <c r="AE43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI43" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6691,134 +6760,134 @@
           <t/>
         </is>
       </c>
-      <c r="D44" s="5" t="b">
+      <c r="G44" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E44" s="5" t="b">
+      <c r="H44" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="6" t="inlineStr">
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 50 % bis 2030</t>
+        </is>
+      </c>
+      <c r="J44" s="7" t="inlineStr">
+        <is>
+          <t>Increase to 50% by 2030</t>
+        </is>
+      </c>
+      <c r="K44" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 50 % bis 2030</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="L44" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 50% by 2030</t>
         </is>
       </c>
-      <c r="H44" s="4" t="inlineStr">
+      <c r="M44" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I44" s="4" t="inlineStr">
+      <c r="N44" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="K44" s="7">
+      <c r="P44" s="5">
         <v>2030</v>
       </c>
-      <c r="L44" s="7">
+      <c r="Q44" s="5">
         <v>2020</v>
       </c>
-      <c r="M44" s="7">
+      <c r="R44" s="5">
         <v>2021</v>
       </c>
-      <c r="O44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T44" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y44" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U44" s="4" t="inlineStr">
+      <c r="Z44" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V44" s="4" t="inlineStr">
+      <c r="AA44" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W44" s="4" t="inlineStr">
+      <c r="AB44" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="X44" s="4" t="inlineStr">
+      <c r="AC44" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y44" s="4" t="inlineStr">
+      <c r="AD44" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Z44" s="4" t="inlineStr">
+      <c r="AE44" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AA44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE44" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 50 % bis 2030</t>
-        </is>
-      </c>
-      <c r="AF44" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 50% by 2030</t>
+      <c r="AF44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI44" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6838,134 +6907,134 @@
           <t/>
         </is>
       </c>
-      <c r="D45" s="5" t="b">
+      <c r="G45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="5" t="b">
+      <c r="H45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="6" t="inlineStr">
+      <c r="I45" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>Increase to 65% by 2030</t>
+        </is>
+      </c>
+      <c r="K45" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 65 % bis 2030</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="L45" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 65% by 2030</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr">
+      <c r="M45" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I45" s="4" t="inlineStr">
+      <c r="N45" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="K45" s="7">
+      <c r="P45" s="5">
         <v>2030</v>
       </c>
-      <c r="M45" s="7">
+      <c r="R45" s="5">
         <v>2022</v>
       </c>
-      <c r="N45" s="7">
+      <c r="S45" s="5">
         <v>2021</v>
       </c>
-      <c r="O45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T45" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y45" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U45" s="4" t="inlineStr">
+      <c r="Z45" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V45" s="4" t="inlineStr">
+      <c r="AA45" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W45" s="4" t="inlineStr">
+      <c r="AB45" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="X45" s="4" t="inlineStr">
+      <c r="AC45" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y45" s="4" t="inlineStr">
+      <c r="AD45" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Z45" s="4" t="inlineStr">
+      <c r="AE45" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AA45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE45" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 65 % bis 2030</t>
-        </is>
-      </c>
-      <c r="AF45" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 65% by 2030</t>
+      <c r="AF45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI45" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6985,134 +7054,134 @@
           <t/>
         </is>
       </c>
-      <c r="D46" s="5" t="b">
+      <c r="G46" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="5" t="b">
+      <c r="H46" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="6" t="inlineStr">
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 80 % bis 2030</t>
+        </is>
+      </c>
+      <c r="J46" s="7" t="inlineStr">
+        <is>
+          <t>Increase to 80% by 2030</t>
+        </is>
+      </c>
+      <c r="K46" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="L46" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 80% by 2030</t>
         </is>
       </c>
-      <c r="H46" s="4" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I46" s="4" t="inlineStr">
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="K46" s="7">
+      <c r="P46" s="5">
         <v>2030</v>
       </c>
-      <c r="L46" s="7">
+      <c r="Q46" s="5">
         <v>2022</v>
       </c>
-      <c r="N46" s="7">
+      <c r="S46" s="5">
         <v>2022</v>
       </c>
-      <c r="O46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T46" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y46" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U46" s="4" t="inlineStr">
+      <c r="Z46" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V46" s="4" t="inlineStr">
+      <c r="AA46" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="W46" s="4" t="inlineStr">
+      <c r="AB46" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="X46" s="4" t="inlineStr">
+      <c r="AC46" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Y46" s="4" t="inlineStr">
+      <c r="AD46" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Z46" s="4" t="inlineStr">
+      <c r="AE46" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE46" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 80 % bis 2030</t>
-        </is>
-      </c>
-      <c r="AF46" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 80% by 2030</t>
+      <c r="AF46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI46" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7132,134 +7201,134 @@
           <t/>
         </is>
       </c>
-      <c r="D47" s="5" t="b">
+      <c r="G47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E47" s="5" t="b">
+      <c r="H47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="6" t="inlineStr">
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 65 % bis 2040</t>
+        </is>
+      </c>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>Increase to 65% by 2040</t>
+        </is>
+      </c>
+      <c r="K47" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 65 % bis 2040</t>
         </is>
       </c>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="L47" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 65% by 2040</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr">
+      <c r="M47" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I47" s="4" t="inlineStr">
+      <c r="N47" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="K47" s="7">
+      <c r="P47" s="5">
         <v>2040</v>
       </c>
-      <c r="L47" s="7">
+      <c r="Q47" s="5">
         <v>2030</v>
       </c>
-      <c r="M47" s="7">
+      <c r="R47" s="5">
         <v>2021</v>
       </c>
-      <c r="O47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T47" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y47" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="U47" s="4" t="inlineStr">
+      <c r="Z47" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V47" s="4" t="inlineStr">
+      <c r="AA47" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="W47" s="4" t="inlineStr">
+      <c r="AB47" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="X47" s="4" t="inlineStr">
+      <c r="AC47" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y47" s="4" t="inlineStr">
+      <c r="AD47" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z47" s="4" t="inlineStr">
+      <c r="AE47" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AA47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE47" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 65 % bis 2040</t>
-        </is>
-      </c>
-      <c r="AF47" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 65% by 2040</t>
+      <c r="AF47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI47" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7279,134 +7348,134 @@
           <t/>
         </is>
       </c>
-      <c r="D48" s="5" t="b">
+      <c r="G48" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E48" s="5" t="b">
+      <c r="H48" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="6" t="inlineStr">
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>Anstieg auf 80 % bis 2050</t>
+        </is>
+      </c>
+      <c r="J48" s="7" t="inlineStr">
+        <is>
+          <t>Increase to 80% by 2050</t>
+        </is>
+      </c>
+      <c r="K48" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 80 % bis 2050</t>
         </is>
       </c>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="L48" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 80% by 2050</t>
         </is>
       </c>
-      <c r="H48" s="4" t="inlineStr">
+      <c r="M48" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I48" s="4" t="inlineStr">
+      <c r="N48" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J48" s="4" t="inlineStr">
+      <c r="O48" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="K48" s="7">
+      <c r="P48" s="5">
         <v>2050</v>
       </c>
-      <c r="L48" s="7">
+      <c r="Q48" s="5">
         <v>2040</v>
       </c>
-      <c r="M48" s="7">
+      <c r="R48" s="5">
         <v>2021</v>
       </c>
-      <c r="O48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T48" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y48" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U48" s="4" t="inlineStr">
+      <c r="Z48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="V48" s="4" t="inlineStr">
+      <c r="AA48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W48" s="4" t="inlineStr">
+      <c r="AB48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="X48" s="4" t="inlineStr">
+      <c r="AC48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y48" s="4" t="inlineStr">
+      <c r="AD48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z48" s="4" t="inlineStr">
+      <c r="AE48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AA48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE48" s="6" t="inlineStr">
-        <is>
-          <t>Anstieg auf 80 % bis 2050</t>
-        </is>
-      </c>
-      <c r="AF48" s="6" t="inlineStr">
-        <is>
-          <t>Increase to 80% by 2050</t>
+      <c r="AF48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI48" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7426,134 +7495,134 @@
           <t/>
         </is>
       </c>
-      <c r="D49" s="5" t="b">
+      <c r="G49" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E49" s="5" t="b">
+      <c r="H49" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="6" t="inlineStr">
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>Treibhausgasneutralität bis 2050</t>
+        </is>
+      </c>
+      <c r="J49" s="7" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality by 2050</t>
+        </is>
+      </c>
+      <c r="K49" s="7" t="inlineStr">
         <is>
           <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="L49" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I49" s="4" t="inlineStr">
+      <c r="N49" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="K49" s="7">
+      <c r="P49" s="5">
         <v>2050</v>
       </c>
-      <c r="M49" s="7">
+      <c r="R49" s="5">
         <v>2022</v>
       </c>
-      <c r="N49" s="7">
+      <c r="S49" s="5">
         <v>2021</v>
       </c>
-      <c r="O49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="T49" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y49" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="U49" s="4" t="inlineStr">
+      <c r="Z49" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="V49" s="4" t="inlineStr">
+      <c r="AA49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="W49" s="4" t="inlineStr">
+      <c r="AB49" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="X49" s="4" t="inlineStr">
+      <c r="AC49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Y49" s="4" t="inlineStr">
+      <c r="AD49" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Z49" s="4" t="inlineStr">
+      <c r="AE49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AA49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE49" s="6" t="inlineStr">
-        <is>
-          <t>Treibhausgasneutralität bis 2050</t>
-        </is>
-      </c>
-      <c r="AF49" s="6" t="inlineStr">
-        <is>
-          <t>Greenhouse gas neutrality by 2050</t>
+      <c r="AF49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI49" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -532,7 +532,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="20.80078125"/>
     <col customWidth="true" min="2" max="2" width="16.84375"/>
-    <col customWidth="true" min="3" max="3" width="28.5625"/>
+    <col customWidth="true" min="3" max="3" width="12.01171875"/>
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="D8" s="5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6" t="b">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D9" s="5">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G9" s="6" t="b">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="D18" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="6" t="b">
         <v>0</v>
@@ -7621,6 +7621,1260 @@
         </is>
       </c>
       <c r="AI49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>W_0801x_2030</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J50" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K50" s="7" t="inlineStr">
+        <is>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N50" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O50" s="4" t="inlineStr">
+        <is>
+          <t>160,2</t>
+        </is>
+      </c>
+      <c r="P50" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>W_0802a_J</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J51" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K51" s="7" t="inlineStr">
+        <is>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N51" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O51" s="4" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="T51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>W_0802b_J</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E52" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J52" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K52" s="7" t="inlineStr">
+        <is>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N52" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O52" s="4" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="T52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>W_0802c_J</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J53" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K53" s="7" t="inlineStr">
+        <is>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N53" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O53" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="T53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>W_0803x_R</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J54" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K54" s="7" t="inlineStr">
+        <is>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N54" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>W_0804x_R</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J55" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K55" s="7" t="inlineStr">
+        <is>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>Steady and appropriate economic growth</t>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N55" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>W_0805a_2030</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J56" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K56" s="7" t="inlineStr">
+        <is>
+          <t>Erhöhung auf 78 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 78% by 2030</t>
+        </is>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N56" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O56" s="4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="P56" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>W_0805b_2030</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J57" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K57" s="7" t="inlineStr">
+        <is>
+          <t>Erhöhung auf 60 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2030</t>
+        </is>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N57" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O57" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="P57" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>W_0806x_R</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B06_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J58" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K58" s="7" t="inlineStr">
+        <is>
+          <t>Signifikante Steigerung bis 2030</t>
+        </is>
+      </c>
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t>Significantly increase by 2030</t>
+        </is>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N58" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI58" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -533,7 +533,7 @@
     <col customWidth="true" min="1" max="1" width="20.80078125"/>
     <col customWidth="true" min="2" max="2" width="16.84375"/>
     <col customWidth="true" min="3" max="3" width="12.01171875"/>
-    <col customWidth="true" min="4" max="4" width="13.8359375"/>
+    <col customWidth="true" min="4" max="4" width="16.55078125"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
@@ -4486,6 +4486,9 @@
           <t/>
         </is>
       </c>
+      <c r="D28" s="5">
+        <v>55</v>
+      </c>
       <c r="G28" s="6" t="b">
         <v>0</v>
       </c>
@@ -4627,6 +4630,9 @@
           <t/>
         </is>
       </c>
+      <c r="D29" s="5">
+        <v>500</v>
+      </c>
       <c r="G29" s="6" t="b">
         <v>0</v>
       </c>
@@ -5085,6 +5091,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="P32" s="5">
+        <v>2030</v>
+      </c>
       <c r="S32" s="5">
         <v>2021</v>
       </c>
@@ -5226,6 +5235,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="P33" s="5">
+        <v>2030</v>
+      </c>
       <c r="S33" s="5">
         <v>2021</v>
       </c>
@@ -5367,6 +5379,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="P34" s="5">
+        <v>2030</v>
+      </c>
       <c r="R34" s="5">
         <v>2021</v>
       </c>
@@ -5471,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7" t="inlineStr">
         <is>
@@ -5612,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7" t="inlineStr">
         <is>
@@ -5753,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7" t="inlineStr">
         <is>
@@ -5900,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7" t="inlineStr">
         <is>
@@ -6044,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7" t="inlineStr">
         <is>
@@ -6185,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7" t="inlineStr">
         <is>
@@ -6329,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="7" t="inlineStr">
         <is>
@@ -6476,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7" t="inlineStr">
         <is>
@@ -7058,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7" t="inlineStr">
         <is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI58"/>
+  <dimension ref="A1:AI105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -530,19 +530,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="20.80078125"/>
+    <col customWidth="true" min="1" max="1" width="16.84375"/>
     <col customWidth="true" min="2" max="2" width="16.84375"/>
-    <col customWidth="true" min="3" max="3" width="12.01171875"/>
-    <col customWidth="true" min="4" max="4" width="16.55078125"/>
-    <col customWidth="true" min="5" max="5" width="13.8359375"/>
-    <col customWidth="true" min="6" max="6" width="13.8359375"/>
-    <col customWidth="true" min="7" max="7" width="13.8359375"/>
-    <col customWidth="true" min="8" max="8" width="13.8359375"/>
-    <col customWidth="true" min="9" max="9" width="13.8359375"/>
-    <col customWidth="true" min="10" max="10" width="13.8359375"/>
+    <col customWidth="true" min="3" max="3" width="7.46875"/>
+    <col customWidth="true" min="4" max="4" width="5.7109375"/>
+    <col customWidth="true" min="5" max="5" width="12.44921875"/>
+    <col customWidth="true" min="6" max="6" width="8.203125"/>
+    <col customWidth="true" min="7" max="7" width="15.8203125"/>
+    <col customWidth="true" min="8" max="8" width="10.10546875"/>
+    <col customWidth="true" min="9" max="9" width="5.7109375"/>
+    <col customWidth="true" min="10" max="10" width="5.7109375"/>
     <col customWidth="true" min="11" max="11" width="26.07421875"/>
     <col customWidth="true" min="12" max="12" width="19.04296875"/>
-    <col customWidth="true" min="13" max="13" width="13.8359375"/>
+    <col customWidth="true" min="13" max="13" width="8.7890625"/>
     <col customWidth="true" min="14" max="14" width="13.8359375"/>
     <col customWidth="true" min="15" max="15" width="13.8359375"/>
     <col customWidth="true" min="16" max="16" width="13.8359375"/>
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="D29" s="5">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G29" s="6" t="b">
         <v>0</v>
@@ -5482,6 +5482,9 @@
           <t/>
         </is>
       </c>
+      <c r="D35" s="5">
+        <v>210</v>
+      </c>
       <c r="G35" s="6" t="b">
         <v>1</v>
       </c>
@@ -5520,7 +5523,7 @@
       </c>
       <c r="O35" s="4" t="inlineStr">
         <is>
-          <t>239,376</t>
+          <t>239,4</t>
         </is>
       </c>
       <c r="P35" s="5">
@@ -5623,6 +5626,9 @@
           <t/>
         </is>
       </c>
+      <c r="D36" s="5">
+        <v>65</v>
+      </c>
       <c r="G36" s="6" t="b">
         <v>0</v>
       </c>
@@ -5764,6 +5770,9 @@
           <t/>
         </is>
       </c>
+      <c r="D37" s="5">
+        <v>55</v>
+      </c>
       <c r="G37" s="6" t="b">
         <v>1</v>
       </c>
@@ -5911,6 +5920,9 @@
           <t/>
         </is>
       </c>
+      <c r="D38" s="5">
+        <v>35</v>
+      </c>
       <c r="G38" s="6" t="b">
         <v>0</v>
       </c>
@@ -6055,6 +6067,9 @@
           <t/>
         </is>
       </c>
+      <c r="D39" s="5">
+        <v>25</v>
+      </c>
       <c r="G39" s="6" t="b">
         <v>0</v>
       </c>
@@ -6196,6 +6211,9 @@
           <t/>
         </is>
       </c>
+      <c r="D40" s="5">
+        <v>37</v>
+      </c>
       <c r="G40" s="6" t="b">
         <v>1</v>
       </c>
@@ -6340,6 +6358,9 @@
           <t/>
         </is>
       </c>
+      <c r="D41" s="5">
+        <v>52</v>
+      </c>
       <c r="G41" s="6" t="b">
         <v>0</v>
       </c>
@@ -6487,6 +6508,9 @@
           <t/>
         </is>
       </c>
+      <c r="D42" s="5">
+        <v>67</v>
+      </c>
       <c r="G42" s="6" t="b">
         <v>0</v>
       </c>
@@ -7069,6 +7093,9 @@
           <t/>
         </is>
       </c>
+      <c r="D46" s="5">
+        <v>70</v>
+      </c>
       <c r="G46" s="6" t="b">
         <v>1</v>
       </c>
@@ -7654,8 +7681,11 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_MATINPTPROD</t>
+        </is>
+      </c>
+      <c r="D50" s="5">
+        <v>175</v>
       </c>
       <c r="G50" s="6" t="b">
         <v>0</v>
@@ -8774,7 +8804,7 @@
         </is>
       </c>
       <c r="G58" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="6" t="b">
         <v>0</v>
@@ -8890,6 +8920,6645 @@
         </is>
       </c>
       <c r="AI58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>W_0901a_2025</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J59" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K59" s="7" t="inlineStr">
+        <is>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="inlineStr">
+        <is>
+          <t>At least 3.5% of GDP per year by 2025</t>
+        </is>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N59" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O59" s="4" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="P59" s="5">
+        <v>2025</v>
+      </c>
+      <c r="S59" s="5">
+        <v>2018</v>
+      </c>
+      <c r="T59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>W_0901a_2030</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J60" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K60" s="7" t="inlineStr">
+        <is>
+          <t>Jährlich mindestens 3 % des BIP bis 2030</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>At least 3% of GDP per year by 2030</t>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N60" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O60" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P60" s="5">
+        <v>2030</v>
+      </c>
+      <c r="R60" s="5">
+        <v>2018</v>
+      </c>
+      <c r="T60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>W_0901b_2025</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G61" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J61" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K61" s="7" t="inlineStr">
+        <is>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>Universal gigabit network Roll-out by 2025</t>
+        </is>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N61" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O61" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="P61" s="5">
+        <v>2025</v>
+      </c>
+      <c r="T61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>W_1001x_2030a</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J62" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K62" s="7" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+        </is>
+      </c>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+        </is>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>W_1001x_2030b</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J63" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K63" s="7" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate</t>
+        </is>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N63" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>W_1001x_2030c</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_DIFFERENCE</t>
+        </is>
+      </c>
+      <c r="G64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J64" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K64" s="7" t="inlineStr">
+        <is>
+          <t>Angleichung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
+        </is>
+      </c>
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t>Bring the proportion of foreign school leavers with a least a secondary general school certificate into line with that of German school leavers by 2030</t>
+        </is>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N64" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O64" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P64" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>W_1002x_J</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G65" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J65" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K65" s="7" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-Wertes</t>
+        </is>
+      </c>
+      <c r="L65" s="4" t="inlineStr">
+        <is>
+          <t>Gini coefficient of income after social transfers to be below the EU figure by 2030</t>
+        </is>
+      </c>
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N65" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O65" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>W_1101a_2030</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_4YAVERAGE</t>
+        </is>
+      </c>
+      <c r="G66" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J66" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K66" s="7" t="inlineStr">
+        <is>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+        </is>
+      </c>
+      <c r="L66" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
+        </is>
+      </c>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N66" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O66" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P66" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>W_1101b_R</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G67" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J67" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K67" s="7" t="inlineStr">
+        <is>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the loss of per capita open space area</t>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N67" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>W_1101c_R</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G68" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J68" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K68" s="7" t="inlineStr">
+        <is>
+          <t>Keine Verringerung der Siedlungsdichte</t>
+        </is>
+      </c>
+      <c r="L68" s="4" t="inlineStr">
+        <is>
+          <t>No reduction in density of settlements</t>
+        </is>
+      </c>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N68" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>W_1102a_2030</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G69" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J69" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K69" s="7" t="inlineStr">
+        <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20% by 2030</t>
+        </is>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N69" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O69" s="4" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="P69" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>W_1102b_2030</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ENINPASSTRA</t>
+        </is>
+      </c>
+      <c r="G70" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J70" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K70" s="7" t="inlineStr">
+        <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20% by 2030</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O70" s="4" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="P70" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>W_1102c_R</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib03_I01</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G71" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J71" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K71" s="7" t="inlineStr">
+        <is>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t>Reduction of average travel time by public transport</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>W_1103x_2030</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G72" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J72" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K72" s="7" t="inlineStr">
+        <is>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
+        </is>
+      </c>
+      <c r="M72" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N72" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O72" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P72" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>W_1104x_2030</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J73" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K73" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+        </is>
+      </c>
+      <c r="L73" s="4" t="inlineStr">
+        <is>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+        </is>
+      </c>
+      <c r="M73" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N73" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O73" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P73" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>W_1201a_2030</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G74" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J74" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K74" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="inlineStr">
+        <is>
+          <t>Increase the market share to 34% by 2030</t>
+        </is>
+      </c>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N74" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O74" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="P74" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>W_1201ba_R</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G75" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J75" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K75" s="7" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="L75" s="4" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="M75" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N75" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>W_1201bb_R</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G76" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J76" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K76" s="7" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="L76" s="4" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N76" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>W_1201bc_R</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02_I03</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G77" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J77" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K77" s="7" t="inlineStr">
+        <is>
+          <t>Kontinuierliche Reduzierung </t>
+        </is>
+      </c>
+      <c r="L77" s="4" t="inlineStr">
+        <is>
+          <t>Steady reduction</t>
+        </is>
+      </c>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N77" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>W_1202x_R</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G78" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J78" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K78" s="7" t="inlineStr">
+        <is>
+          <t>5 000 Organisationsstandorte bis 2030</t>
+        </is>
+      </c>
+      <c r="L78" s="4" t="inlineStr">
+        <is>
+          <t>5,000 locations of organisations by 2030</t>
+        </is>
+      </c>
+      <c r="M78" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N78" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O78" s="4" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="P78" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>W_1203a_2020</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G79" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J79" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K79" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+        </is>
+      </c>
+      <c r="L79" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 95% by 2020</t>
+        </is>
+      </c>
+      <c r="M79" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N79" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O79" s="4" t="inlineStr">
+        <is>
+          <t>210,8</t>
+        </is>
+      </c>
+      <c r="P79" s="5">
+        <v>2020</v>
+      </c>
+      <c r="T79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>W_1203b_R</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G80" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J80" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K80" s="7" t="inlineStr">
+        <is>
+          <t>Signifikante Senkung</t>
+        </is>
+      </c>
+      <c r="L80" s="4" t="inlineStr">
+        <is>
+          <t>Significantly reduce</t>
+        </is>
+      </c>
+      <c r="M80" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N80" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>W_1301a_2020</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J81" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K81" s="7" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 40 % bis 2020</t>
+        </is>
+      </c>
+      <c r="L81" s="4" t="inlineStr">
+        <is>
+          <t>Reduce by at least 40% by 2020</t>
+        </is>
+      </c>
+      <c r="M81" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N81" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O81" s="4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="P81" s="5">
+        <v>2020</v>
+      </c>
+      <c r="R81" s="5">
+        <v>2022</v>
+      </c>
+      <c r="T81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>W_1301a_2030a</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J82" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K82" s="7" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 55 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L82" s="4" t="inlineStr">
+        <is>
+          <t>Reduce by at least 55% by 2030</t>
+        </is>
+      </c>
+      <c r="M82" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N82" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O82" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="P82" s="5">
+        <v>2030</v>
+      </c>
+      <c r="R82" s="5">
+        <v>2022</v>
+      </c>
+      <c r="T82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>W_1301a_2030b</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G83" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J83" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K83" s="7" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="L83" s="4" t="inlineStr">
+        <is>
+          <t>Reduce by at least 65% by 2030</t>
+        </is>
+      </c>
+      <c r="M83" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N83" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O83" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="P83" s="5">
+        <v>2030</v>
+      </c>
+      <c r="S83" s="5">
+        <v>2022</v>
+      </c>
+      <c r="T83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>W_1301a_2040a</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J84" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K84" s="7" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 70 % bis 2040</t>
+        </is>
+      </c>
+      <c r="L84" s="4" t="inlineStr">
+        <is>
+          <t>Reduce by at least 70% by 2040</t>
+        </is>
+      </c>
+      <c r="M84" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N84" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O84" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P84" s="5">
+        <v>2040</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>2030</v>
+      </c>
+      <c r="R84" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>W_1301a_2040b</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G85" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J85" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K85" s="7" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 88 % bis 2040</t>
+        </is>
+      </c>
+      <c r="L85" s="4" t="inlineStr">
+        <is>
+          <t>Reduce by at least 88% by 2040</t>
+        </is>
+      </c>
+      <c r="M85" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N85" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O85" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P85" s="5">
+        <v>2040</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>2030</v>
+      </c>
+      <c r="S85" s="5">
+        <v>2022</v>
+      </c>
+      <c r="T85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>W_1301a_2045</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J86" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K86" s="7" t="inlineStr">
+        <is>
+          <t>Erreichung der Treibhausgasneutralität bis 2045</t>
+        </is>
+      </c>
+      <c r="L86" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality to be achieved by 2045</t>
+        </is>
+      </c>
+      <c r="M86" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N86" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O86" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P86" s="5">
+        <v>2045</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>2040</v>
+      </c>
+      <c r="S86" s="5">
+        <v>2022</v>
+      </c>
+      <c r="T86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>W_1301a_2050a</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J87" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K87" s="7" t="inlineStr">
+        <is>
+          <t>Minderung um mindestens 80 % bis 95 % bis 2050</t>
+        </is>
+      </c>
+      <c r="L87" s="4" t="inlineStr">
+        <is>
+          <t>Reduce by at least 80% to 95% by 2050</t>
+        </is>
+      </c>
+      <c r="M87" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N87" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O87" s="4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="P87" s="5">
+        <v>2050</v>
+      </c>
+      <c r="R87" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>W_1301a_2050b</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J88" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K88" s="7" t="inlineStr">
+        <is>
+          <t>Erreichung der Treibhausgasneutralität bis 2050</t>
+        </is>
+      </c>
+      <c r="L88" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas neutrality to be achieved by 2050</t>
+        </is>
+      </c>
+      <c r="M88" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N88" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O88" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P88" s="5">
+        <v>2050</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>2040</v>
+      </c>
+      <c r="R88" s="5">
+        <v>2022</v>
+      </c>
+      <c r="S88" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>W_1301b_2020</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J89" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K89" s="7" t="inlineStr">
+        <is>
+          <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="L89" s="4" t="inlineStr">
+        <is>
+          <t>Double finance by 2020 compared to 2014</t>
+        </is>
+      </c>
+      <c r="M89" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N89" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O89" s="4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P89" s="5">
+        <v>2020</v>
+      </c>
+      <c r="R89" s="5">
+        <v>2022</v>
+      </c>
+      <c r="T89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>W_1301b_2025</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G90" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J90" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K90" s="7" t="inlineStr">
+        <is>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+        </is>
+      </c>
+      <c r="L90" s="4" t="inlineStr">
+        <is>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest.</t>
+        </is>
+      </c>
+      <c r="M90" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N90" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O90" s="4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P90" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>2022</v>
+      </c>
+      <c r="T90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>W_1401aa_J</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G91" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J91" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K91" s="7" t="inlineStr">
+        <is>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+        </is>
+      </c>
+      <c r="L91" s="4" t="inlineStr">
+        <is>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+        </is>
+      </c>
+      <c r="M91" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N91" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O91" s="4" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="T91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>W_1401ab_J</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G92" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J92" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K92" s="7" t="inlineStr">
+        <is>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+        </is>
+      </c>
+      <c r="L92" s="4" t="inlineStr">
+        <is>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+        </is>
+      </c>
+      <c r="M92" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N92" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O92" s="4" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="T92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>W_1401b_2020</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib02_I01</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G93" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J93" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K93" s="7" t="inlineStr">
+        <is>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+        </is>
+      </c>
+      <c r="L93" s="4" t="inlineStr">
+        <is>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+        </is>
+      </c>
+      <c r="M93" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N93" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O93" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="P93" s="5">
+        <v>2020</v>
+      </c>
+      <c r="T93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>W_1501x_2030</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G94" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J94" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K94" s="7" t="inlineStr">
+        <is>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
+        </is>
+      </c>
+      <c r="L94" s="4" t="inlineStr">
+        <is>
+          <t>Reach the index value of 100 by 2030</t>
+        </is>
+      </c>
+      <c r="M94" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N94" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O94" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="P94" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>W_1502x_2030</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G95" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J95" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K95" s="7" t="inlineStr">
+        <is>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+        </is>
+      </c>
+      <c r="L95" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 35% by 2030 compared to 2005</t>
+        </is>
+      </c>
+      <c r="M95" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N95" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O95" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="P95" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>W_1503a_R</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G96" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J96" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K96" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="L96" s="4" t="inlineStr">
+        <is>
+          <t>Increase payments by 2030</t>
+        </is>
+      </c>
+      <c r="M96" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N96" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>W_1503b_R</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G97" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J97" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K97" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="L97" s="4" t="inlineStr">
+        <is>
+          <t>Increase payments by 2030</t>
+        </is>
+      </c>
+      <c r="M97" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N97" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>W_1601x_2030a</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G98" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J98" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K98" s="7" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+        </is>
+      </c>
+      <c r="L98" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+        </is>
+      </c>
+      <c r="M98" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N98" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O98" s="4" t="inlineStr">
+        <is>
+          <t>6500</t>
+        </is>
+      </c>
+      <c r="P98" s="5">
+        <v>2030</v>
+      </c>
+      <c r="S98" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>W_1601x_2030b</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G99" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J99" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K99" s="7" t="inlineStr">
+        <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+        </is>
+      </c>
+      <c r="L99" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+        </is>
+      </c>
+      <c r="M99" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N99" s="4" t="inlineStr">
+        <is>
+          <t>sinken</t>
+        </is>
+      </c>
+      <c r="O99" s="4" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="P99" s="5">
+        <v>2030</v>
+      </c>
+      <c r="R99" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>W_1602x_J</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G100" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J100" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K100" s="7" t="inlineStr">
+        <is>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="L100" s="4" t="inlineStr">
+        <is>
+          <t>At least 15 projects per year by 2030</t>
+        </is>
+      </c>
+      <c r="M100" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N100" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O100" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P100" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>W_1603a_R</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G101" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J101" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K101" s="7" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="L101" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="M101" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N101" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>W_1701x_2030</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G102" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J102" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K102" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+        </is>
+      </c>
+      <c r="L102" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
+        </is>
+      </c>
+      <c r="M102" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N102" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O102" s="4" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="P102" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>W_1702x_2030</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G103" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J103" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K103" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+        </is>
+      </c>
+      <c r="L103" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10% from 2015 to 2020</t>
+        </is>
+      </c>
+      <c r="M103" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N103" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O103" s="4" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="P103" s="5">
+        <v>2020</v>
+      </c>
+      <c r="T103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>W_1702x_J</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E104" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G104" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J104" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K104" s="7" t="inlineStr">
+        <is>
+          <t>Verstetigung des Zielwertes von 2020</t>
+        </is>
+      </c>
+      <c r="L104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M104" s="4" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="N104" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O104" s="4" t="inlineStr">
+        <is>
+          <t>237000</t>
+        </is>
+      </c>
+      <c r="T104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>W_1703x_J</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G105" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J105" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K105" s="7" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="L105" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+        </is>
+      </c>
+      <c r="M105" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="N105" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="O105" s="4" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="P105" s="5">
+        <v>2030</v>
+      </c>
+      <c r="T105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI105" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -11596,7 +11596,7 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="G78" s="6" t="b">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="G93" s="6" t="b">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI105"/>
+  <dimension ref="A1:AJ105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -533,17 +533,17 @@
     <col customWidth="true" min="1" max="1" width="16.84375"/>
     <col customWidth="true" min="2" max="2" width="16.84375"/>
     <col customWidth="true" min="3" max="3" width="7.46875"/>
-    <col customWidth="true" min="4" max="4" width="5.7109375"/>
+    <col customWidth="true" min="4" max="4" width="23.14453125"/>
     <col customWidth="true" min="5" max="5" width="12.44921875"/>
     <col customWidth="true" min="6" max="6" width="8.203125"/>
     <col customWidth="true" min="7" max="7" width="15.8203125"/>
     <col customWidth="true" min="8" max="8" width="10.10546875"/>
-    <col customWidth="true" min="9" max="9" width="5.7109375"/>
+    <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="5.7109375"/>
-    <col customWidth="true" min="11" max="11" width="26.07421875"/>
-    <col customWidth="true" min="12" max="12" width="19.04296875"/>
-    <col customWidth="true" min="13" max="13" width="8.7890625"/>
-    <col customWidth="true" min="14" max="14" width="13.8359375"/>
+    <col customWidth="true" min="11" max="11" width="5.7109375"/>
+    <col customWidth="true" min="12" max="12" width="26.07421875"/>
+    <col customWidth="true" min="13" max="13" width="19.04296875"/>
+    <col customWidth="true" min="14" max="14" width="8.7890625"/>
     <col customWidth="true" min="15" max="15" width="13.8359375"/>
     <col customWidth="true" min="16" max="16" width="13.8359375"/>
     <col customWidth="true" min="17" max="17" width="13.8359375"/>
@@ -565,6 +565,7 @@
     <col customWidth="true" min="33" max="33" width="13.8359375"/>
     <col customWidth="true" min="34" max="34" width="13.8359375"/>
     <col customWidth="true" min="35" max="35" width="13.8359375"/>
+    <col customWidth="true" min="36" max="36" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -610,135 +611,140 @@
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
+          <t>LabelAnzeigen?</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
           <t>ZielKurzDe</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzEn</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtDe</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtEn</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Zieltyp</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Zielrichtung</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Zielwert</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>VorherigesZieljahr</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Gültig bis</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Gültig seit</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="AE1" s="2" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="AF1" s="2" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AG1" s="2" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AH1" s="2" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="AI1" s="2" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -766,10 +772,8 @@
       <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I2" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
@@ -778,37 +782,37 @@
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L2" s="7" t="inlineStr">
+        <is>
           <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>Keep the proportion of persons who are materially deprived considerably below the EU-level by 2030</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="S2" s="5">
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T2" s="5">
         <v>2018</v>
       </c>
-      <c r="T2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -880,6 +884,11 @@
         </is>
       </c>
       <c r="AI2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -907,10 +916,8 @@
       <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I3" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="7" t="inlineStr">
         <is>
@@ -919,37 +926,37 @@
       </c>
       <c r="K3" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
           <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>Keep the proportion of persons who are severely materially deprived considerably below the EU level by 2030</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="S3" s="5">
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T3" s="5">
         <v>2018</v>
       </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1021,6 +1028,11 @@
         </is>
       </c>
       <c r="AI3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1051,10 +1063,8 @@
       <c r="H4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I4" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J4" s="7" t="inlineStr">
         <is>
@@ -1063,37 +1073,37 @@
       </c>
       <c r="K4" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
           <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>2030</v>
       </c>
-      <c r="T4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1165,6 +1175,11 @@
         </is>
       </c>
       <c r="AI4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1192,10 +1207,8 @@
       <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I5" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
@@ -1204,40 +1217,40 @@
       </c>
       <c r="K5" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>2030</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>2021</v>
       </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1309,6 +1322,11 @@
         </is>
       </c>
       <c r="AI5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ5" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1339,10 +1357,8 @@
       <c r="H6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I6" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
@@ -1351,40 +1367,40 @@
       </c>
       <c r="K6" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L6" s="7" t="inlineStr">
+        <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 30% by 2030</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>2030</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <v>2022</v>
       </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1456,6 +1472,11 @@
         </is>
       </c>
       <c r="AI6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ6" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1483,10 +1504,8 @@
       <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I7" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="inlineStr">
         <is>
@@ -1495,30 +1514,30 @@
       </c>
       <c r="K7" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
           <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1594,6 +1613,11 @@
         </is>
       </c>
       <c r="AI7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1624,10 +1648,8 @@
       <c r="H8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J8" s="7" t="inlineStr">
         <is>
@@ -1636,37 +1658,37 @@
       </c>
       <c r="K8" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
           <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
         </is>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>2030</v>
       </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1738,6 +1760,11 @@
         </is>
       </c>
       <c r="AI8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ8" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1768,10 +1795,8 @@
       <c r="H9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I9" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J9" s="7" t="inlineStr">
         <is>
@@ -1780,37 +1805,37 @@
       </c>
       <c r="K9" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
           <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>2030</v>
       </c>
-      <c r="T9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1882,6 +1907,11 @@
         </is>
       </c>
       <c r="AI9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ9" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1912,10 +1942,8 @@
       <c r="H10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I10" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J10" s="7" t="inlineStr">
         <is>
@@ -1924,37 +1952,37 @@
       </c>
       <c r="K10" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
           <t>Senkung auf 7 % bis 2030</t>
         </is>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>Reduction to 7% by 2030</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>2030</v>
       </c>
-      <c r="T10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2026,6 +2054,11 @@
         </is>
       </c>
       <c r="AI10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ10" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2056,10 +2089,8 @@
       <c r="H11" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I11" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J11" s="7" t="inlineStr">
         <is>
@@ -2068,37 +2099,37 @@
       </c>
       <c r="K11" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L11" s="7" t="inlineStr">
+        <is>
           <t>Senkung auf 19 % bis 2030</t>
         </is>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>Reduction to 19% by 2030</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>2030</v>
       </c>
-      <c r="T11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2170,6 +2201,11 @@
         </is>
       </c>
       <c r="AI11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ11" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2197,10 +2233,8 @@
       <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I12" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="inlineStr">
         <is>
@@ -2209,30 +2243,30 @@
       </c>
       <c r="K12" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
           <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>Increase to be permanently halted</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr">
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2308,6 +2342,11 @@
         </is>
       </c>
       <c r="AI12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2335,10 +2374,8 @@
       <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="inlineStr">
         <is>
@@ -2347,30 +2384,30 @@
       </c>
       <c r="K13" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L13" s="7" t="inlineStr">
+        <is>
           <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>Increase to be permanently halted</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T13" s="4" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2446,6 +2483,11 @@
         </is>
       </c>
       <c r="AI13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2476,10 +2518,8 @@
       <c r="H14" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I14" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J14" s="7" t="inlineStr">
         <is>
@@ -2488,37 +2528,37 @@
       </c>
       <c r="K14" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L14" s="7" t="inlineStr">
+        <is>
           <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>2030</v>
       </c>
-      <c r="T14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2590,6 +2630,11 @@
         </is>
       </c>
       <c r="AI14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ14" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2620,10 +2665,8 @@
       <c r="H15" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I15" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J15" s="7" t="inlineStr">
         <is>
@@ -2632,37 +2675,37 @@
       </c>
       <c r="K15" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L15" s="7" t="inlineStr">
+        <is>
           <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
         </is>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>2030</v>
       </c>
-      <c r="T15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2734,6 +2777,11 @@
         </is>
       </c>
       <c r="AI15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ15" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2764,10 +2812,8 @@
       <c r="H16" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I16" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J16" s="7" t="inlineStr">
         <is>
@@ -2776,37 +2822,37 @@
       </c>
       <c r="K16" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L16" s="7" t="inlineStr">
+        <is>
           <t>Steigerung der Ausgaben bis 2030</t>
         </is>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>Expenditure to be increased by 2030</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>272,5</t>
         </is>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>2030</v>
       </c>
-      <c r="T16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2878,6 +2924,11 @@
         </is>
       </c>
       <c r="AI16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ16" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2905,10 +2956,8 @@
       <c r="H17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="inlineStr">
         <is>
@@ -2917,40 +2966,40 @@
       </c>
       <c r="K17" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L17" s="7" t="inlineStr">
+        <is>
           <t>Verringerung des Anteils auf 10 % bis 2020</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion to 10% by 2020</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>2020</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>2021</v>
       </c>
-      <c r="T17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3022,6 +3071,11 @@
         </is>
       </c>
       <c r="AI17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ17" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3044,7 +3098,7 @@
         </is>
       </c>
       <c r="D18" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="6" t="b">
         <v>0</v>
@@ -3052,10 +3106,8 @@
       <c r="H18" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I18" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J18" s="7" t="inlineStr">
         <is>
@@ -3064,40 +3116,40 @@
       </c>
       <c r="K18" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L18" s="7" t="inlineStr">
+        <is>
           <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion to 9.5% by 2030</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>2030</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <v>2021</v>
       </c>
-      <c r="T18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3169,6 +3221,11 @@
         </is>
       </c>
       <c r="AI18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ18" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3196,10 +3253,8 @@
       <c r="H19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I19" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="inlineStr">
         <is>
@@ -3208,40 +3263,40 @@
       </c>
       <c r="K19" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L19" s="7" t="inlineStr">
+        <is>
           <t>Steigerung des Anteils auf 42 % bis 2020</t>
         </is>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 24% by 2020</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="P19" s="4" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>2020</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <v>2021</v>
       </c>
-      <c r="T19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3313,6 +3368,11 @@
         </is>
       </c>
       <c r="AI19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ19" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3343,10 +3403,8 @@
       <c r="H20" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I20" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J20" s="7" t="inlineStr">
         <is>
@@ -3355,40 +3413,40 @@
       </c>
       <c r="K20" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L20" s="7" t="inlineStr">
+        <is>
           <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 55% by 2030</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="P20" s="4" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>2030</v>
       </c>
-      <c r="S20" s="5">
+      <c r="T20" s="5">
         <v>2021</v>
       </c>
-      <c r="T20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3460,6 +3518,11 @@
         </is>
       </c>
       <c r="AI20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ20" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3490,10 +3553,8 @@
       <c r="H21" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I21" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J21" s="7" t="inlineStr">
         <is>
@@ -3502,37 +3563,37 @@
       </c>
       <c r="K21" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L21" s="7" t="inlineStr">
+        <is>
           <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>Increase to 35% by 2030</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>2030</v>
       </c>
-      <c r="T21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3604,6 +3665,11 @@
         </is>
       </c>
       <c r="AI21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ21" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3631,10 +3697,8 @@
       <c r="H22" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I22" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J22" s="7" t="inlineStr">
         <is>
@@ -3643,40 +3707,40 @@
       </c>
       <c r="K22" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L22" s="7" t="inlineStr">
+        <is>
           <t>Anstieg auf 60 % bis 2020</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2020</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="P22" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>2020</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <v>2022</v>
       </c>
-      <c r="T22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3748,6 +3812,11 @@
         </is>
       </c>
       <c r="AI22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ22" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3778,10 +3847,8 @@
       <c r="H23" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I23" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J23" s="7" t="inlineStr">
         <is>
@@ -3790,37 +3857,37 @@
       </c>
       <c r="K23" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L23" s="7" t="inlineStr">
+        <is>
           <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>Increase to 70% by 2030</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>2030</v>
       </c>
-      <c r="T23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3892,6 +3959,11 @@
         </is>
       </c>
       <c r="AI23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ23" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3922,10 +3994,8 @@
       <c r="H24" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I24" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J24" s="7" t="inlineStr">
         <is>
@@ -3934,37 +4004,37 @@
       </c>
       <c r="K24" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L24" s="7" t="inlineStr">
+        <is>
           <t>Verringerung des Abstandes auf 10 % bis 2020</t>
         </is>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>Reduce the gap to 10% by 2020</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O24" s="4" t="inlineStr">
+      <c r="P24" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <v>2020</v>
       </c>
-      <c r="T24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4036,6 +4106,11 @@
         </is>
       </c>
       <c r="AI24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ24" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4066,10 +4141,8 @@
       <c r="H25" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I25" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="inlineStr">
         <is>
@@ -4078,34 +4151,34 @@
       </c>
       <c r="K25" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L25" s="7" t="inlineStr">
+        <is>
           <t>Beibehaltung des Abstandes von 10 % bis 2030</t>
         </is>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>Maintaine the gap of 10 % by 2030</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O25" s="4" t="inlineStr">
+      <c r="P25" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4177,6 +4250,11 @@
         </is>
       </c>
       <c r="AI25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ25" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4207,10 +4285,8 @@
       <c r="H26" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I26" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J26" s="7" t="inlineStr">
         <is>
@@ -4219,37 +4295,37 @@
       </c>
       <c r="K26" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L26" s="7" t="inlineStr">
+        <is>
           <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr">
         <is>
           <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="P26" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <v>2030</v>
       </c>
-      <c r="T26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U26" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4321,6 +4397,11 @@
         </is>
       </c>
       <c r="AI26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ26" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4351,10 +4432,8 @@
       <c r="H27" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I27" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J27" s="7" t="inlineStr">
         <is>
@@ -4363,37 +4442,37 @@
       </c>
       <c r="K27" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L27" s="7" t="inlineStr">
+        <is>
           <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="N27" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="P27" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>2025</v>
       </c>
-      <c r="T27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4465,6 +4544,11 @@
         </is>
       </c>
       <c r="AI27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ27" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4495,10 +4579,8 @@
       <c r="H28" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I28" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J28" s="7" t="inlineStr">
         <is>
@@ -4507,37 +4589,37 @@
       </c>
       <c r="K28" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L28" s="7" t="inlineStr">
+        <is>
           <t>65 % bis 2030</t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr">
         <is>
           <t>65% by 2030</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <v>2030</v>
       </c>
-      <c r="T28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U28" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4609,6 +4691,11 @@
         </is>
       </c>
       <c r="AI28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ28" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4639,10 +4726,8 @@
       <c r="H29" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I29" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J29" s="7" t="inlineStr">
         <is>
@@ -4651,37 +4736,37 @@
       </c>
       <c r="K29" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L29" s="7" t="inlineStr">
+        <is>
           <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="P29" s="4" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <v>2030</v>
       </c>
-      <c r="T29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4753,6 +4838,11 @@
         </is>
       </c>
       <c r="AI29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ29" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4780,10 +4870,8 @@
       <c r="H30" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I30" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J30" s="7" t="inlineStr">
         <is>
@@ -4792,34 +4880,34 @@
       </c>
       <c r="K30" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L30" s="7" t="inlineStr">
+        <is>
           <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
-      <c r="L30" s="4" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="P30" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4891,6 +4979,11 @@
         </is>
       </c>
       <c r="AI30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ30" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4918,10 +5011,8 @@
       <c r="H31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I31" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J31" s="7" t="inlineStr">
         <is>
@@ -4930,34 +5021,34 @@
       </c>
       <c r="K31" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L31" s="7" t="inlineStr">
+        <is>
           <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
-      <c r="L31" s="4" t="inlineStr">
+      <c r="M31" s="4" t="inlineStr">
         <is>
           <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="N31" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O31" s="4" t="inlineStr">
+      <c r="P31" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="T31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5029,6 +5120,11 @@
         </is>
       </c>
       <c r="AI31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ31" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5056,10 +5152,8 @@
       <c r="H32" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I32" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J32" s="7" t="inlineStr">
         <is>
@@ -5068,40 +5162,40 @@
       </c>
       <c r="K32" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L32" s="7" t="inlineStr">
+        <is>
           <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="L32" s="4" t="inlineStr">
+      <c r="M32" s="4" t="inlineStr">
         <is>
           <t>6 million people per year by 2030</t>
         </is>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O32" s="4" t="inlineStr">
+      <c r="P32" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P32" s="5">
+      <c r="Q32" s="5">
         <v>2030</v>
       </c>
-      <c r="S32" s="5">
+      <c r="T32" s="5">
         <v>2021</v>
       </c>
-      <c r="T32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5173,6 +5267,11 @@
         </is>
       </c>
       <c r="AI32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ32" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5200,10 +5299,8 @@
       <c r="H33" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I33" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J33" s="7" t="inlineStr">
         <is>
@@ -5212,40 +5309,40 @@
       </c>
       <c r="K33" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L33" s="7" t="inlineStr">
+        <is>
           <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="M33" s="4" t="inlineStr">
         <is>
           <t>4 million people per year by 2030</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="N33" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="P33" s="4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <v>2030</v>
       </c>
-      <c r="S33" s="5">
+      <c r="T33" s="5">
         <v>2021</v>
       </c>
-      <c r="T33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5317,6 +5414,11 @@
         </is>
       </c>
       <c r="AI33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ33" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5344,10 +5446,8 @@
       <c r="H34" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I34" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J34" s="7" t="inlineStr">
         <is>
@@ -5356,40 +5456,40 @@
       </c>
       <c r="K34" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L34" s="7" t="inlineStr">
+        <is>
           <t>10 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="M34" s="4" t="inlineStr">
         <is>
           <t>10 million people per year by 2030</t>
         </is>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="N34" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O34" s="4" t="inlineStr">
+      <c r="P34" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P34" s="5">
+      <c r="Q34" s="5">
         <v>2030</v>
       </c>
-      <c r="R34" s="5">
+      <c r="S34" s="5">
         <v>2021</v>
       </c>
-      <c r="T34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5461,6 +5561,11 @@
         </is>
       </c>
       <c r="AI34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ34" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5491,49 +5596,47 @@
       <c r="H35" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I35" s="7" t="inlineStr">
+      <c r="I35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
         <is>
           <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
-      <c r="J35" s="7" t="inlineStr">
+      <c r="K35" s="7" t="inlineStr">
         <is>
           <t>Increase by 2.1% per year</t>
         </is>
       </c>
-      <c r="K35" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L35" s="4" t="inlineStr">
+      <c r="L35" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O35" s="4" t="inlineStr">
+      <c r="P35" s="4" t="inlineStr">
         <is>
           <t>239,4</t>
         </is>
       </c>
-      <c r="P35" s="5">
+      <c r="Q35" s="5">
         <v>2030</v>
       </c>
-      <c r="T35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5556,44 +5659,44 @@
       </c>
       <c r="Y35" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z35" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="inlineStr">
+      <c r="AA35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA35" s="4" t="inlineStr">
+      <c r="AB35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AB35" s="4" t="inlineStr">
+      <c r="AC35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC35" s="4" t="inlineStr">
+      <c r="AD35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD35" s="4" t="inlineStr">
+      <c r="AE35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AE35" s="4" t="inlineStr">
+      <c r="AF35" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AF35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG35" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5605,6 +5708,11 @@
         </is>
       </c>
       <c r="AI35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ35" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5635,49 +5743,47 @@
       <c r="H36" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I36" s="7" t="inlineStr">
+      <c r="I36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020</t>
         </is>
       </c>
-      <c r="J36" s="7" t="inlineStr">
+      <c r="K36" s="7" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020</t>
         </is>
       </c>
-      <c r="K36" s="7" t="inlineStr">
+      <c r="L36" s="7" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
-      <c r="L36" s="4" t="inlineStr">
+      <c r="M36" s="4" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020 compared to 2008</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="O36" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O36" s="4" t="inlineStr">
+      <c r="P36" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P36" s="5">
+      <c r="Q36" s="5">
         <v>2020</v>
       </c>
-      <c r="T36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5700,39 +5806,39 @@
       </c>
       <c r="Y36" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z36" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="inlineStr">
+      <c r="AA36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA36" s="4" t="inlineStr">
+      <c r="AB36" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AB36" s="4" t="inlineStr">
+      <c r="AC36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC36" s="4" t="inlineStr">
+      <c r="AD36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD36" s="4" t="inlineStr">
+      <c r="AE36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AE36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF36" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5749,6 +5855,11 @@
         </is>
       </c>
       <c r="AI36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ36" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5779,55 +5890,53 @@
       <c r="H37" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I37" s="7" t="inlineStr">
+      <c r="I37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
         <is>
           <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
-      <c r="J37" s="7" t="inlineStr">
+      <c r="K37" s="7" t="inlineStr">
         <is>
           <t>Reduction by 30% by 2030</t>
         </is>
       </c>
-      <c r="K37" s="7" t="inlineStr">
+      <c r="L37" s="7" t="inlineStr">
         <is>
           <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
-      <c r="L37" s="4" t="inlineStr">
+      <c r="M37" s="4" t="inlineStr">
         <is>
           <t>Reduction by 30% by 2030 compared to 2008</t>
         </is>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="N37" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="O37" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O37" s="4" t="inlineStr">
+      <c r="P37" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P37" s="5">
+      <c r="Q37" s="5">
         <v>2030</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="R37" s="5">
         <v>2020</v>
       </c>
-      <c r="S37" s="5">
+      <c r="T37" s="5">
         <v>2021</v>
       </c>
-      <c r="T37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5850,44 +5959,44 @@
       </c>
       <c r="Y37" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z37" s="4" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="inlineStr">
+      <c r="AA37" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA37" s="4" t="inlineStr">
+      <c r="AB37" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AB37" s="4" t="inlineStr">
+      <c r="AC37" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC37" s="4" t="inlineStr">
+      <c r="AD37" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD37" s="4" t="inlineStr">
+      <c r="AE37" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AE37" s="4" t="inlineStr">
+      <c r="AF37" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AF37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG37" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5899,6 +6008,11 @@
         </is>
       </c>
       <c r="AI37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ37" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5929,52 +6043,50 @@
       <c r="H38" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I38" s="7" t="inlineStr">
+      <c r="I38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7" t="inlineStr">
         <is>
           <t>Senkung um 50 % bis 2050</t>
         </is>
       </c>
-      <c r="J38" s="7" t="inlineStr">
+      <c r="K38" s="7" t="inlineStr">
         <is>
           <t>Reduction by 50% by 2050</t>
         </is>
       </c>
-      <c r="K38" s="7" t="inlineStr">
+      <c r="L38" s="7" t="inlineStr">
         <is>
           <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
-      <c r="L38" s="4" t="inlineStr">
+      <c r="M38" s="4" t="inlineStr">
         <is>
           <t>Reduction by 50% by 2050 compared to 2008</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O38" s="4" t="inlineStr">
+      <c r="P38" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P38" s="5">
+      <c r="Q38" s="5">
         <v>2050</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="R38" s="5">
         <v>2030</v>
       </c>
-      <c r="T38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5997,44 +6109,44 @@
       </c>
       <c r="Y38" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z38" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z38" s="4" t="inlineStr">
+      <c r="AA38" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA38" s="4" t="inlineStr">
+      <c r="AB38" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AB38" s="4" t="inlineStr">
+      <c r="AC38" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC38" s="4" t="inlineStr">
+      <c r="AD38" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD38" s="4" t="inlineStr">
+      <c r="AE38" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AE38" s="4" t="inlineStr">
+      <c r="AF38" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AF38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6046,6 +6158,11 @@
         </is>
       </c>
       <c r="AI38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ38" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6076,49 +6193,47 @@
       <c r="H39" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I39" s="7" t="inlineStr">
+      <c r="I39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
+      <c r="K39" s="7" t="inlineStr">
         <is>
           <t>Increase to 18% by 2020</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
+      <c r="L39" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="M39" s="4" t="inlineStr">
         <is>
           <t>Increase to 18% by 2020</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="N39" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O39" s="4" t="inlineStr">
+      <c r="P39" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P39" s="5">
+      <c r="Q39" s="5">
         <v>2020</v>
       </c>
-      <c r="T39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6141,39 +6256,39 @@
       </c>
       <c r="Y39" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z39" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z39" s="4" t="inlineStr">
+      <c r="AA39" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA39" s="4" t="inlineStr">
+      <c r="AB39" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AB39" s="4" t="inlineStr">
+      <c r="AC39" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AC39" s="4" t="inlineStr">
+      <c r="AD39" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD39" s="4" t="inlineStr">
+      <c r="AE39" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AE39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF39" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6190,6 +6305,11 @@
         </is>
       </c>
       <c r="AI39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ39" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6220,52 +6340,50 @@
       <c r="H40" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I40" s="7" t="inlineStr">
+      <c r="I40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="J40" s="7" t="inlineStr">
+      <c r="K40" s="7" t="inlineStr">
         <is>
           <t>Increase to 30% by 2030</t>
         </is>
       </c>
-      <c r="K40" s="7" t="inlineStr">
+      <c r="L40" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="L40" s="4" t="inlineStr">
+      <c r="M40" s="4" t="inlineStr">
         <is>
           <t>Increase to 30% by 2030</t>
         </is>
       </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="N40" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O40" s="4" t="inlineStr">
+      <c r="P40" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P40" s="5">
+      <c r="Q40" s="5">
         <v>2030</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="R40" s="5">
         <v>2020</v>
       </c>
-      <c r="T40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6288,44 +6406,44 @@
       </c>
       <c r="Y40" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z40" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z40" s="4" t="inlineStr">
+      <c r="AA40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA40" s="4" t="inlineStr">
+      <c r="AB40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AB40" s="4" t="inlineStr">
+      <c r="AC40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC40" s="4" t="inlineStr">
+      <c r="AD40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD40" s="4" t="inlineStr">
+      <c r="AE40" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AE40" s="4" t="inlineStr">
+      <c r="AF40" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AF40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG40" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6337,6 +6455,11 @@
         </is>
       </c>
       <c r="AI40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ40" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6367,55 +6490,53 @@
       <c r="H41" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I41" s="7" t="inlineStr">
+      <c r="I41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>Increase to 45% by 2040</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
+      <c r="L41" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
-      <c r="L41" s="4" t="inlineStr">
+      <c r="M41" s="4" t="inlineStr">
         <is>
           <t>Increase to 45% by 2040</t>
         </is>
       </c>
-      <c r="M41" s="4" t="inlineStr">
+      <c r="N41" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N41" s="4" t="inlineStr">
+      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O41" s="4" t="inlineStr">
+      <c r="P41" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P41" s="5">
+      <c r="Q41" s="5">
         <v>2040</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="R41" s="5">
         <v>2030</v>
       </c>
-      <c r="S41" s="5">
+      <c r="T41" s="5">
         <v>2021</v>
       </c>
-      <c r="T41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6438,44 +6559,44 @@
       </c>
       <c r="Y41" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z41" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z41" s="4" t="inlineStr">
+      <c r="AA41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA41" s="4" t="inlineStr">
+      <c r="AB41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AB41" s="4" t="inlineStr">
+      <c r="AC41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC41" s="4" t="inlineStr">
+      <c r="AD41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD41" s="4" t="inlineStr">
+      <c r="AE41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AE41" s="4" t="inlineStr">
+      <c r="AF41" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AF41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG41" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6487,6 +6608,11 @@
         </is>
       </c>
       <c r="AI41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ41" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6517,52 +6643,50 @@
       <c r="H42" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I42" s="7" t="inlineStr">
+      <c r="I42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
-      <c r="J42" s="7" t="inlineStr">
+      <c r="K42" s="7" t="inlineStr">
         <is>
           <t>Increase to 60% by 2050</t>
         </is>
       </c>
-      <c r="K42" s="7" t="inlineStr">
+      <c r="L42" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
-      <c r="L42" s="4" t="inlineStr">
+      <c r="M42" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2050</t>
         </is>
       </c>
-      <c r="M42" s="4" t="inlineStr">
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O42" s="4" t="inlineStr">
+      <c r="P42" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P42" s="5">
+      <c r="Q42" s="5">
         <v>2050</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="R42" s="5">
         <v>2040</v>
       </c>
-      <c r="T42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6585,44 +6709,44 @@
       </c>
       <c r="Y42" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z42" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z42" s="4" t="inlineStr">
+      <c r="AA42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AA42" s="4" t="inlineStr">
+      <c r="AB42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AB42" s="4" t="inlineStr">
+      <c r="AC42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC42" s="4" t="inlineStr">
+      <c r="AD42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD42" s="4" t="inlineStr">
+      <c r="AE42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AE42" s="4" t="inlineStr">
+      <c r="AF42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AF42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG42" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6634,6 +6758,11 @@
         </is>
       </c>
       <c r="AI42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ42" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6661,52 +6790,50 @@
       <c r="H43" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I43" s="7" t="inlineStr">
+      <c r="I43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 35 % bis 2020</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
+      <c r="K43" s="7" t="inlineStr">
         <is>
           <t>Increase to 35% by 2020</t>
         </is>
       </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="L43" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 35 % bis 2020</t>
         </is>
       </c>
-      <c r="L43" s="4" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 35% by 2020</t>
         </is>
       </c>
-      <c r="M43" s="4" t="inlineStr">
+      <c r="N43" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O43" s="4" t="inlineStr">
+      <c r="P43" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P43" s="5">
+      <c r="Q43" s="5">
         <v>2020</v>
       </c>
-      <c r="R43" s="5">
+      <c r="S43" s="5">
         <v>2022</v>
       </c>
-      <c r="T43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6729,39 +6856,39 @@
       </c>
       <c r="Y43" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z43" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z43" s="4" t="inlineStr">
+      <c r="AA43" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AA43" s="4" t="inlineStr">
+      <c r="AB43" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AB43" s="4" t="inlineStr">
+      <c r="AC43" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AC43" s="4" t="inlineStr">
+      <c r="AD43" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD43" s="4" t="inlineStr">
+      <c r="AE43" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AE43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AF43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6778,6 +6905,11 @@
         </is>
       </c>
       <c r="AI43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ43" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6805,55 +6937,53 @@
       <c r="H44" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="7" t="inlineStr">
+      <c r="I44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 50 % bis 2030</t>
         </is>
       </c>
-      <c r="J44" s="7" t="inlineStr">
+      <c r="K44" s="7" t="inlineStr">
         <is>
           <t>Increase to 50% by 2030</t>
         </is>
       </c>
-      <c r="K44" s="7" t="inlineStr">
+      <c r="L44" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 50 % bis 2030</t>
         </is>
       </c>
-      <c r="L44" s="4" t="inlineStr">
+      <c r="M44" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 50% by 2030</t>
         </is>
       </c>
-      <c r="M44" s="4" t="inlineStr">
+      <c r="N44" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N44" s="4" t="inlineStr">
+      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O44" s="4" t="inlineStr">
+      <c r="P44" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P44" s="5">
+      <c r="Q44" s="5">
         <v>2030</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="R44" s="5">
         <v>2020</v>
       </c>
-      <c r="R44" s="5">
+      <c r="S44" s="5">
         <v>2021</v>
       </c>
-      <c r="T44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6876,44 +7006,44 @@
       </c>
       <c r="Y44" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z44" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z44" s="4" t="inlineStr">
+      <c r="AA44" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AA44" s="4" t="inlineStr">
+      <c r="AB44" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AB44" s="4" t="inlineStr">
+      <c r="AC44" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AC44" s="4" t="inlineStr">
+      <c r="AD44" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD44" s="4" t="inlineStr">
+      <c r="AE44" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AE44" s="4" t="inlineStr">
+      <c r="AF44" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AF44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG44" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6925,6 +7055,11 @@
         </is>
       </c>
       <c r="AI44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ44" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6952,55 +7087,53 @@
       <c r="H45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I45" s="7" t="inlineStr">
+      <c r="I45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 65 % bis 2030</t>
         </is>
       </c>
-      <c r="J45" s="7" t="inlineStr">
+      <c r="K45" s="7" t="inlineStr">
         <is>
           <t>Increase to 65% by 2030</t>
         </is>
       </c>
-      <c r="K45" s="7" t="inlineStr">
+      <c r="L45" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 65 % bis 2030</t>
         </is>
       </c>
-      <c r="L45" s="4" t="inlineStr">
+      <c r="M45" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 65% by 2030</t>
         </is>
       </c>
-      <c r="M45" s="4" t="inlineStr">
+      <c r="N45" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N45" s="4" t="inlineStr">
+      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O45" s="4" t="inlineStr">
+      <c r="P45" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P45" s="5">
+      <c r="Q45" s="5">
         <v>2030</v>
       </c>
-      <c r="R45" s="5">
+      <c r="S45" s="5">
         <v>2022</v>
       </c>
-      <c r="S45" s="5">
+      <c r="T45" s="5">
         <v>2021</v>
       </c>
-      <c r="T45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7023,44 +7156,44 @@
       </c>
       <c r="Y45" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z45" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z45" s="4" t="inlineStr">
+      <c r="AA45" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AA45" s="4" t="inlineStr">
+      <c r="AB45" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AB45" s="4" t="inlineStr">
+      <c r="AC45" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AC45" s="4" t="inlineStr">
+      <c r="AD45" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD45" s="4" t="inlineStr">
+      <c r="AE45" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AE45" s="4" t="inlineStr">
+      <c r="AF45" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AF45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7072,6 +7205,11 @@
         </is>
       </c>
       <c r="AI45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ45" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7102,55 +7240,53 @@
       <c r="H46" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I46" s="7" t="inlineStr">
+      <c r="I46" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
-      <c r="J46" s="7" t="inlineStr">
+      <c r="K46" s="7" t="inlineStr">
         <is>
           <t>Increase to 80% by 2030</t>
         </is>
       </c>
-      <c r="K46" s="7" t="inlineStr">
+      <c r="L46" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
-      <c r="L46" s="4" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 80% by 2030</t>
         </is>
       </c>
-      <c r="M46" s="4" t="inlineStr">
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N46" s="4" t="inlineStr">
+      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O46" s="4" t="inlineStr">
+      <c r="P46" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P46" s="5">
+      <c r="Q46" s="5">
         <v>2030</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="R46" s="5">
         <v>2022</v>
       </c>
-      <c r="S46" s="5">
+      <c r="T46" s="5">
         <v>2022</v>
       </c>
-      <c r="T46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7173,44 +7309,44 @@
       </c>
       <c r="Y46" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z46" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z46" s="4" t="inlineStr">
+      <c r="AA46" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AA46" s="4" t="inlineStr">
+      <c r="AB46" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AB46" s="4" t="inlineStr">
+      <c r="AC46" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AC46" s="4" t="inlineStr">
+      <c r="AD46" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD46" s="4" t="inlineStr">
+      <c r="AE46" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AE46" s="4" t="inlineStr">
+      <c r="AF46" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AF46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7222,6 +7358,11 @@
         </is>
       </c>
       <c r="AI46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ46" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7249,55 +7390,53 @@
       <c r="H47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="7" t="inlineStr">
+      <c r="I47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 65 % bis 2040</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
+      <c r="K47" s="7" t="inlineStr">
         <is>
           <t>Increase to 65% by 2040</t>
         </is>
       </c>
-      <c r="K47" s="7" t="inlineStr">
+      <c r="L47" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 65 % bis 2040</t>
         </is>
       </c>
-      <c r="L47" s="4" t="inlineStr">
+      <c r="M47" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 65% by 2040</t>
         </is>
       </c>
-      <c r="M47" s="4" t="inlineStr">
+      <c r="N47" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N47" s="4" t="inlineStr">
+      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O47" s="4" t="inlineStr">
+      <c r="P47" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P47" s="5">
+      <c r="Q47" s="5">
         <v>2040</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="R47" s="5">
         <v>2030</v>
       </c>
-      <c r="R47" s="5">
+      <c r="S47" s="5">
         <v>2021</v>
       </c>
-      <c r="T47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U47" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7320,44 +7459,44 @@
       </c>
       <c r="Y47" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z47" s="4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="Z47" s="4" t="inlineStr">
+      <c r="AA47" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AA47" s="4" t="inlineStr">
+      <c r="AB47" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AB47" s="4" t="inlineStr">
+      <c r="AC47" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC47" s="4" t="inlineStr">
+      <c r="AD47" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD47" s="4" t="inlineStr">
+      <c r="AE47" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AE47" s="4" t="inlineStr">
+      <c r="AF47" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AF47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG47" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7369,6 +7508,11 @@
         </is>
       </c>
       <c r="AI47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ47" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7396,55 +7540,53 @@
       <c r="H48" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I48" s="7" t="inlineStr">
+      <c r="I48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf 80 % bis 2050</t>
         </is>
       </c>
-      <c r="J48" s="7" t="inlineStr">
+      <c r="K48" s="7" t="inlineStr">
         <is>
           <t>Increase to 80% by 2050</t>
         </is>
       </c>
-      <c r="K48" s="7" t="inlineStr">
+      <c r="L48" s="7" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 80 % bis 2050</t>
         </is>
       </c>
-      <c r="L48" s="4" t="inlineStr">
+      <c r="M48" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 80% by 2050</t>
         </is>
       </c>
-      <c r="M48" s="4" t="inlineStr">
+      <c r="N48" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N48" s="4" t="inlineStr">
+      <c r="O48" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O48" s="4" t="inlineStr">
+      <c r="P48" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P48" s="5">
+      <c r="Q48" s="5">
         <v>2050</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="R48" s="5">
         <v>2040</v>
       </c>
-      <c r="R48" s="5">
+      <c r="S48" s="5">
         <v>2021</v>
       </c>
-      <c r="T48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U48" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7467,44 +7609,44 @@
       </c>
       <c r="Y48" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z48" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z48" s="4" t="inlineStr">
+      <c r="AA48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AA48" s="4" t="inlineStr">
+      <c r="AB48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AB48" s="4" t="inlineStr">
+      <c r="AC48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AC48" s="4" t="inlineStr">
+      <c r="AD48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD48" s="4" t="inlineStr">
+      <c r="AE48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AE48" s="4" t="inlineStr">
+      <c r="AF48" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AF48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG48" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7516,6 +7658,11 @@
         </is>
       </c>
       <c r="AI48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ48" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7543,55 +7690,53 @@
       <c r="H49" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="inlineStr">
+      <c r="I49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="inlineStr">
         <is>
           <t>Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
-      <c r="J49" s="7" t="inlineStr">
+      <c r="K49" s="7" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality by 2050</t>
         </is>
       </c>
-      <c r="K49" s="7" t="inlineStr">
+      <c r="L49" s="7" t="inlineStr">
         <is>
           <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
         </is>
       </c>
-      <c r="M49" s="4" t="inlineStr">
+      <c r="N49" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N49" s="4" t="inlineStr">
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O49" s="4" t="inlineStr">
+      <c r="P49" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P49" s="5">
+      <c r="Q49" s="5">
         <v>2050</v>
       </c>
-      <c r="R49" s="5">
+      <c r="S49" s="5">
         <v>2022</v>
       </c>
-      <c r="S49" s="5">
+      <c r="T49" s="5">
         <v>2021</v>
       </c>
-      <c r="T49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U49" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7614,44 +7759,44 @@
       </c>
       <c r="Y49" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z49" s="4" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Z49" s="4" t="inlineStr">
+      <c r="AA49" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AA49" s="4" t="inlineStr">
+      <c r="AB49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AB49" s="4" t="inlineStr">
+      <c r="AC49" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AC49" s="4" t="inlineStr">
+      <c r="AD49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD49" s="4" t="inlineStr">
+      <c r="AE49" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AE49" s="4" t="inlineStr">
+      <c r="AF49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AF49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AG49" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7663,6 +7808,11 @@
         </is>
       </c>
       <c r="AI49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ49" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7693,10 +7843,8 @@
       <c r="H50" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I50" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I50" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J50" s="7" t="inlineStr">
         <is>
@@ -7705,37 +7853,37 @@
       </c>
       <c r="K50" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L50" s="7" t="inlineStr">
+        <is>
           <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
-      <c r="L50" s="4" t="inlineStr">
+      <c r="M50" s="4" t="inlineStr">
         <is>
           <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M50" s="4" t="inlineStr">
+      <c r="N50" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N50" s="4" t="inlineStr">
+      <c r="O50" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O50" s="4" t="inlineStr">
+      <c r="P50" s="4" t="inlineStr">
         <is>
           <t>160,2</t>
         </is>
       </c>
-      <c r="P50" s="5">
+      <c r="Q50" s="5">
         <v>2030</v>
       </c>
-      <c r="T50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U50" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7807,6 +7955,11 @@
         </is>
       </c>
       <c r="AI50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ50" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7834,10 +7987,8 @@
       <c r="H51" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I51" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I51" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J51" s="7" t="inlineStr">
         <is>
@@ -7846,34 +7997,34 @@
       </c>
       <c r="K51" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L51" s="7" t="inlineStr">
+        <is>
           <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="L51" s="4" t="inlineStr">
+      <c r="M51" s="4" t="inlineStr">
         <is>
           <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M51" s="4" t="inlineStr">
+      <c r="N51" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N51" s="4" t="inlineStr">
+      <c r="O51" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O51" s="4" t="inlineStr">
+      <c r="P51" s="4" t="inlineStr">
         <is>
           <t>-3</t>
         </is>
       </c>
-      <c r="T51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U51" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7945,6 +8096,11 @@
         </is>
       </c>
       <c r="AI51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ51" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7975,10 +8131,8 @@
       <c r="H52" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I52" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I52" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J52" s="7" t="inlineStr">
         <is>
@@ -7987,34 +8141,34 @@
       </c>
       <c r="K52" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L52" s="7" t="inlineStr">
+        <is>
           <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="L52" s="4" t="inlineStr">
+      <c r="M52" s="4" t="inlineStr">
         <is>
           <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M52" s="4" t="inlineStr">
+      <c r="N52" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N52" s="4" t="inlineStr">
+      <c r="O52" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O52" s="4" t="inlineStr">
+      <c r="P52" s="4" t="inlineStr">
         <is>
           <t>-0,5</t>
         </is>
       </c>
-      <c r="T52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8086,6 +8240,11 @@
         </is>
       </c>
       <c r="AI52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ52" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8113,10 +8272,8 @@
       <c r="H53" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I53" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I53" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J53" s="7" t="inlineStr">
         <is>
@@ -8125,34 +8282,34 @@
       </c>
       <c r="K53" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L53" s="7" t="inlineStr">
+        <is>
           <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="M53" s="4" t="inlineStr">
         <is>
           <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M53" s="4" t="inlineStr">
+      <c r="N53" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N53" s="4" t="inlineStr">
+      <c r="O53" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O53" s="4" t="inlineStr">
+      <c r="P53" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="T53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U53" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8224,6 +8381,11 @@
         </is>
       </c>
       <c r="AI53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ53" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8251,10 +8413,8 @@
       <c r="H54" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I54" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I54" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J54" s="7" t="inlineStr">
         <is>
@@ -8263,30 +8423,30 @@
       </c>
       <c r="K54" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L54" s="7" t="inlineStr">
+        <is>
           <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="L54" s="4" t="inlineStr">
+      <c r="M54" s="4" t="inlineStr">
         <is>
           <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M54" s="4" t="inlineStr">
+      <c r="N54" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N54" s="4" t="inlineStr">
+      <c r="O54" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T54" s="4" t="inlineStr">
+      <c r="P54" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8362,6 +8522,11 @@
         </is>
       </c>
       <c r="AI54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ54" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8389,10 +8554,8 @@
       <c r="H55" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I55" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I55" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J55" s="7" t="inlineStr">
         <is>
@@ -8401,30 +8564,30 @@
       </c>
       <c r="K55" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L55" s="7" t="inlineStr">
+        <is>
           <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr">
         <is>
           <t>Steady and appropriate economic growth</t>
         </is>
       </c>
-      <c r="M55" s="4" t="inlineStr">
+      <c r="N55" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N55" s="4" t="inlineStr">
+      <c r="O55" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T55" s="4" t="inlineStr">
+      <c r="P55" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8500,6 +8663,11 @@
         </is>
       </c>
       <c r="AI55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ55" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8527,10 +8695,8 @@
       <c r="H56" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I56" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I56" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J56" s="7" t="inlineStr">
         <is>
@@ -8539,37 +8705,37 @@
       </c>
       <c r="K56" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
           <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
         <is>
           <t>Increase to 78% by 2030</t>
         </is>
       </c>
-      <c r="M56" s="4" t="inlineStr">
+      <c r="N56" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N56" s="4" t="inlineStr">
+      <c r="O56" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O56" s="4" t="inlineStr">
+      <c r="P56" s="4" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P56" s="5">
+      <c r="Q56" s="5">
         <v>2030</v>
       </c>
-      <c r="T56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U56" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8641,6 +8807,11 @@
         </is>
       </c>
       <c r="AI56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ56" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8668,10 +8839,8 @@
       <c r="H57" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I57" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I57" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J57" s="7" t="inlineStr">
         <is>
@@ -8680,37 +8849,37 @@
       </c>
       <c r="K57" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L57" s="7" t="inlineStr">
+        <is>
           <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
-      <c r="L57" s="4" t="inlineStr">
+      <c r="M57" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2030</t>
         </is>
       </c>
-      <c r="M57" s="4" t="inlineStr">
+      <c r="N57" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N57" s="4" t="inlineStr">
+      <c r="O57" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O57" s="4" t="inlineStr">
+      <c r="P57" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P57" s="5">
+      <c r="Q57" s="5">
         <v>2030</v>
       </c>
-      <c r="T57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U57" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8782,6 +8951,11 @@
         </is>
       </c>
       <c r="AI57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ57" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8809,10 +8983,8 @@
       <c r="H58" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I58" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I58" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J58" s="7" t="inlineStr">
         <is>
@@ -8821,30 +8993,30 @@
       </c>
       <c r="K58" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L58" s="7" t="inlineStr">
+        <is>
           <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
-      <c r="L58" s="4" t="inlineStr">
+      <c r="M58" s="4" t="inlineStr">
         <is>
           <t>Significantly increase by 2030</t>
         </is>
       </c>
-      <c r="M58" s="4" t="inlineStr">
+      <c r="N58" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N58" s="4" t="inlineStr">
+      <c r="O58" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O58" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T58" s="4" t="inlineStr">
+      <c r="P58" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8920,6 +9092,11 @@
         </is>
       </c>
       <c r="AI58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ58" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8947,10 +9124,8 @@
       <c r="H59" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I59" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I59" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J59" s="7" t="inlineStr">
         <is>
@@ -8959,40 +9134,40 @@
       </c>
       <c r="K59" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L59" s="7" t="inlineStr">
+        <is>
           <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
-      <c r="L59" s="4" t="inlineStr">
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>At least 3.5% of GDP per year by 2025</t>
         </is>
       </c>
-      <c r="M59" s="4" t="inlineStr">
+      <c r="N59" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N59" s="4" t="inlineStr">
+      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O59" s="4" t="inlineStr">
+      <c r="P59" s="4" t="inlineStr">
         <is>
           <t>3,5</t>
         </is>
       </c>
-      <c r="P59" s="5">
+      <c r="Q59" s="5">
         <v>2025</v>
       </c>
-      <c r="S59" s="5">
+      <c r="T59" s="5">
         <v>2018</v>
       </c>
-      <c r="T59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U59" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9064,6 +9239,11 @@
         </is>
       </c>
       <c r="AI59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ59" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9091,10 +9271,8 @@
       <c r="H60" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I60" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I60" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J60" s="7" t="inlineStr">
         <is>
@@ -9103,40 +9281,40 @@
       </c>
       <c r="K60" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L60" s="7" t="inlineStr">
+        <is>
           <t>Jährlich mindestens 3 % des BIP bis 2030</t>
         </is>
       </c>
-      <c r="L60" s="4" t="inlineStr">
+      <c r="M60" s="4" t="inlineStr">
         <is>
           <t>At least 3% of GDP per year by 2030</t>
         </is>
       </c>
-      <c r="M60" s="4" t="inlineStr">
+      <c r="N60" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N60" s="4" t="inlineStr">
+      <c r="O60" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O60" s="4" t="inlineStr">
+      <c r="P60" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P60" s="5">
+      <c r="Q60" s="5">
         <v>2030</v>
       </c>
-      <c r="R60" s="5">
+      <c r="S60" s="5">
         <v>2018</v>
       </c>
-      <c r="T60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U60" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9208,6 +9386,11 @@
         </is>
       </c>
       <c r="AI60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ60" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9235,10 +9418,8 @@
       <c r="H61" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I61" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I61" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J61" s="7" t="inlineStr">
         <is>
@@ -9247,37 +9428,37 @@
       </c>
       <c r="K61" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L61" s="7" t="inlineStr">
+        <is>
           <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
-      <c r="L61" s="4" t="inlineStr">
+      <c r="M61" s="4" t="inlineStr">
         <is>
           <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
-      <c r="M61" s="4" t="inlineStr">
+      <c r="N61" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N61" s="4" t="inlineStr">
+      <c r="O61" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O61" s="4" t="inlineStr">
+      <c r="P61" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P61" s="5">
+      <c r="Q61" s="5">
         <v>2025</v>
       </c>
-      <c r="T61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9349,6 +9530,11 @@
         </is>
       </c>
       <c r="AI61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ61" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9376,10 +9562,8 @@
       <c r="H62" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I62" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I62" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J62" s="7" t="inlineStr">
         <is>
@@ -9388,19 +9572,19 @@
       </c>
       <c r="K62" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L62" s="7" t="inlineStr">
+        <is>
           <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
-      <c r="L62" s="4" t="inlineStr">
+      <c r="M62" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
-      <c r="M62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N62" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9411,7 +9595,7 @@
           <t/>
         </is>
       </c>
-      <c r="T62" s="4" t="inlineStr">
+      <c r="P62" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9487,6 +9671,11 @@
         </is>
       </c>
       <c r="AI62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ62" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9514,10 +9703,8 @@
       <c r="H63" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I63" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I63" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J63" s="7" t="inlineStr">
         <is>
@@ -9526,30 +9713,30 @@
       </c>
       <c r="K63" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L63" s="7" t="inlineStr">
+        <is>
           <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
         </is>
       </c>
-      <c r="L63" s="4" t="inlineStr">
+      <c r="M63" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate</t>
         </is>
       </c>
-      <c r="M63" s="4" t="inlineStr">
+      <c r="N63" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N63" s="4" t="inlineStr">
+      <c r="O63" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T63" s="4" t="inlineStr">
+      <c r="P63" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9625,6 +9812,11 @@
         </is>
       </c>
       <c r="AI63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ63" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9652,10 +9844,8 @@
       <c r="H64" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I64" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I64" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J64" s="7" t="inlineStr">
         <is>
@@ -9664,37 +9854,37 @@
       </c>
       <c r="K64" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L64" s="7" t="inlineStr">
+        <is>
           <t>Angleichung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
-      <c r="L64" s="4" t="inlineStr">
+      <c r="M64" s="4" t="inlineStr">
         <is>
           <t>Bring the proportion of foreign school leavers with a least a secondary general school certificate into line with that of German school leavers by 2030</t>
         </is>
       </c>
-      <c r="M64" s="4" t="inlineStr">
+      <c r="N64" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N64" s="4" t="inlineStr">
+      <c r="O64" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O64" s="4" t="inlineStr">
+      <c r="P64" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P64" s="5">
+      <c r="Q64" s="5">
         <v>2030</v>
       </c>
-      <c r="T64" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U64" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9766,6 +9956,11 @@
         </is>
       </c>
       <c r="AI64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ64" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9793,10 +9988,8 @@
       <c r="H65" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I65" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I65" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J65" s="7" t="inlineStr">
         <is>
@@ -9805,34 +9998,34 @@
       </c>
       <c r="K65" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L65" s="7" t="inlineStr">
+        <is>
           <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-Wertes</t>
         </is>
       </c>
-      <c r="L65" s="4" t="inlineStr">
+      <c r="M65" s="4" t="inlineStr">
         <is>
           <t>Gini coefficient of income after social transfers to be below the EU figure by 2030</t>
         </is>
       </c>
-      <c r="M65" s="4" t="inlineStr">
+      <c r="N65" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N65" s="4" t="inlineStr">
+      <c r="O65" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O65" s="4" t="inlineStr">
+      <c r="P65" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T65" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U65" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9904,6 +10097,11 @@
         </is>
       </c>
       <c r="AI65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ65" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9931,10 +10129,8 @@
       <c r="H66" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I66" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I66" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J66" s="7" t="inlineStr">
         <is>
@@ -9943,37 +10139,37 @@
       </c>
       <c r="K66" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L66" s="7" t="inlineStr">
+        <is>
           <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
-      <c r="L66" s="4" t="inlineStr">
+      <c r="M66" s="4" t="inlineStr">
         <is>
           <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
-      <c r="M66" s="4" t="inlineStr">
+      <c r="N66" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N66" s="4" t="inlineStr">
+      <c r="O66" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O66" s="4" t="inlineStr">
+      <c r="P66" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P66" s="5">
+      <c r="Q66" s="5">
         <v>2030</v>
       </c>
-      <c r="T66" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U66" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10045,6 +10241,11 @@
         </is>
       </c>
       <c r="AI66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ66" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10072,10 +10273,8 @@
       <c r="H67" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I67" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I67" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J67" s="7" t="inlineStr">
         <is>
@@ -10084,30 +10283,30 @@
       </c>
       <c r="K67" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L67" s="7" t="inlineStr">
+        <is>
           <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
-      <c r="L67" s="4" t="inlineStr">
+      <c r="M67" s="4" t="inlineStr">
         <is>
           <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
-      <c r="M67" s="4" t="inlineStr">
+      <c r="N67" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N67" s="4" t="inlineStr">
+      <c r="O67" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O67" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T67" s="4" t="inlineStr">
+      <c r="P67" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10183,6 +10382,11 @@
         </is>
       </c>
       <c r="AI67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ67" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10210,10 +10414,8 @@
       <c r="H68" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I68" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I68" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J68" s="7" t="inlineStr">
         <is>
@@ -10222,30 +10424,30 @@
       </c>
       <c r="K68" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L68" s="7" t="inlineStr">
+        <is>
           <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
-      <c r="L68" s="4" t="inlineStr">
+      <c r="M68" s="4" t="inlineStr">
         <is>
           <t>No reduction in density of settlements</t>
         </is>
       </c>
-      <c r="M68" s="4" t="inlineStr">
+      <c r="N68" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N68" s="4" t="inlineStr">
+      <c r="O68" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O68" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T68" s="4" t="inlineStr">
+      <c r="P68" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10321,6 +10523,11 @@
         </is>
       </c>
       <c r="AI68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ68" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10348,10 +10555,8 @@
       <c r="H69" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I69" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I69" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J69" s="7" t="inlineStr">
         <is>
@@ -10360,37 +10565,37 @@
       </c>
       <c r="K69" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L69" s="7" t="inlineStr">
+        <is>
           <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
-      <c r="L69" s="4" t="inlineStr">
+      <c r="M69" s="4" t="inlineStr">
         <is>
           <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
-      <c r="M69" s="4" t="inlineStr">
+      <c r="N69" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N69" s="4" t="inlineStr">
+      <c r="O69" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O69" s="4" t="inlineStr">
+      <c r="P69" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="P69" s="5">
+      <c r="Q69" s="5">
         <v>2030</v>
       </c>
-      <c r="T69" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U69" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10462,6 +10667,11 @@
         </is>
       </c>
       <c r="AI69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ69" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10489,10 +10699,8 @@
       <c r="H70" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I70" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I70" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J70" s="7" t="inlineStr">
         <is>
@@ -10501,37 +10709,37 @@
       </c>
       <c r="K70" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L70" s="7" t="inlineStr">
+        <is>
           <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
-      <c r="L70" s="4" t="inlineStr">
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
-      <c r="M70" s="4" t="inlineStr">
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N70" s="4" t="inlineStr">
+      <c r="O70" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O70" s="4" t="inlineStr">
+      <c r="P70" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="P70" s="5">
+      <c r="Q70" s="5">
         <v>2030</v>
       </c>
-      <c r="T70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U70" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10603,6 +10811,11 @@
         </is>
       </c>
       <c r="AI70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ70" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10630,10 +10843,8 @@
       <c r="H71" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I71" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I71" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J71" s="7" t="inlineStr">
         <is>
@@ -10642,30 +10853,30 @@
       </c>
       <c r="K71" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L71" s="7" t="inlineStr">
+        <is>
           <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
+      <c r="N71" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N71" s="4" t="inlineStr">
+      <c r="O71" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T71" s="4" t="inlineStr">
+      <c r="P71" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10741,6 +10952,11 @@
         </is>
       </c>
       <c r="AI71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ71" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10768,10 +10984,8 @@
       <c r="H72" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I72" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I72" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J72" s="7" t="inlineStr">
         <is>
@@ -10780,37 +10994,37 @@
       </c>
       <c r="K72" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L72" s="7" t="inlineStr">
+        <is>
           <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
-      <c r="L72" s="4" t="inlineStr">
+      <c r="M72" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
         </is>
       </c>
-      <c r="M72" s="4" t="inlineStr">
+      <c r="N72" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N72" s="4" t="inlineStr">
+      <c r="O72" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O72" s="4" t="inlineStr">
+      <c r="P72" s="4" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P72" s="5">
+      <c r="Q72" s="5">
         <v>2030</v>
       </c>
-      <c r="T72" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U72" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10882,6 +11096,11 @@
         </is>
       </c>
       <c r="AI72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ72" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10909,10 +11128,8 @@
       <c r="H73" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I73" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I73" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J73" s="7" t="inlineStr">
         <is>
@@ -10921,37 +11138,37 @@
       </c>
       <c r="K73" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L73" s="7" t="inlineStr">
+        <is>
           <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
-      <c r="L73" s="4" t="inlineStr">
+      <c r="M73" s="4" t="inlineStr">
         <is>
           <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
-      <c r="M73" s="4" t="inlineStr">
+      <c r="N73" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N73" s="4" t="inlineStr">
+      <c r="O73" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O73" s="4" t="inlineStr">
+      <c r="P73" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P73" s="5">
+      <c r="Q73" s="5">
         <v>2030</v>
       </c>
-      <c r="T73" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U73" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11023,6 +11240,11 @@
         </is>
       </c>
       <c r="AI73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ73" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11050,10 +11272,8 @@
       <c r="H74" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I74" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I74" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J74" s="7" t="inlineStr">
         <is>
@@ -11062,37 +11282,37 @@
       </c>
       <c r="K74" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L74" s="7" t="inlineStr">
+        <is>
           <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
-      <c r="L74" s="4" t="inlineStr">
+      <c r="M74" s="4" t="inlineStr">
         <is>
           <t>Increase the market share to 34% by 2030</t>
         </is>
       </c>
-      <c r="M74" s="4" t="inlineStr">
+      <c r="N74" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N74" s="4" t="inlineStr">
+      <c r="O74" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O74" s="4" t="inlineStr">
+      <c r="P74" s="4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P74" s="5">
+      <c r="Q74" s="5">
         <v>2030</v>
       </c>
-      <c r="T74" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U74" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11164,6 +11384,11 @@
         </is>
       </c>
       <c r="AI74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ74" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11191,10 +11416,8 @@
       <c r="H75" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I75" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I75" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J75" s="7" t="inlineStr">
         <is>
@@ -11203,30 +11426,30 @@
       </c>
       <c r="K75" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L75" s="7" t="inlineStr">
+        <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="L75" s="4" t="inlineStr">
+      <c r="M75" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="M75" s="4" t="inlineStr">
+      <c r="N75" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N75" s="4" t="inlineStr">
+      <c r="O75" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O75" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T75" s="4" t="inlineStr">
+      <c r="P75" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11302,6 +11525,11 @@
         </is>
       </c>
       <c r="AI75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ75" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11329,10 +11557,8 @@
       <c r="H76" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I76" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I76" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J76" s="7" t="inlineStr">
         <is>
@@ -11341,30 +11567,30 @@
       </c>
       <c r="K76" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L76" s="7" t="inlineStr">
+        <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="L76" s="4" t="inlineStr">
+      <c r="M76" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="M76" s="4" t="inlineStr">
+      <c r="N76" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N76" s="4" t="inlineStr">
+      <c r="O76" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T76" s="4" t="inlineStr">
+      <c r="P76" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11440,6 +11666,11 @@
         </is>
       </c>
       <c r="AI76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ76" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11467,10 +11698,8 @@
       <c r="H77" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I77" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I77" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J77" s="7" t="inlineStr">
         <is>
@@ -11479,30 +11708,30 @@
       </c>
       <c r="K77" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L77" s="7" t="inlineStr">
+        <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="L77" s="4" t="inlineStr">
+      <c r="M77" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="M77" s="4" t="inlineStr">
+      <c r="N77" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N77" s="4" t="inlineStr">
+      <c r="O77" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O77" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T77" s="4" t="inlineStr">
+      <c r="P77" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11578,6 +11807,11 @@
         </is>
       </c>
       <c r="AI77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ77" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11605,10 +11839,8 @@
       <c r="H78" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I78" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I78" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J78" s="7" t="inlineStr">
         <is>
@@ -11617,37 +11849,37 @@
       </c>
       <c r="K78" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L78" s="7" t="inlineStr">
+        <is>
           <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
-      <c r="L78" s="4" t="inlineStr">
+      <c r="M78" s="4" t="inlineStr">
         <is>
           <t>5,000 locations of organisations by 2030</t>
         </is>
       </c>
-      <c r="M78" s="4" t="inlineStr">
+      <c r="N78" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N78" s="4" t="inlineStr">
+      <c r="O78" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O78" s="4" t="inlineStr">
+      <c r="P78" s="4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="P78" s="5">
+      <c r="Q78" s="5">
         <v>2030</v>
       </c>
-      <c r="T78" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U78" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11719,6 +11951,11 @@
         </is>
       </c>
       <c r="AI78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ78" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11746,10 +11983,8 @@
       <c r="H79" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I79" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I79" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J79" s="7" t="inlineStr">
         <is>
@@ -11758,37 +11993,37 @@
       </c>
       <c r="K79" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L79" s="7" t="inlineStr">
+        <is>
           <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
-      <c r="L79" s="4" t="inlineStr">
+      <c r="M79" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 95% by 2020</t>
         </is>
       </c>
-      <c r="M79" s="4" t="inlineStr">
+      <c r="N79" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N79" s="4" t="inlineStr">
+      <c r="O79" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O79" s="4" t="inlineStr">
+      <c r="P79" s="4" t="inlineStr">
         <is>
           <t>210,8</t>
         </is>
       </c>
-      <c r="P79" s="5">
+      <c r="Q79" s="5">
         <v>2020</v>
       </c>
-      <c r="T79" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U79" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11860,6 +12095,11 @@
         </is>
       </c>
       <c r="AI79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ79" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11887,10 +12127,8 @@
       <c r="H80" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I80" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I80" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J80" s="7" t="inlineStr">
         <is>
@@ -11899,30 +12137,30 @@
       </c>
       <c r="K80" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L80" s="7" t="inlineStr">
+        <is>
           <t>Signifikante Senkung</t>
         </is>
       </c>
-      <c r="L80" s="4" t="inlineStr">
+      <c r="M80" s="4" t="inlineStr">
         <is>
           <t>Significantly reduce</t>
         </is>
       </c>
-      <c r="M80" s="4" t="inlineStr">
+      <c r="N80" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N80" s="4" t="inlineStr">
+      <c r="O80" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O80" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T80" s="4" t="inlineStr">
+      <c r="P80" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11998,6 +12236,11 @@
         </is>
       </c>
       <c r="AI80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ80" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12025,10 +12268,8 @@
       <c r="H81" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I81" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J81" s="7" t="inlineStr">
         <is>
@@ -12037,40 +12278,40 @@
       </c>
       <c r="K81" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L81" s="7" t="inlineStr">
+        <is>
           <t>Minderung um mindestens 40 % bis 2020</t>
         </is>
       </c>
-      <c r="L81" s="4" t="inlineStr">
+      <c r="M81" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 40% by 2020</t>
         </is>
       </c>
-      <c r="M81" s="4" t="inlineStr">
+      <c r="N81" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N81" s="4" t="inlineStr">
+      <c r="O81" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O81" s="4" t="inlineStr">
+      <c r="P81" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P81" s="5">
+      <c r="Q81" s="5">
         <v>2020</v>
       </c>
-      <c r="R81" s="5">
+      <c r="S81" s="5">
         <v>2022</v>
       </c>
-      <c r="T81" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U81" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12142,6 +12383,11 @@
         </is>
       </c>
       <c r="AI81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ81" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12169,10 +12415,8 @@
       <c r="H82" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I82" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I82" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J82" s="7" t="inlineStr">
         <is>
@@ -12181,40 +12425,40 @@
       </c>
       <c r="K82" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L82" s="7" t="inlineStr">
+        <is>
           <t>Minderung um mindestens 55 % bis 2030</t>
         </is>
       </c>
-      <c r="L82" s="4" t="inlineStr">
+      <c r="M82" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 55% by 2030</t>
         </is>
       </c>
-      <c r="M82" s="4" t="inlineStr">
+      <c r="N82" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N82" s="4" t="inlineStr">
+      <c r="O82" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O82" s="4" t="inlineStr">
+      <c r="P82" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P82" s="5">
+      <c r="Q82" s="5">
         <v>2030</v>
       </c>
-      <c r="R82" s="5">
+      <c r="S82" s="5">
         <v>2022</v>
       </c>
-      <c r="T82" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U82" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12286,6 +12530,11 @@
         </is>
       </c>
       <c r="AI82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ82" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12313,10 +12562,8 @@
       <c r="H83" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I83" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I83" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J83" s="7" t="inlineStr">
         <is>
@@ -12325,40 +12572,40 @@
       </c>
       <c r="K83" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L83" s="7" t="inlineStr">
+        <is>
           <t>Minderung um mindestens 65 % bis 2030</t>
         </is>
       </c>
-      <c r="L83" s="4" t="inlineStr">
+      <c r="M83" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 65% by 2030</t>
         </is>
       </c>
-      <c r="M83" s="4" t="inlineStr">
+      <c r="N83" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N83" s="4" t="inlineStr">
+      <c r="O83" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O83" s="4" t="inlineStr">
+      <c r="P83" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P83" s="5">
+      <c r="Q83" s="5">
         <v>2030</v>
       </c>
-      <c r="S83" s="5">
+      <c r="T83" s="5">
         <v>2022</v>
       </c>
-      <c r="T83" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U83" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12430,6 +12677,11 @@
         </is>
       </c>
       <c r="AI83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ83" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12457,10 +12709,8 @@
       <c r="H84" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I84" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I84" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J84" s="7" t="inlineStr">
         <is>
@@ -12469,43 +12719,43 @@
       </c>
       <c r="K84" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L84" s="7" t="inlineStr">
+        <is>
           <t>Minderung um mindestens 70 % bis 2040</t>
         </is>
       </c>
-      <c r="L84" s="4" t="inlineStr">
+      <c r="M84" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 70% by 2040</t>
         </is>
       </c>
-      <c r="M84" s="4" t="inlineStr">
+      <c r="N84" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N84" s="4" t="inlineStr">
+      <c r="O84" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O84" s="4" t="inlineStr">
+      <c r="P84" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P84" s="5">
+      <c r="Q84" s="5">
         <v>2040</v>
       </c>
-      <c r="Q84" s="5">
+      <c r="R84" s="5">
         <v>2030</v>
       </c>
-      <c r="R84" s="5">
+      <c r="S84" s="5">
         <v>2021</v>
       </c>
-      <c r="T84" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U84" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12577,6 +12827,11 @@
         </is>
       </c>
       <c r="AI84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ84" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12604,10 +12859,8 @@
       <c r="H85" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I85" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I85" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J85" s="7" t="inlineStr">
         <is>
@@ -12616,43 +12869,43 @@
       </c>
       <c r="K85" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L85" s="7" t="inlineStr">
+        <is>
           <t>Minderung um mindestens 88 % bis 2040</t>
         </is>
       </c>
-      <c r="L85" s="4" t="inlineStr">
+      <c r="M85" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 88% by 2040</t>
         </is>
       </c>
-      <c r="M85" s="4" t="inlineStr">
+      <c r="N85" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N85" s="4" t="inlineStr">
+      <c r="O85" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O85" s="4" t="inlineStr">
+      <c r="P85" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P85" s="5">
+      <c r="Q85" s="5">
         <v>2040</v>
       </c>
-      <c r="Q85" s="5">
+      <c r="R85" s="5">
         <v>2030</v>
       </c>
-      <c r="S85" s="5">
+      <c r="T85" s="5">
         <v>2022</v>
       </c>
-      <c r="T85" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U85" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12724,6 +12977,11 @@
         </is>
       </c>
       <c r="AI85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ85" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12751,10 +13009,8 @@
       <c r="H86" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I86" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I86" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J86" s="7" t="inlineStr">
         <is>
@@ -12763,43 +13019,43 @@
       </c>
       <c r="K86" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L86" s="7" t="inlineStr">
+        <is>
           <t>Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
-      <c r="L86" s="4" t="inlineStr">
+      <c r="M86" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
-      <c r="M86" s="4" t="inlineStr">
+      <c r="N86" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N86" s="4" t="inlineStr">
+      <c r="O86" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O86" s="4" t="inlineStr">
+      <c r="P86" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P86" s="5">
+      <c r="Q86" s="5">
         <v>2045</v>
       </c>
-      <c r="Q86" s="5">
+      <c r="R86" s="5">
         <v>2040</v>
       </c>
-      <c r="S86" s="5">
+      <c r="T86" s="5">
         <v>2022</v>
       </c>
-      <c r="T86" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U86" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12871,6 +13127,11 @@
         </is>
       </c>
       <c r="AI86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ86" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12898,10 +13159,8 @@
       <c r="H87" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I87" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I87" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J87" s="7" t="inlineStr">
         <is>
@@ -12910,40 +13169,40 @@
       </c>
       <c r="K87" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L87" s="7" t="inlineStr">
+        <is>
           <t>Minderung um mindestens 80 % bis 95 % bis 2050</t>
         </is>
       </c>
-      <c r="L87" s="4" t="inlineStr">
+      <c r="M87" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 80% to 95% by 2050</t>
         </is>
       </c>
-      <c r="M87" s="4" t="inlineStr">
+      <c r="N87" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N87" s="4" t="inlineStr">
+      <c r="O87" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O87" s="4" t="inlineStr">
+      <c r="P87" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P87" s="5">
+      <c r="Q87" s="5">
         <v>2050</v>
       </c>
-      <c r="R87" s="5">
+      <c r="S87" s="5">
         <v>2021</v>
       </c>
-      <c r="T87" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U87" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13015,6 +13274,11 @@
         </is>
       </c>
       <c r="AI87" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ87" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13042,10 +13306,8 @@
       <c r="H88" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I88" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I88" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J88" s="7" t="inlineStr">
         <is>
@@ -13054,46 +13316,46 @@
       </c>
       <c r="K88" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L88" s="7" t="inlineStr">
+        <is>
           <t>Erreichung der Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
-      <c r="L88" s="4" t="inlineStr">
+      <c r="M88" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality to be achieved by 2050</t>
         </is>
       </c>
-      <c r="M88" s="4" t="inlineStr">
+      <c r="N88" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N88" s="4" t="inlineStr">
+      <c r="O88" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O88" s="4" t="inlineStr">
+      <c r="P88" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P88" s="5">
+      <c r="Q88" s="5">
         <v>2050</v>
       </c>
-      <c r="Q88" s="5">
+      <c r="R88" s="5">
         <v>2040</v>
       </c>
-      <c r="R88" s="5">
+      <c r="S88" s="5">
         <v>2022</v>
       </c>
-      <c r="S88" s="5">
+      <c r="T88" s="5">
         <v>2021</v>
       </c>
-      <c r="T88" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U88" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13165,6 +13427,11 @@
         </is>
       </c>
       <c r="AI88" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ88" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13192,10 +13459,8 @@
       <c r="H89" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I89" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I89" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J89" s="7" t="inlineStr">
         <is>
@@ -13204,40 +13469,40 @@
       </c>
       <c r="K89" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L89" s="7" t="inlineStr">
+        <is>
           <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
         </is>
       </c>
-      <c r="L89" s="4" t="inlineStr">
+      <c r="M89" s="4" t="inlineStr">
         <is>
           <t>Double finance by 2020 compared to 2014</t>
         </is>
       </c>
-      <c r="M89" s="4" t="inlineStr">
+      <c r="N89" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N89" s="4" t="inlineStr">
+      <c r="O89" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O89" s="4" t="inlineStr">
+      <c r="P89" s="4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P89" s="5">
+      <c r="Q89" s="5">
         <v>2020</v>
       </c>
-      <c r="R89" s="5">
+      <c r="S89" s="5">
         <v>2022</v>
       </c>
-      <c r="T89" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U89" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13309,6 +13574,11 @@
         </is>
       </c>
       <c r="AI89" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ89" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13336,10 +13606,8 @@
       <c r="H90" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I90" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I90" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J90" s="7" t="inlineStr">
         <is>
@@ -13348,40 +13616,40 @@
       </c>
       <c r="K90" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L90" s="7" t="inlineStr">
+        <is>
           <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
-      <c r="L90" s="4" t="inlineStr">
+      <c r="M90" s="4" t="inlineStr">
         <is>
           <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest.</t>
         </is>
       </c>
-      <c r="M90" s="4" t="inlineStr">
+      <c r="N90" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N90" s="4" t="inlineStr">
+      <c r="O90" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O90" s="4" t="inlineStr">
+      <c r="P90" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P90" s="5">
+      <c r="Q90" s="5">
         <v>2020</v>
       </c>
-      <c r="Q90" s="5">
+      <c r="R90" s="5">
         <v>2022</v>
       </c>
-      <c r="T90" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U90" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13453,6 +13721,11 @@
         </is>
       </c>
       <c r="AI90" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ90" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13480,10 +13753,8 @@
       <c r="H91" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I91" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I91" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J91" s="7" t="inlineStr">
         <is>
@@ -13492,34 +13763,34 @@
       </c>
       <c r="K91" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L91" s="7" t="inlineStr">
+        <is>
           <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
-      <c r="L91" s="4" t="inlineStr">
+      <c r="M91" s="4" t="inlineStr">
         <is>
           <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
-      <c r="M91" s="4" t="inlineStr">
+      <c r="N91" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N91" s="4" t="inlineStr">
+      <c r="O91" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O91" s="4" t="inlineStr">
+      <c r="P91" s="4" t="inlineStr">
         <is>
           <t>2,6</t>
         </is>
       </c>
-      <c r="T91" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U91" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13591,6 +13862,11 @@
         </is>
       </c>
       <c r="AI91" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ91" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13618,10 +13894,8 @@
       <c r="H92" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I92" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I92" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J92" s="7" t="inlineStr">
         <is>
@@ -13630,34 +13904,34 @@
       </c>
       <c r="K92" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L92" s="7" t="inlineStr">
+        <is>
           <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
-      <c r="L92" s="4" t="inlineStr">
+      <c r="M92" s="4" t="inlineStr">
         <is>
           <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
-      <c r="M92" s="4" t="inlineStr">
+      <c r="N92" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N92" s="4" t="inlineStr">
+      <c r="O92" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O92" s="4" t="inlineStr">
+      <c r="P92" s="4" t="inlineStr">
         <is>
           <t>2,8</t>
         </is>
       </c>
-      <c r="T92" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U92" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13729,6 +14003,11 @@
         </is>
       </c>
       <c r="AI92" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ92" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13756,10 +14035,8 @@
       <c r="H93" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I93" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I93" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J93" s="7" t="inlineStr">
         <is>
@@ -13768,37 +14045,37 @@
       </c>
       <c r="K93" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L93" s="7" t="inlineStr">
+        <is>
           <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
-      <c r="L93" s="4" t="inlineStr">
+      <c r="M93" s="4" t="inlineStr">
         <is>
           <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
-      <c r="M93" s="4" t="inlineStr">
+      <c r="N93" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N93" s="4" t="inlineStr">
+      <c r="O93" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O93" s="4" t="inlineStr">
+      <c r="P93" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P93" s="5">
+      <c r="Q93" s="5">
         <v>2020</v>
       </c>
-      <c r="T93" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U93" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13870,6 +14147,11 @@
         </is>
       </c>
       <c r="AI93" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ93" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13897,10 +14179,8 @@
       <c r="H94" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I94" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I94" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J94" s="7" t="inlineStr">
         <is>
@@ -13909,37 +14189,37 @@
       </c>
       <c r="K94" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L94" s="7" t="inlineStr">
+        <is>
           <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
-      <c r="L94" s="4" t="inlineStr">
+      <c r="M94" s="4" t="inlineStr">
         <is>
           <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
-      <c r="M94" s="4" t="inlineStr">
+      <c r="N94" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N94" s="4" t="inlineStr">
+      <c r="O94" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O94" s="4" t="inlineStr">
+      <c r="P94" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P94" s="5">
+      <c r="Q94" s="5">
         <v>2030</v>
       </c>
-      <c r="T94" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U94" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14011,6 +14291,11 @@
         </is>
       </c>
       <c r="AI94" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ94" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14038,10 +14323,8 @@
       <c r="H95" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I95" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I95" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J95" s="7" t="inlineStr">
         <is>
@@ -14050,37 +14333,37 @@
       </c>
       <c r="K95" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L95" s="7" t="inlineStr">
+        <is>
           <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
-      <c r="L95" s="4" t="inlineStr">
+      <c r="M95" s="4" t="inlineStr">
         <is>
           <t>Reduction by 35% by 2030 compared to 2005</t>
         </is>
       </c>
-      <c r="M95" s="4" t="inlineStr">
+      <c r="N95" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N95" s="4" t="inlineStr">
+      <c r="O95" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O95" s="4" t="inlineStr">
+      <c r="P95" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P95" s="5">
+      <c r="Q95" s="5">
         <v>2030</v>
       </c>
-      <c r="T95" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U95" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14152,6 +14435,11 @@
         </is>
       </c>
       <c r="AI95" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ95" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14179,10 +14467,8 @@
       <c r="H96" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I96" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I96" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J96" s="7" t="inlineStr">
         <is>
@@ -14191,30 +14477,30 @@
       </c>
       <c r="K96" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L96" s="7" t="inlineStr">
+        <is>
           <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
-      <c r="L96" s="4" t="inlineStr">
+      <c r="M96" s="4" t="inlineStr">
         <is>
           <t>Increase payments by 2030</t>
         </is>
       </c>
-      <c r="M96" s="4" t="inlineStr">
+      <c r="N96" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N96" s="4" t="inlineStr">
+      <c r="O96" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O96" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T96" s="4" t="inlineStr">
+      <c r="P96" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14290,6 +14576,11 @@
         </is>
       </c>
       <c r="AI96" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ96" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14317,10 +14608,8 @@
       <c r="H97" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I97" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I97" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J97" s="7" t="inlineStr">
         <is>
@@ -14329,30 +14618,30 @@
       </c>
       <c r="K97" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L97" s="7" t="inlineStr">
+        <is>
           <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
-      <c r="L97" s="4" t="inlineStr">
+      <c r="M97" s="4" t="inlineStr">
         <is>
           <t>Increase payments by 2030</t>
         </is>
       </c>
-      <c r="M97" s="4" t="inlineStr">
+      <c r="N97" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N97" s="4" t="inlineStr">
+      <c r="O97" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O97" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T97" s="4" t="inlineStr">
+      <c r="P97" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14428,6 +14717,11 @@
         </is>
       </c>
       <c r="AI97" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ97" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14455,10 +14749,8 @@
       <c r="H98" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I98" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I98" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J98" s="7" t="inlineStr">
         <is>
@@ -14467,40 +14759,40 @@
       </c>
       <c r="K98" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L98" s="7" t="inlineStr">
+        <is>
           <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
-      <c r="L98" s="4" t="inlineStr">
+      <c r="M98" s="4" t="inlineStr">
         <is>
           <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
-      <c r="M98" s="4" t="inlineStr">
+      <c r="N98" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N98" s="4" t="inlineStr">
+      <c r="O98" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O98" s="4" t="inlineStr">
+      <c r="P98" s="4" t="inlineStr">
         <is>
           <t>6500</t>
         </is>
       </c>
-      <c r="P98" s="5">
+      <c r="Q98" s="5">
         <v>2030</v>
       </c>
-      <c r="S98" s="5">
+      <c r="T98" s="5">
         <v>2021</v>
       </c>
-      <c r="T98" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U98" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14572,6 +14864,11 @@
         </is>
       </c>
       <c r="AI98" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ98" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14599,10 +14896,8 @@
       <c r="H99" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I99" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I99" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J99" s="7" t="inlineStr">
         <is>
@@ -14611,40 +14906,40 @@
       </c>
       <c r="K99" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L99" s="7" t="inlineStr">
+        <is>
           <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
-      <c r="L99" s="4" t="inlineStr">
+      <c r="M99" s="4" t="inlineStr">
         <is>
           <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
-      <c r="M99" s="4" t="inlineStr">
+      <c r="N99" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N99" s="4" t="inlineStr">
+      <c r="O99" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O99" s="4" t="inlineStr">
+      <c r="P99" s="4" t="inlineStr">
         <is>
           <t>7000</t>
         </is>
       </c>
-      <c r="P99" s="5">
+      <c r="Q99" s="5">
         <v>2030</v>
       </c>
-      <c r="R99" s="5">
+      <c r="S99" s="5">
         <v>2021</v>
       </c>
-      <c r="T99" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U99" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14716,6 +15011,11 @@
         </is>
       </c>
       <c r="AI99" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ99" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14743,10 +15043,8 @@
       <c r="H100" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I100" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I100" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J100" s="7" t="inlineStr">
         <is>
@@ -14755,37 +15053,37 @@
       </c>
       <c r="K100" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L100" s="7" t="inlineStr">
+        <is>
           <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="L100" s="4" t="inlineStr">
+      <c r="M100" s="4" t="inlineStr">
         <is>
           <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
-      <c r="M100" s="4" t="inlineStr">
+      <c r="N100" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N100" s="4" t="inlineStr">
+      <c r="O100" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O100" s="4" t="inlineStr">
+      <c r="P100" s="4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P100" s="5">
+      <c r="Q100" s="5">
         <v>2030</v>
       </c>
-      <c r="T100" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U100" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14857,6 +15155,11 @@
         </is>
       </c>
       <c r="AI100" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ100" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14884,10 +15187,8 @@
       <c r="H101" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I101" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I101" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J101" s="7" t="inlineStr">
         <is>
@@ -14896,30 +15197,30 @@
       </c>
       <c r="K101" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L101" s="7" t="inlineStr">
+        <is>
           <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
-      <c r="L101" s="4" t="inlineStr">
+      <c r="M101" s="4" t="inlineStr">
         <is>
           <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
-      <c r="M101" s="4" t="inlineStr">
+      <c r="N101" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N101" s="4" t="inlineStr">
+      <c r="O101" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O101" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T101" s="4" t="inlineStr">
+      <c r="P101" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14995,6 +15296,11 @@
         </is>
       </c>
       <c r="AI101" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ101" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15022,10 +15328,8 @@
       <c r="H102" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I102" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I102" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J102" s="7" t="inlineStr">
         <is>
@@ -15034,37 +15338,37 @@
       </c>
       <c r="K102" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L102" s="7" t="inlineStr">
+        <is>
           <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
-      <c r="L102" s="4" t="inlineStr">
+      <c r="M102" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 0.7% of gross national income by 2030</t>
         </is>
       </c>
-      <c r="M102" s="4" t="inlineStr">
+      <c r="N102" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N102" s="4" t="inlineStr">
+      <c r="O102" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O102" s="4" t="inlineStr">
+      <c r="P102" s="4" t="inlineStr">
         <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="P102" s="5">
+      <c r="Q102" s="5">
         <v>2030</v>
       </c>
-      <c r="T102" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U102" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15136,6 +15440,11 @@
         </is>
       </c>
       <c r="AI102" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ102" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15163,10 +15472,8 @@
       <c r="H103" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I103" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I103" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J103" s="7" t="inlineStr">
         <is>
@@ -15175,37 +15482,37 @@
       </c>
       <c r="K103" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L103" s="7" t="inlineStr">
+        <is>
           <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
         </is>
       </c>
-      <c r="L103" s="4" t="inlineStr">
+      <c r="M103" s="4" t="inlineStr">
         <is>
           <t>Increase the number by 10% from 2015 to 2020</t>
         </is>
       </c>
-      <c r="M103" s="4" t="inlineStr">
+      <c r="N103" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N103" s="4" t="inlineStr">
+      <c r="O103" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O103" s="4" t="inlineStr">
+      <c r="P103" s="4" t="inlineStr">
         <is>
           <t>237000</t>
         </is>
       </c>
-      <c r="P103" s="5">
+      <c r="Q103" s="5">
         <v>2020</v>
       </c>
-      <c r="T103" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U103" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15277,6 +15584,11 @@
         </is>
       </c>
       <c r="AI103" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ103" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15307,10 +15619,8 @@
       <c r="H104" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I104" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I104" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J104" s="7" t="inlineStr">
         <is>
@@ -15319,34 +15629,34 @@
       </c>
       <c r="K104" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L104" s="7" t="inlineStr">
+        <is>
           <t>Verstetigung des Zielwertes von 2020</t>
         </is>
       </c>
-      <c r="L104" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="M104" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N104" s="4" t="inlineStr">
+        <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N104" s="4" t="inlineStr">
+      <c r="O104" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O104" s="4" t="inlineStr">
+      <c r="P104" s="4" t="inlineStr">
         <is>
           <t>237000</t>
         </is>
       </c>
-      <c r="T104" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U104" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15418,6 +15728,11 @@
         </is>
       </c>
       <c r="AI104" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ104" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15445,10 +15760,8 @@
       <c r="H105" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I105" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="I105" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J105" s="7" t="inlineStr">
         <is>
@@ -15457,37 +15770,37 @@
       </c>
       <c r="K105" s="7" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L105" s="7" t="inlineStr">
+        <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="L105" s="4" t="inlineStr">
+      <c r="M105" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="M105" s="4" t="inlineStr">
+      <c r="N105" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N105" s="4" t="inlineStr">
+      <c r="O105" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O105" s="4" t="inlineStr">
+      <c r="P105" s="4" t="inlineStr">
         <is>
           <t>1,43</t>
         </is>
       </c>
-      <c r="P105" s="5">
+      <c r="Q105" s="5">
         <v>2030</v>
       </c>
-      <c r="T105" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U105" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15559,6 +15872,11 @@
         </is>
       </c>
       <c r="AI105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ105" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -538,7 +538,7 @@
     <col customWidth="true" min="6" max="6" width="8.203125"/>
     <col customWidth="true" min="7" max="7" width="15.8203125"/>
     <col customWidth="true" min="8" max="8" width="10.10546875"/>
-    <col customWidth="true" min="9" max="9" width="13.8359375"/>
+    <col customWidth="true" min="9" max="9" width="30.3203125"/>
     <col customWidth="true" min="10" max="10" width="5.7109375"/>
     <col customWidth="true" min="11" max="11" width="5.7109375"/>
     <col customWidth="true" min="12" max="12" width="26.07421875"/>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -4864,6 +4864,9 @@
           <t/>
         </is>
       </c>
+      <c r="D30" s="5">
+        <v>90</v>
+      </c>
       <c r="G30" s="6" t="b">
         <v>0</v>
       </c>
@@ -5005,6 +5008,9 @@
           <t/>
         </is>
       </c>
+      <c r="D31" s="5">
+        <v>90</v>
+      </c>
       <c r="G31" s="6" t="b">
         <v>0</v>
       </c>
@@ -5146,8 +5152,11 @@
           <t/>
         </is>
       </c>
+      <c r="D32" s="5">
+        <v>8</v>
+      </c>
       <c r="G32" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="6" t="b">
         <v>1</v>
@@ -5293,8 +5302,11 @@
           <t/>
         </is>
       </c>
+      <c r="D33" s="5">
+        <v>6</v>
+      </c>
       <c r="G33" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="6" t="b">
         <v>1</v>
@@ -5439,6 +5451,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="D34" s="5">
+        <v>8</v>
       </c>
       <c r="G34" s="6" t="b">
         <v>0</v>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -539,7 +539,7 @@
     <col customWidth="true" min="7" max="7" width="15.8203125"/>
     <col customWidth="true" min="8" max="8" width="10.10546875"/>
     <col customWidth="true" min="9" max="9" width="30.3203125"/>
-    <col customWidth="true" min="10" max="10" width="5.7109375"/>
+    <col customWidth="true" min="10" max="10" width="11.71875"/>
     <col customWidth="true" min="11" max="11" width="5.7109375"/>
     <col customWidth="true" min="12" max="12" width="26.07421875"/>
     <col customWidth="true" min="13" max="13" width="19.04296875"/>
@@ -5453,7 +5453,7 @@
         </is>
       </c>
       <c r="D34" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G34" s="6" t="b">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="Q35" s="5">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
@@ -7996,6 +7996,9 @@
           <t/>
         </is>
       </c>
+      <c r="D51" s="5">
+        <v>-4</v>
+      </c>
       <c r="G51" s="6" t="b">
         <v>0</v>
       </c>
@@ -8137,6 +8140,9 @@
           <t/>
         </is>
       </c>
+      <c r="D52" s="5">
+        <v>-1</v>
+      </c>
       <c r="E52" s="5">
         <v>2009</v>
       </c>
@@ -8281,6 +8287,9 @@
           <t/>
         </is>
       </c>
+      <c r="D53" s="5">
+        <v>80</v>
+      </c>
       <c r="G53" s="6" t="b">
         <v>0</v>
       </c>
@@ -8704,6 +8713,9 @@
           <t/>
         </is>
       </c>
+      <c r="D56" s="5">
+        <v>65</v>
+      </c>
       <c r="G56" s="6" t="b">
         <v>0</v>
       </c>
@@ -8848,6 +8860,9 @@
           <t/>
         </is>
       </c>
+      <c r="D57" s="5">
+        <v>45</v>
+      </c>
       <c r="G57" s="6" t="b">
         <v>0</v>
       </c>
@@ -9133,6 +9148,9 @@
           <t/>
         </is>
       </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
       <c r="G59" s="6" t="b">
         <v>1</v>
       </c>
@@ -9427,6 +9445,9 @@
           <t/>
         </is>
       </c>
+      <c r="D61" s="5">
+        <v>80</v>
+      </c>
       <c r="G61" s="6" t="b">
         <v>1</v>
       </c>
@@ -9853,6 +9874,9 @@
           <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
+      <c r="D64" s="5">
+        <v>2</v>
+      </c>
       <c r="G64" s="6" t="b">
         <v>0</v>
       </c>
@@ -10138,6 +10162,9 @@
           <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
+      <c r="D66" s="5">
+        <v>40</v>
+      </c>
       <c r="G66" s="6" t="b">
         <v>1</v>
       </c>
@@ -10564,6 +10591,9 @@
           <t/>
         </is>
       </c>
+      <c r="D69" s="5">
+        <v>90</v>
+      </c>
       <c r="G69" s="6" t="b">
         <v>1</v>
       </c>
@@ -10708,6 +10738,9 @@
           <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
+      <c r="D70" s="5">
+        <v>90</v>
+      </c>
       <c r="G70" s="6" t="b">
         <v>1</v>
       </c>
@@ -10990,7 +11023,7 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>15</t>
         </is>
       </c>
       <c r="G72" s="6" t="b">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK105"/>
+  <dimension ref="A1:AK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -572,7 +572,7 @@
     <col customWidth="true" min="11" max="11" width="35.88671875"/>
     <col customWidth="true" min="12" max="12" width="8.7890625"/>
     <col customWidth="true" min="13" max="13" width="13.8359375"/>
-    <col customWidth="true" min="14" max="14" width="13.8359375"/>
+    <col customWidth="true" min="14" max="14" width="10.69140625"/>
     <col customWidth="true" min="15" max="15" width="13.8359375"/>
     <col customWidth="true" min="16" max="16" width="13.8359375"/>
     <col customWidth="true" min="17" max="17" width="13.8359375"/>
@@ -1281,7 +1281,7 @@
         <v>2030</v>
       </c>
       <c r="Q5" s="8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="S5" s="5" t="b">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>2022</v>
       </c>
       <c r="S43" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="AB43" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AC43" s="4" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="AD43" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AE43" s="4" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="AF43" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AG43" s="4" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="AB44" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AC44" s="4" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="AD44" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AE44" s="4" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="AF44" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AG44" s="4" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="AB45" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC45" s="4" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="AD45" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AE45" s="4" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="AF45" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AG45" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AH45" s="4" t="inlineStr">
@@ -7373,12 +7373,12 @@
       </c>
       <c r="AA46" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB46" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC46" s="4" t="inlineStr">
@@ -7388,17 +7388,17 @@
       </c>
       <c r="AD46" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AE46" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AF46" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AG46" s="4" t="inlineStr">
@@ -7523,22 +7523,22 @@
       </c>
       <c r="AA47" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AB47" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AC47" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AD47" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AE47" s="4" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="AB49" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AC49" s="4" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AD49" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AE49" s="4" t="inlineStr">
@@ -7848,12 +7848,12 @@
       </c>
       <c r="AF49" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AG49" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AH49" s="4" t="inlineStr">
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="D50" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="5" t="b">
         <v>1</v>
@@ -7955,37 +7955,37 @@
       </c>
       <c r="X50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AA50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE50" s="4" t="inlineStr">
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="D51" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="5" t="b">
         <v>1</v>
@@ -8117,37 +8117,37 @@
       </c>
       <c r="AA51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AG51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AH51" s="4" t="inlineStr">
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="D52" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="5" t="b">
         <v>1</v>
@@ -8267,37 +8267,37 @@
       </c>
       <c r="AA52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AF52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AG52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AH52" s="4" t="inlineStr">
@@ -8338,7 +8338,7 @@
         </is>
       </c>
       <c r="D53" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="5" t="b">
         <v>1</v>
@@ -8411,37 +8411,37 @@
       </c>
       <c r="AA53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AH53" s="4" t="inlineStr">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="D54" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="5" t="b">
         <v>0</v>
@@ -8552,37 +8552,37 @@
       </c>
       <c r="AA54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AB54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH54" s="4" t="inlineStr">
@@ -8623,7 +8623,7 @@
         </is>
       </c>
       <c r="D55" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5" t="b">
         <v>0</v>
@@ -8693,37 +8693,37 @@
       </c>
       <c r="AA55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AG55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH55" s="4" t="inlineStr">
@@ -8764,7 +8764,7 @@
         </is>
       </c>
       <c r="D56" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="5" t="b">
         <v>1</v>
@@ -8840,37 +8840,37 @@
       </c>
       <c r="AA56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH56" s="4" t="inlineStr">
@@ -8911,7 +8911,7 @@
         </is>
       </c>
       <c r="D57" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5" t="b">
         <v>1</v>
@@ -8987,37 +8987,37 @@
       </c>
       <c r="AA57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH57" s="4" t="inlineStr">
@@ -9148,17 +9148,17 @@
       </c>
       <c r="AE58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AF58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AH58" s="4" t="inlineStr">
@@ -9185,7 +9185,7 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>W_0901a_2025</t>
+          <t>W_0901a_Jb</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
@@ -9273,37 +9273,37 @@
       </c>
       <c r="Z59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG59" s="4" t="inlineStr">
@@ -9335,7 +9335,7 @@
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>W_0901a_2030</t>
+          <t>W_0901a_Ja</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
@@ -9420,37 +9420,37 @@
       </c>
       <c r="Z60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG60" s="4" t="inlineStr">
@@ -9713,37 +9713,37 @@
       </c>
       <c r="AA62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AC62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AD62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AF62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AG62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AH62" s="4" t="inlineStr">
@@ -9854,37 +9854,37 @@
       </c>
       <c r="AA63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AB63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AC63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AD63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AH63" s="4" t="inlineStr">
@@ -10001,37 +10001,37 @@
       </c>
       <c r="AA64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AC64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AD64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AF64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AG64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AH64" s="4" t="inlineStr">
@@ -10142,37 +10142,37 @@
       </c>
       <c r="AA65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AB65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AC65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AD65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AG65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AH65" s="4" t="inlineStr">
@@ -10284,37 +10284,37 @@
       </c>
       <c r="Z66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AA66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG66" s="4" t="inlineStr">
@@ -10425,37 +10425,37 @@
       </c>
       <c r="Z67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AA67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AD67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AE67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AG67" s="4" t="inlineStr">
@@ -10566,37 +10566,37 @@
       </c>
       <c r="Z68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AA68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AC68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AD68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AE68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AF68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AG68" s="4" t="inlineStr">
@@ -10713,37 +10713,37 @@
       </c>
       <c r="Z69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AA69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AB69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AC69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AD69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AF69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG69" s="4" t="inlineStr">
@@ -10789,7 +10789,7 @@
         </is>
       </c>
       <c r="D70" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="5" t="b">
         <v>1</v>
@@ -10860,32 +10860,32 @@
       </c>
       <c r="Z70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AA70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AB70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AC70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AD70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AF70" s="4" t="inlineStr">
@@ -11156,37 +11156,37 @@
       </c>
       <c r="AA72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AB72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH72" s="4" t="inlineStr">
@@ -11303,37 +11303,37 @@
       </c>
       <c r="AA73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH73" s="4" t="inlineStr">
@@ -11460,17 +11460,17 @@
       </c>
       <c r="AC74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF74" s="4" t="inlineStr">
@@ -11591,22 +11591,22 @@
       </c>
       <c r="AA75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AC75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE75" s="4" t="inlineStr">
@@ -11727,22 +11727,22 @@
       </c>
       <c r="Z76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AB76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AC76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD76" s="4" t="inlineStr">
@@ -11868,22 +11868,22 @@
       </c>
       <c r="Z77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AB77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AC77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD77" s="4" t="inlineStr">
@@ -12020,37 +12020,37 @@
       </c>
       <c r="AA78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG78" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AH78" s="4" t="inlineStr">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="AF79" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG79" s="4" t="inlineStr">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="AF80" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AG80" s="4" t="inlineStr">
@@ -12458,32 +12458,32 @@
       </c>
       <c r="AA81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF81" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG81" s="4" t="inlineStr">
@@ -12605,37 +12605,37 @@
       </c>
       <c r="AA82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AF82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG82" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH82" s="4" t="inlineStr">
@@ -12755,37 +12755,37 @@
       </c>
       <c r="AA83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG83" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AH83" s="4" t="inlineStr">
@@ -12905,37 +12905,37 @@
       </c>
       <c r="AA84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AF84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH84" s="4" t="inlineStr">
@@ -13058,37 +13058,37 @@
       </c>
       <c r="AA85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG85" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AH85" s="4" t="inlineStr">
@@ -13211,37 +13211,37 @@
       </c>
       <c r="AA86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG86" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AH86" s="4" t="inlineStr">
@@ -13358,37 +13358,37 @@
       </c>
       <c r="AA87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AE87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG87" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH87" s="4" t="inlineStr">
@@ -13511,37 +13511,37 @@
       </c>
       <c r="AA88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH88" s="4" t="inlineStr">
@@ -13663,27 +13663,27 @@
       </c>
       <c r="AB89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AE89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF89" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG89" s="4" t="inlineStr">
@@ -13813,32 +13813,32 @@
       </c>
       <c r="AB90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG90" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH90" s="4" t="inlineStr">
@@ -13947,37 +13947,37 @@
       </c>
       <c r="Z91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG91" s="4" t="inlineStr">
@@ -14091,37 +14091,37 @@
       </c>
       <c r="Z92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG92" s="4" t="inlineStr">
@@ -14238,37 +14238,37 @@
       </c>
       <c r="Z93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AD93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AE93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF93" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG93" s="4" t="inlineStr">
@@ -14365,37 +14365,37 @@
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="X94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Y94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="Z94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AA94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AB94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AC94" s="4" t="inlineStr">
@@ -14512,32 +14512,32 @@
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="X95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="Y95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AB95" s="4" t="inlineStr">
@@ -14673,37 +14673,37 @@
       </c>
       <c r="Z96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AA96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AB96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AE96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF96" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AG96" s="4" t="inlineStr">
@@ -14814,37 +14814,37 @@
       </c>
       <c r="Z97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AA97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF97" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AG97" s="4" t="inlineStr">
@@ -14969,37 +14969,37 @@
       </c>
       <c r="AA98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AB98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AC98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG98" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH98" s="4" t="inlineStr">
@@ -15116,37 +15116,37 @@
       </c>
       <c r="AA99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AB99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AC99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG99" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH99" s="4" t="inlineStr">
@@ -15260,37 +15260,37 @@
       </c>
       <c r="AA100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG100" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH100" s="4" t="inlineStr">
@@ -15411,27 +15411,27 @@
       </c>
       <c r="AC101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AD101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AE101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AF101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AG101" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AH101" s="4" t="inlineStr">
@@ -15528,37 +15528,37 @@
       </c>
       <c r="W102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="X102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="Y102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="Z102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AA102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD102" s="4" t="inlineStr">
@@ -15605,7 +15605,7 @@
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_2030</t>
+          <t>W_1702x_2020</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -15695,32 +15695,32 @@
       </c>
       <c r="AA103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG103" s="4" t="inlineStr">
@@ -15869,7 +15869,7 @@
       </c>
       <c r="AG104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH104" s="4" t="inlineStr">
@@ -15986,37 +15986,37 @@
       </c>
       <c r="AA105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AG105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AH105" s="4" t="inlineStr">
@@ -16035,6 +16035,147 @@
         </is>
       </c>
       <c r="AK105" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>W_1603B_R</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I106" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J106" s="7" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="K106" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="L106" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M106" s="4" t="inlineStr">
+        <is>
+          <t>steigen</t>
+        </is>
+      </c>
+      <c r="N106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD106" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AE106" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF106" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG106" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ106" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK106" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26" s="7" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>W_0901a_Jb</t>
+          <t>W_0901a_Ja</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -9199,13 +9199,10 @@
         </is>
       </c>
       <c r="D59" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7" t="inlineStr">
         <is>
@@ -9219,12 +9216,12 @@
       </c>
       <c r="J59" s="7" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Jährlich mindestens 3 % des BIP bis 2030</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5% of GDP per year by 2025</t>
+          <t>At least 3% of GDP per year by 2030</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
@@ -9239,17 +9236,17 @@
       </c>
       <c r="N59" s="4" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O59" s="8">
-        <v>2025</v>
-      </c>
-      <c r="R59" s="8">
+        <v>2030</v>
+      </c>
+      <c r="Q59" s="8">
         <v>2018</v>
       </c>
       <c r="S59" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
@@ -9288,22 +9285,22 @@
       </c>
       <c r="AC59" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AD59" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AE59" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AF59" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AG59" s="4" t="inlineStr">
@@ -9335,7 +9332,7 @@
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>W_0901a_Ja</t>
+          <t>W_0901a_Jb</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -9349,10 +9346,13 @@
         </is>
       </c>
       <c r="D60" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G60" s="6">
+        <v>3.2</v>
       </c>
       <c r="H60" s="7" t="inlineStr">
         <is>
@@ -9366,12 +9366,12 @@
       </c>
       <c r="J60" s="7" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3 % des BIP bis 2030</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>At least 3% of GDP per year by 2030</t>
+          <t>At least 3.5% of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
@@ -9386,17 +9386,17 @@
       </c>
       <c r="N60" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="O60" s="8">
-        <v>2030</v>
-      </c>
-      <c r="Q60" s="8">
+        <v>2025</v>
+      </c>
+      <c r="R60" s="8">
         <v>2018</v>
       </c>
       <c r="S60" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
@@ -9435,22 +9435,22 @@
       </c>
       <c r="AC60" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AD60" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AE60" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AF60" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AG60" s="4" t="inlineStr">
@@ -10167,12 +10167,12 @@
       </c>
       <c r="AF65" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AG65" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AH65" s="4" t="inlineStr">
@@ -10789,7 +10789,7 @@
         </is>
       </c>
       <c r="D70" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="5" t="b">
         <v>1</v>
@@ -11181,12 +11181,12 @@
       </c>
       <c r="AF72" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AG72" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AH72" s="4" t="inlineStr">
@@ -15458,12 +15458,12 @@
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>W_1701x_2030</t>
+          <t>W_1603B_R</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
@@ -15475,10 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G102" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H102" s="7" t="inlineStr">
         <is>
@@ -15492,17 +15489,17 @@
       </c>
       <c r="J102" s="7" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="K102" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="L102" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="M102" s="4" t="inlineStr">
@@ -15512,11 +15509,8 @@
       </c>
       <c r="N102" s="4" t="inlineStr">
         <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="O102" s="8">
-        <v>2030</v>
+          <t/>
+        </is>
       </c>
       <c r="S102" s="5" t="b">
         <v>1</v>
@@ -15528,57 +15522,57 @@
       </c>
       <c r="W102" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="X102" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="Y102" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="Z102" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AA102" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AB102" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AC102" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AD102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L</t>
         </is>
       </c>
       <c r="AE102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG102" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH102" s="4" t="inlineStr">
@@ -15605,12 +15599,12 @@
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_2020</t>
+          <t>W_1701x_2030</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
@@ -15619,13 +15613,13 @@
         </is>
       </c>
       <c r="D103" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G103" s="6">
-        <v>210000</v>
+        <v>0.75</v>
       </c>
       <c r="H103" s="7" t="inlineStr">
         <is>
@@ -15639,12 +15633,12 @@
       </c>
       <c r="J103" s="7" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="K103" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10% from 2015 to 2020</t>
+          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
         </is>
       </c>
       <c r="L103" s="4" t="inlineStr">
@@ -15659,11 +15653,11 @@
       </c>
       <c r="N103" s="4" t="inlineStr">
         <is>
-          <t>237000</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="O103" s="8">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="S103" s="5" t="b">
         <v>1</v>
@@ -15725,7 +15719,7 @@
       </c>
       <c r="AG103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AH103" s="4" t="inlineStr">
@@ -15752,7 +15746,7 @@
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>W_1702x_J</t>
+          <t>W_1702x_2020</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
@@ -15766,10 +15760,13 @@
         </is>
       </c>
       <c r="D104" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G104" s="6">
+        <v>210000</v>
       </c>
       <c r="H104" s="7" t="inlineStr">
         <is>
@@ -15783,17 +15780,17 @@
       </c>
       <c r="J104" s="7" t="inlineStr">
         <is>
-          <t>Verstetigung des Zielwertes von 2020</t>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
         </is>
       </c>
       <c r="K104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the number by 10% from 2015 to 2020</t>
         </is>
       </c>
       <c r="L104" s="4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M104" s="4" t="inlineStr">
@@ -15805,13 +15802,13 @@
         <is>
           <t>237000</t>
         </is>
+      </c>
+      <c r="O104" s="8">
+        <v>2020</v>
       </c>
       <c r="S104" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T104" s="8">
-        <v>2020</v>
-      </c>
       <c r="V104" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15839,37 +15836,37 @@
       </c>
       <c r="AA104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AE104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AF104" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AG104" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AH104" s="4" t="inlineStr">
@@ -15896,12 +15893,12 @@
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>W_1703x_J</t>
+          <t>W_1702x_J</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
@@ -15915,9 +15912,6 @@
       <c r="E105" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G105" s="6">
-        <v>1.3</v>
-      </c>
       <c r="H105" s="7" t="inlineStr">
         <is>
           <t/>
@@ -15930,17 +15924,17 @@
       </c>
       <c r="J105" s="7" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+          <t>Verstetigung des Zielwertes von 2020</t>
         </is>
       </c>
       <c r="K105" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+          <t/>
         </is>
       </c>
       <c r="L105" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="M105" s="4" t="inlineStr">
@@ -15950,15 +15944,15 @@
       </c>
       <c r="N105" s="4" t="inlineStr">
         <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="O105" s="8">
-        <v>2030</v>
+          <t>237000</t>
+        </is>
       </c>
       <c r="S105" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="T105" s="8">
+        <v>2020</v>
+      </c>
       <c r="V105" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15986,37 +15980,37 @@
       </c>
       <c r="AA105" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AB105" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AC105" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AD105" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AE105" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AF105" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AG105" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AH105" s="4" t="inlineStr">
@@ -16043,12 +16037,12 @@
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>W_1603B_R</t>
+          <t>W_1703x_J</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
@@ -16060,7 +16054,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G106" s="6">
+        <v>1.3</v>
       </c>
       <c r="H106" s="7" t="inlineStr">
         <is>
@@ -16074,17 +16071,17 @@
       </c>
       <c r="J106" s="7" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="K106" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
       <c r="L106" s="4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M106" s="4" t="inlineStr">
@@ -16094,8 +16091,11 @@
       </c>
       <c r="N106" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="O106" s="8">
+        <v>2030</v>
       </c>
       <c r="S106" s="5" t="b">
         <v>1</v>
@@ -16127,22 +16127,22 @@
       </c>
       <c r="AA106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AB106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AC106" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AD106" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AE106" s="4" t="inlineStr">
@@ -16152,12 +16152,12 @@
       </c>
       <c r="AF106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AG106" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AH106" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5" t="b">
         <v>0</v>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="D65" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="5" t="b">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         </is>
       </c>
       <c r="D72" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="5" t="b">
         <v>1</v>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -565,7 +565,7 @@
     <col customWidth="true" min="4" max="4" width="15.8203125"/>
     <col customWidth="true" min="5" max="5" width="10.10546875"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
-    <col customWidth="true" min="7" max="7" width="4.98046875"/>
+    <col customWidth="true" min="7" max="7" width="18.30859375"/>
     <col customWidth="true" min="8" max="8" width="11.71875"/>
     <col customWidth="true" min="9" max="9" width="5.7109375"/>
     <col customWidth="true" min="10" max="10" width="58.15234375"/>
@@ -15765,9 +15765,6 @@
       <c r="E104" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G104" s="6">
-        <v>210000</v>
-      </c>
       <c r="H104" s="7" t="inlineStr">
         <is>
           <t/>
@@ -15911,6 +15908,9 @@
       </c>
       <c r="E105" s="5" t="b">
         <v>1</v>
+      </c>
+      <c r="G105" s="6">
+        <v>237000</v>
       </c>
       <c r="H105" s="7" t="inlineStr">
         <is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="D39" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="b">
         <v>1</v>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="5" t="b">
         <v>1</v>
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="D42" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="5" t="b">
         <v>1</v>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -250,11 +250,11 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -566,15 +566,15 @@
     <col customWidth="true" min="5" max="5" width="10.10546875"/>
     <col customWidth="true" min="6" max="6" width="13.8359375"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
-    <col customWidth="true" min="8" max="8" width="18.30859375"/>
-    <col customWidth="true" min="9" max="9" width="11.71875"/>
-    <col customWidth="true" min="10" max="10" width="5.7109375"/>
-    <col customWidth="true" min="11" max="11" width="58.15234375"/>
-    <col customWidth="true" min="12" max="12" width="35.88671875"/>
-    <col customWidth="true" min="13" max="13" width="8.7890625"/>
-    <col customWidth="true" min="14" max="14" width="13.8359375"/>
-    <col customWidth="true" min="15" max="15" width="10.69140625"/>
-    <col customWidth="true" min="16" max="16" width="13.8359375"/>
+    <col customWidth="true" min="8" max="8" width="13.8359375"/>
+    <col customWidth="true" min="9" max="9" width="18.30859375"/>
+    <col customWidth="true" min="10" max="10" width="11.71875"/>
+    <col customWidth="true" min="11" max="11" width="5.7109375"/>
+    <col customWidth="true" min="12" max="12" width="58.15234375"/>
+    <col customWidth="true" min="13" max="13" width="35.88671875"/>
+    <col customWidth="true" min="14" max="14" width="8.7890625"/>
+    <col customWidth="true" min="15" max="15" width="13.8359375"/>
+    <col customWidth="true" min="16" max="16" width="10.69140625"/>
     <col customWidth="true" min="17" max="17" width="13.8359375"/>
     <col customWidth="true" min="18" max="18" width="13.8359375"/>
     <col customWidth="true" min="19" max="19" width="13.8359375"/>
@@ -632,62 +632,62 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
+          <t>Gültig bis</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>LabelPositionX</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>LabelPositionY</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzDe</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ZielKurzEn</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtDe</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>ZielÜbersichtEn</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Zieltyp</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Zielrichtung</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Zielwert</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>VorherigesZieljahr</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Gültig bis</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
@@ -808,50 +808,50 @@
         </is>
       </c>
       <c r="D2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
         <is>
           <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-27-Wert halten</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>Keep the proportion of persons who are materially deprived considerably below the EU-27-level by 2030</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="S2" s="8">
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S2" s="6">
         <v>2018</v>
       </c>
       <c r="T2" s="5" t="b">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
@@ -963,42 +963,42 @@
       <c r="F3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L3" s="8" t="inlineStr">
         <is>
           <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-27-Wert halten</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>Keep the proportion of persons who are severely materially deprived considerably below the EU-27-level by 2030</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="S3" s="8">
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S3" s="6">
         <v>2018</v>
       </c>
       <c r="T3" s="5" t="b">
@@ -1110,45 +1110,45 @@
       <c r="F4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="7">
         <v>80</v>
       </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J4" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K4" s="7" t="inlineStr">
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L4" s="8" t="inlineStr">
         <is>
           <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="6">
         <v>2030</v>
       </c>
       <c r="T4" s="5" t="b">
@@ -1258,48 +1258,48 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J5" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K5" s="7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L5" s="8" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="6">
         <v>2030</v>
-      </c>
-      <c r="R5" s="8">
-        <v>2022</v>
       </c>
       <c r="T5" s="5" t="b">
         <v>0</v>
@@ -1410,48 +1410,48 @@
       <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="7">
         <v>33</v>
       </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J6" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K6" s="7" t="inlineStr">
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L6" s="8" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 30% by 2030</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="6">
         <v>2030</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <v>2022</v>
       </c>
       <c r="T6" s="5" t="b">
@@ -1563,37 +1563,37 @@
       <c r="F7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L7" s="8" t="inlineStr">
         <is>
           <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1707,45 +1707,45 @@
       <c r="F8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="7">
         <v>60</v>
       </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K8" s="7" t="inlineStr">
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K8" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L8" s="8" t="inlineStr">
         <is>
           <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
         </is>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="6">
         <v>2030</v>
       </c>
       <c r="T8" s="5" t="b">
@@ -1857,45 +1857,45 @@
       <c r="F9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="7">
         <v>225</v>
       </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K9" s="7" t="inlineStr">
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L9" s="8" t="inlineStr">
         <is>
           <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="6">
         <v>2030</v>
       </c>
       <c r="T9" s="5" t="b">
@@ -2007,45 +2007,45 @@
       <c r="F10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="7">
         <v>10</v>
       </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K10" s="7" t="inlineStr">
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L10" s="8" t="inlineStr">
         <is>
           <t>Senkung auf 7 % bis 2030</t>
         </is>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>Reduction to 7% by 2030</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="6">
         <v>2030</v>
       </c>
       <c r="T10" s="5" t="b">
@@ -2157,45 +2157,45 @@
       <c r="F11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="7">
         <v>22</v>
       </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K11" s="7" t="inlineStr">
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L11" s="8" t="inlineStr">
         <is>
           <t>Senkung auf 19 % bis 2030</t>
         </is>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>Reduction to 19% by 2030</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="6">
         <v>2030</v>
       </c>
       <c r="T11" s="5" t="b">
@@ -2307,37 +2307,37 @@
       <c r="F12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K12" s="7" t="inlineStr">
+      <c r="J12" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" s="8" t="inlineStr">
         <is>
           <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>Increase to be permanently halted</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2449,39 +2449,39 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K13" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L13" s="8" t="inlineStr">
         <is>
           <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>Increase to be permanently halted</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2593,47 +2593,47 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>60</v>
       </c>
-      <c r="I14" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K14" s="7" t="inlineStr">
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L14" s="8" t="inlineStr">
         <is>
           <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="P14" s="8">
+      <c r="Q14" s="6">
         <v>2030</v>
       </c>
       <c r="T14" s="5" t="b">
@@ -2743,47 +2743,47 @@
         <v>1</v>
       </c>
       <c r="F15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>3</v>
       </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K15" s="7" t="inlineStr">
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L15" s="8" t="inlineStr">
         <is>
           <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
         </is>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="6">
         <v>2030</v>
       </c>
       <c r="T15" s="5" t="b">
@@ -2893,47 +2893,47 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>320</v>
       </c>
-      <c r="I16" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K16" s="7" t="inlineStr">
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K16" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L16" s="8" t="inlineStr">
         <is>
           <t>Steigerung der Ausgaben bis 2030</t>
         </is>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>Expenditure to be increased by 2030</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>272,5</t>
         </is>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="6">
         <v>2030</v>
       </c>
       <c r="T16" s="5" t="b">
@@ -3045,46 +3045,46 @@
       <c r="F17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J17" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K17" s="7" t="inlineStr">
+      <c r="G17" s="6">
+        <v>2021</v>
+      </c>
+      <c r="J17" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K17" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L17" s="8" t="inlineStr">
         <is>
           <t>Verringerung des Anteils auf 10 % bis 2020</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion to 10% by 2020</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="6">
         <v>2020</v>
-      </c>
-      <c r="R17" s="8">
-        <v>2021</v>
       </c>
       <c r="T17" s="5" t="b">
         <v>0</v>
@@ -3193,50 +3193,50 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
         <v>8</v>
       </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J18" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K18" s="7" t="inlineStr">
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L18" s="8" t="inlineStr">
         <is>
           <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion to 9.5% by 2030</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="P18" s="8">
+      <c r="Q18" s="6">
         <v>2030</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="6">
         <v>2021</v>
       </c>
       <c r="T18" s="5" t="b">
@@ -3348,46 +3348,46 @@
       <c r="F19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J19" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K19" s="7" t="inlineStr">
+      <c r="G19" s="6">
+        <v>2021</v>
+      </c>
+      <c r="J19" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K19" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L19" s="8" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 42 % bis 2020</t>
         </is>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 24% by 2020</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="P19" s="4" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P19" s="8">
+      <c r="Q19" s="6">
         <v>2020</v>
-      </c>
-      <c r="R19" s="8">
-        <v>2021</v>
       </c>
       <c r="T19" s="5" t="b">
         <v>0</v>
@@ -3496,50 +3496,50 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
         <v>60</v>
       </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K20" s="7" t="inlineStr">
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L20" s="8" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 55% by 2030</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="P20" s="4" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="P20" s="8">
+      <c r="Q20" s="6">
         <v>2030</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="6">
         <v>2021</v>
       </c>
       <c r="T20" s="5" t="b">
@@ -3649,47 +3649,47 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
         <v>45</v>
       </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K21" s="7" t="inlineStr">
+      <c r="J21" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K21" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L21" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>Increase to 35% by 2030</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="6">
         <v>2030</v>
       </c>
       <c r="T21" s="5" t="b">
@@ -3801,46 +3801,46 @@
       <c r="F22" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J22" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K22" s="7" t="inlineStr">
+      <c r="G22" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L22" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2020</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2020</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="P22" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P22" s="8">
+      <c r="Q22" s="6">
         <v>2020</v>
-      </c>
-      <c r="R22" s="8">
-        <v>2022</v>
       </c>
       <c r="T22" s="5" t="b">
         <v>1</v>
@@ -3949,47 +3949,47 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
         <v>80</v>
       </c>
-      <c r="I23" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J23" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K23" s="7" t="inlineStr">
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L23" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>Increase to 70% by 2030</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P23" s="8">
+      <c r="Q23" s="6">
         <v>2030</v>
       </c>
       <c r="T23" s="5" t="b">
@@ -4101,48 +4101,48 @@
       <c r="F24" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="7">
         <v>14.5</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="7">
         <v>12</v>
       </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J24" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K24" s="7" t="inlineStr">
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L24" s="8" t="inlineStr">
         <is>
           <t>Verringerung des Abstandes auf 10 % bis 2020</t>
         </is>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>Reduce the gap to 10% by 2020</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O24" s="4" t="inlineStr">
+      <c r="P24" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P24" s="8">
+      <c r="Q24" s="6">
         <v>2020</v>
       </c>
       <c r="T24" s="5" t="b">
@@ -4252,39 +4252,39 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J25" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K25" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K25" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L25" s="8" t="inlineStr">
         <is>
           <t>Beibehaltung des Abstandes von 10 % bis 2030</t>
         </is>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>Maintaine the gap of 10 % by 2030</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O25" s="4" t="inlineStr">
+      <c r="P25" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -4292,7 +4292,7 @@
       <c r="T25" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="6">
         <v>2020</v>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -4399,47 +4399,47 @@
         <v>1</v>
       </c>
       <c r="F26" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
         <v>35</v>
       </c>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J26" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K26" s="7" t="inlineStr">
+      <c r="J26" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K26" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L26" s="8" t="inlineStr">
         <is>
           <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr">
         <is>
           <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="P26" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="6">
         <v>2030</v>
       </c>
       <c r="T26" s="5" t="b">
@@ -4549,47 +4549,47 @@
         <v>1</v>
       </c>
       <c r="F27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
         <v>55</v>
       </c>
-      <c r="I27" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J27" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K27" s="7" t="inlineStr">
+      <c r="J27" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K27" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L27" s="8" t="inlineStr">
         <is>
           <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="N27" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="P27" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P27" s="8">
+      <c r="Q27" s="6">
         <v>2025</v>
       </c>
       <c r="T27" s="5" t="b">
@@ -4699,47 +4699,47 @@
         <v>1</v>
       </c>
       <c r="F28" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
         <v>60</v>
       </c>
-      <c r="I28" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J28" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K28" s="7" t="inlineStr">
+      <c r="J28" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K28" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L28" s="8" t="inlineStr">
         <is>
           <t>65 % bis 2030</t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr">
         <is>
           <t>65% by 2030</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P28" s="8">
+      <c r="Q28" s="6">
         <v>2030</v>
       </c>
       <c r="T28" s="5" t="b">
@@ -4849,47 +4849,47 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
         <v>550</v>
       </c>
-      <c r="I29" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J29" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K29" s="7" t="inlineStr">
+      <c r="J29" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K29" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L29" s="8" t="inlineStr">
         <is>
           <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="P29" s="4" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="P29" s="8">
+      <c r="Q29" s="6">
         <v>2030</v>
       </c>
       <c r="T29" s="5" t="b">
@@ -4999,47 +4999,47 @@
         <v>1</v>
       </c>
       <c r="F30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
         <v>93</v>
       </c>
-      <c r="I30" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J30" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K30" s="7" t="inlineStr">
+      <c r="J30" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K30" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L30" s="8" t="inlineStr">
         <is>
           <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
-      <c r="L30" s="4" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="P30" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P30" s="8">
+      <c r="Q30" s="6">
         <v>2030</v>
       </c>
       <c r="T30" s="5" t="b">
@@ -5149,42 +5149,42 @@
         <v>1</v>
       </c>
       <c r="F31" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
         <v>93</v>
       </c>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J31" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K31" s="7" t="inlineStr">
+      <c r="J31" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K31" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L31" s="8" t="inlineStr">
         <is>
           <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
-      <c r="L31" s="4" t="inlineStr">
+      <c r="M31" s="4" t="inlineStr">
         <is>
           <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="N31" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O31" s="4" t="inlineStr">
+      <c r="P31" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -5296,50 +5296,50 @@
         <v>1</v>
       </c>
       <c r="F32" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
         <v>8</v>
       </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K32" s="7" t="inlineStr">
+      <c r="J32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L32" s="8" t="inlineStr">
         <is>
           <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="L32" s="4" t="inlineStr">
+      <c r="M32" s="4" t="inlineStr">
         <is>
           <t>6 million people per year by 2030</t>
         </is>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O32" s="4" t="inlineStr">
+      <c r="P32" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P32" s="8">
+      <c r="Q32" s="6">
         <v>2030</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="6">
         <v>2021</v>
       </c>
       <c r="T32" s="5" t="b">
@@ -5449,50 +5449,50 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
         <v>6</v>
       </c>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K33" s="7" t="inlineStr">
+      <c r="J33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="M33" s="4" t="inlineStr">
         <is>
           <t>4 million people per year by 2030</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="N33" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="P33" s="4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P33" s="8">
+      <c r="Q33" s="6">
         <v>2030</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33" s="6">
         <v>2021</v>
       </c>
       <c r="T33" s="5" t="b">
@@ -5604,49 +5604,49 @@
       <c r="F34" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="6">
+      <c r="G34" s="6">
+        <v>2021</v>
+      </c>
+      <c r="I34" s="7">
         <v>15</v>
       </c>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K34" s="7" t="inlineStr">
+      <c r="J34" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K34" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L34" s="8" t="inlineStr">
         <is>
           <t>10 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="M34" s="4" t="inlineStr">
         <is>
           <t>10 million people per year by 2030</t>
         </is>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="N34" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>steigern</t>
         </is>
       </c>
-      <c r="O34" s="4" t="inlineStr">
+      <c r="P34" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P34" s="8">
+      <c r="Q34" s="6">
         <v>2030</v>
-      </c>
-      <c r="R34" s="8">
-        <v>2021</v>
       </c>
       <c r="T34" s="5" t="b">
         <v>1</v>
@@ -5755,50 +5755,50 @@
         <v>1</v>
       </c>
       <c r="F35" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
         <v>14</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="7">
         <v>210</v>
       </c>
-      <c r="I35" s="7" t="inlineStr">
+      <c r="J35" s="8" t="inlineStr">
         <is>
           <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
-      <c r="J35" s="7" t="inlineStr">
+      <c r="K35" s="8" t="inlineStr">
         <is>
           <t>Increase by 2.1% per year</t>
         </is>
       </c>
-      <c r="K35" s="7" t="inlineStr">
+      <c r="L35" s="8" t="inlineStr">
         <is>
           <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
-      <c r="L35" s="4" t="inlineStr">
+      <c r="M35" s="4" t="inlineStr">
         <is>
           <t>Increase by 2.1% per year from 2008 to 2050</t>
         </is>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="N35" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O35" s="4" t="inlineStr">
+      <c r="P35" s="4" t="inlineStr">
         <is>
           <t>239,4</t>
         </is>
       </c>
-      <c r="P35" s="8">
+      <c r="Q35" s="6">
         <v>2050</v>
       </c>
       <c r="T35" s="5" t="b">
@@ -5910,45 +5910,45 @@
       <c r="F36" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="7">
         <v>65</v>
       </c>
-      <c r="I36" s="7" t="inlineStr">
+      <c r="J36" s="8" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020</t>
         </is>
       </c>
-      <c r="J36" s="7" t="inlineStr">
+      <c r="K36" s="8" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020</t>
         </is>
       </c>
-      <c r="K36" s="7" t="inlineStr">
+      <c r="L36" s="8" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
-      <c r="L36" s="4" t="inlineStr">
+      <c r="M36" s="4" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020 compared to 2008</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="O36" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O36" s="4" t="inlineStr">
+      <c r="P36" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P36" s="8">
+      <c r="Q36" s="6">
         <v>2020</v>
       </c>
       <c r="T36" s="5" t="b">
@@ -6058,53 +6058,53 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
         <v>55</v>
       </c>
-      <c r="I37" s="7" t="inlineStr">
+      <c r="J37" s="8" t="inlineStr">
         <is>
           <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
-      <c r="J37" s="7" t="inlineStr">
+      <c r="K37" s="8" t="inlineStr">
         <is>
           <t>Reduction by 30% by 2030</t>
         </is>
       </c>
-      <c r="K37" s="7" t="inlineStr">
+      <c r="L37" s="8" t="inlineStr">
         <is>
           <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
-      <c r="L37" s="4" t="inlineStr">
+      <c r="M37" s="4" t="inlineStr">
         <is>
           <t>Reduction by 30% by 2030 compared to 2008</t>
         </is>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="N37" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="O37" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O37" s="4" t="inlineStr">
+      <c r="P37" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P37" s="8">
+      <c r="Q37" s="6">
         <v>2030</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="R37" s="6">
         <v>2020</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="6">
         <v>2021</v>
       </c>
       <c r="T37" s="5" t="b">
@@ -6216,48 +6216,48 @@
       <c r="F38" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="7">
         <v>35</v>
       </c>
-      <c r="I38" s="7" t="inlineStr">
+      <c r="J38" s="8" t="inlineStr">
         <is>
           <t>Senkung um 50 % bis 2050</t>
         </is>
       </c>
-      <c r="J38" s="7" t="inlineStr">
+      <c r="K38" s="8" t="inlineStr">
         <is>
           <t>Reduction by 50% by 2050</t>
         </is>
       </c>
-      <c r="K38" s="7" t="inlineStr">
+      <c r="L38" s="8" t="inlineStr">
         <is>
           <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
-      <c r="L38" s="4" t="inlineStr">
+      <c r="M38" s="4" t="inlineStr">
         <is>
           <t>Reduction by 50% by 2050 compared to 2008</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O38" s="4" t="inlineStr">
+      <c r="P38" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P38" s="8">
+      <c r="Q38" s="6">
         <v>2050</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="R38" s="6">
         <v>2030</v>
       </c>
       <c r="T38" s="5" t="b">
@@ -6369,45 +6369,45 @@
       <c r="F39" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="7">
         <v>25</v>
       </c>
-      <c r="I39" s="7" t="inlineStr">
+      <c r="J39" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
+      <c r="K39" s="8" t="inlineStr">
         <is>
           <t>Increase to 18% by 2020</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
+      <c r="L39" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="M39" s="4" t="inlineStr">
         <is>
           <t>Increase to 18% by 2020</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="N39" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O39" s="4" t="inlineStr">
+      <c r="P39" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P39" s="8">
+      <c r="Q39" s="6">
         <v>2020</v>
       </c>
       <c r="T39" s="5" t="b">
@@ -6517,50 +6517,50 @@
         <v>1</v>
       </c>
       <c r="F40" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
         <v>37</v>
       </c>
-      <c r="I40" s="7" t="inlineStr">
+      <c r="J40" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="J40" s="7" t="inlineStr">
+      <c r="K40" s="8" t="inlineStr">
         <is>
           <t>Increase to 30% by 2030</t>
         </is>
       </c>
-      <c r="K40" s="7" t="inlineStr">
+      <c r="L40" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
-      <c r="L40" s="4" t="inlineStr">
+      <c r="M40" s="4" t="inlineStr">
         <is>
           <t>Increase to 30% by 2030</t>
         </is>
       </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="N40" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O40" s="4" t="inlineStr">
+      <c r="P40" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P40" s="8">
+      <c r="Q40" s="6">
         <v>2030</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="R40" s="6">
         <v>2020</v>
       </c>
       <c r="T40" s="5" t="b">
@@ -6672,51 +6672,51 @@
       <c r="F41" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="7">
         <v>52</v>
       </c>
-      <c r="I41" s="7" t="inlineStr">
+      <c r="J41" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
+      <c r="K41" s="8" t="inlineStr">
         <is>
           <t>Increase to 45% by 2040</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
+      <c r="L41" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 45 % bis 2040</t>
         </is>
       </c>
-      <c r="L41" s="4" t="inlineStr">
+      <c r="M41" s="4" t="inlineStr">
         <is>
           <t>Increase to 45% by 2040</t>
         </is>
       </c>
-      <c r="M41" s="4" t="inlineStr">
+      <c r="N41" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N41" s="4" t="inlineStr">
+      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O41" s="4" t="inlineStr">
+      <c r="P41" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P41" s="8">
+      <c r="Q41" s="6">
         <v>2040</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="R41" s="6">
         <v>2030</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S41" s="6">
         <v>2021</v>
       </c>
       <c r="T41" s="5" t="b">
@@ -6828,48 +6828,48 @@
       <c r="F42" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="7">
         <v>67</v>
       </c>
-      <c r="I42" s="7" t="inlineStr">
+      <c r="J42" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
-      <c r="J42" s="7" t="inlineStr">
+      <c r="K42" s="8" t="inlineStr">
         <is>
           <t>Increase to 60% by 2050</t>
         </is>
       </c>
-      <c r="K42" s="7" t="inlineStr">
+      <c r="L42" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2050</t>
         </is>
       </c>
-      <c r="L42" s="4" t="inlineStr">
+      <c r="M42" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2050</t>
         </is>
       </c>
-      <c r="M42" s="4" t="inlineStr">
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O42" s="4" t="inlineStr">
+      <c r="P42" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P42" s="8">
+      <c r="Q42" s="6">
         <v>2050</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="R42" s="6">
         <v>2040</v>
       </c>
       <c r="T42" s="5" t="b">
@@ -6981,46 +6981,46 @@
       <c r="F43" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I43" s="7" t="inlineStr">
+      <c r="G43" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J43" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 35 % bis 2020</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
+      <c r="K43" s="8" t="inlineStr">
         <is>
           <t>Increase to 35% by 2020</t>
         </is>
       </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="L43" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 35 % bis 2020</t>
         </is>
       </c>
-      <c r="L43" s="4" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 35% by 2020</t>
         </is>
       </c>
-      <c r="M43" s="4" t="inlineStr">
+      <c r="N43" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O43" s="4" t="inlineStr">
+      <c r="P43" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P43" s="8">
+      <c r="Q43" s="6">
         <v>2020</v>
-      </c>
-      <c r="R43" s="8">
-        <v>2022</v>
       </c>
       <c r="T43" s="5" t="b">
         <v>0</v>
@@ -7131,49 +7131,49 @@
       <c r="F44" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="7" t="inlineStr">
+      <c r="G44" s="6">
+        <v>2021</v>
+      </c>
+      <c r="J44" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 50 % bis 2030</t>
         </is>
       </c>
-      <c r="J44" s="7" t="inlineStr">
+      <c r="K44" s="8" t="inlineStr">
         <is>
           <t>Increase to 50% by 2030</t>
         </is>
       </c>
-      <c r="K44" s="7" t="inlineStr">
+      <c r="L44" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 50 % bis 2030</t>
         </is>
       </c>
-      <c r="L44" s="4" t="inlineStr">
+      <c r="M44" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 50% by 2030</t>
         </is>
       </c>
-      <c r="M44" s="4" t="inlineStr">
+      <c r="N44" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N44" s="4" t="inlineStr">
+      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O44" s="4" t="inlineStr">
+      <c r="P44" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P44" s="8">
+      <c r="Q44" s="6">
         <v>2030</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="R44" s="6">
         <v>2020</v>
-      </c>
-      <c r="R44" s="8">
-        <v>2021</v>
       </c>
       <c r="T44" s="5" t="b">
         <v>0</v>
@@ -7284,48 +7284,48 @@
       <c r="F45" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I45" s="7" t="inlineStr">
+      <c r="G45" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J45" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 65 % bis 2030</t>
         </is>
       </c>
-      <c r="J45" s="7" t="inlineStr">
+      <c r="K45" s="8" t="inlineStr">
         <is>
           <t>Increase to 65% by 2030</t>
         </is>
       </c>
-      <c r="K45" s="7" t="inlineStr">
+      <c r="L45" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 65 % bis 2030</t>
         </is>
       </c>
-      <c r="L45" s="4" t="inlineStr">
+      <c r="M45" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 65% by 2030</t>
         </is>
       </c>
-      <c r="M45" s="4" t="inlineStr">
+      <c r="N45" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N45" s="4" t="inlineStr">
+      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O45" s="4" t="inlineStr">
+      <c r="P45" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P45" s="8">
+      <c r="Q45" s="6">
         <v>2030</v>
       </c>
-      <c r="R45" s="8">
-        <v>2022</v>
-      </c>
-      <c r="S45" s="8">
+      <c r="S45" s="6">
         <v>2021</v>
       </c>
       <c r="T45" s="5" t="b">
@@ -7435,53 +7435,53 @@
         <v>1</v>
       </c>
       <c r="F46" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
         <v>70</v>
       </c>
-      <c r="I46" s="7" t="inlineStr">
+      <c r="J46" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
-      <c r="J46" s="7" t="inlineStr">
+      <c r="K46" s="8" t="inlineStr">
         <is>
           <t>Increase to 80% by 2030</t>
         </is>
       </c>
-      <c r="K46" s="7" t="inlineStr">
+      <c r="L46" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
-      <c r="L46" s="4" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 80% by 2030</t>
         </is>
       </c>
-      <c r="M46" s="4" t="inlineStr">
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N46" s="4" t="inlineStr">
+      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O46" s="4" t="inlineStr">
+      <c r="P46" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P46" s="8">
+      <c r="Q46" s="6">
         <v>2030</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="R46" s="6">
         <v>2022</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="6">
         <v>2022</v>
       </c>
       <c r="T46" s="5" t="b">
@@ -7593,49 +7593,49 @@
       <c r="F47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="7" t="inlineStr">
+      <c r="G47" s="6">
+        <v>2021</v>
+      </c>
+      <c r="J47" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 65 % bis 2040</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
+      <c r="K47" s="8" t="inlineStr">
         <is>
           <t>Increase to 65% by 2040</t>
         </is>
       </c>
-      <c r="K47" s="7" t="inlineStr">
+      <c r="L47" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 65 % bis 2040</t>
         </is>
       </c>
-      <c r="L47" s="4" t="inlineStr">
+      <c r="M47" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 65% by 2040</t>
         </is>
       </c>
-      <c r="M47" s="4" t="inlineStr">
+      <c r="N47" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N47" s="4" t="inlineStr">
+      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O47" s="4" t="inlineStr">
+      <c r="P47" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P47" s="8">
+      <c r="Q47" s="6">
         <v>2040</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="R47" s="6">
         <v>2030</v>
-      </c>
-      <c r="R47" s="8">
-        <v>2021</v>
       </c>
       <c r="T47" s="5" t="b">
         <v>0</v>
@@ -7746,49 +7746,49 @@
       <c r="F48" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I48" s="7" t="inlineStr">
+      <c r="G48" s="6">
+        <v>2021</v>
+      </c>
+      <c r="J48" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf 80 % bis 2050</t>
         </is>
       </c>
-      <c r="J48" s="7" t="inlineStr">
+      <c r="K48" s="8" t="inlineStr">
         <is>
           <t>Increase to 80% by 2050</t>
         </is>
       </c>
-      <c r="K48" s="7" t="inlineStr">
+      <c r="L48" s="8" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 80 % bis 2050</t>
         </is>
       </c>
-      <c r="L48" s="4" t="inlineStr">
+      <c r="M48" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 80% by 2050</t>
         </is>
       </c>
-      <c r="M48" s="4" t="inlineStr">
+      <c r="N48" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N48" s="4" t="inlineStr">
+      <c r="O48" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O48" s="4" t="inlineStr">
+      <c r="P48" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P48" s="8">
+      <c r="Q48" s="6">
         <v>2050</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="R48" s="6">
         <v>2040</v>
-      </c>
-      <c r="R48" s="8">
-        <v>2021</v>
       </c>
       <c r="T48" s="5" t="b">
         <v>0</v>
@@ -7899,48 +7899,48 @@
       <c r="F49" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="inlineStr">
+      <c r="G49" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J49" s="8" t="inlineStr">
         <is>
           <t>Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
-      <c r="J49" s="7" t="inlineStr">
+      <c r="K49" s="8" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality by 2050</t>
         </is>
       </c>
-      <c r="K49" s="7" t="inlineStr">
+      <c r="L49" s="8" t="inlineStr">
         <is>
           <t>Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
         </is>
       </c>
-      <c r="M49" s="4" t="inlineStr">
+      <c r="N49" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N49" s="4" t="inlineStr">
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O49" s="4" t="inlineStr">
+      <c r="P49" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P49" s="8">
+      <c r="Q49" s="6">
         <v>2050</v>
       </c>
-      <c r="R49" s="8">
-        <v>2022</v>
-      </c>
-      <c r="S49" s="8">
+      <c r="S49" s="6">
         <v>2021</v>
       </c>
       <c r="T49" s="5" t="b">
@@ -8050,47 +8050,47 @@
         <v>1</v>
       </c>
       <c r="F50" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
         <v>180</v>
       </c>
-      <c r="I50" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J50" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K50" s="7" t="inlineStr">
+      <c r="J50" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K50" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L50" s="8" t="inlineStr">
         <is>
           <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
-      <c r="L50" s="4" t="inlineStr">
+      <c r="M50" s="4" t="inlineStr">
         <is>
           <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M50" s="4" t="inlineStr">
+      <c r="N50" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N50" s="4" t="inlineStr">
+      <c r="O50" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O50" s="4" t="inlineStr">
+      <c r="P50" s="4" t="inlineStr">
         <is>
           <t>160,2</t>
         </is>
       </c>
-      <c r="P50" s="8">
+      <c r="Q50" s="6">
         <v>2030</v>
       </c>
       <c r="T50" s="5" t="b">
@@ -8200,45 +8200,45 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7">
         <v>8</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="7">
         <v>-3.5</v>
       </c>
-      <c r="I51" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J51" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K51" s="7" t="inlineStr">
+      <c r="J51" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K51" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L51" s="8" t="inlineStr">
         <is>
           <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="L51" s="4" t="inlineStr">
+      <c r="M51" s="4" t="inlineStr">
         <is>
           <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M51" s="4" t="inlineStr">
+      <c r="N51" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N51" s="4" t="inlineStr">
+      <c r="O51" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O51" s="4" t="inlineStr">
+      <c r="P51" s="4" t="inlineStr">
         <is>
           <t>-3</t>
         </is>
@@ -8350,45 +8350,45 @@
         <v>1</v>
       </c>
       <c r="F52" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7">
         <v>8</v>
       </c>
-      <c r="H52" s="6">
+      <c r="I52" s="7">
         <v>-1</v>
       </c>
-      <c r="I52" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J52" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K52" s="7" t="inlineStr">
+      <c r="J52" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K52" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L52" s="8" t="inlineStr">
         <is>
           <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="L52" s="4" t="inlineStr">
+      <c r="M52" s="4" t="inlineStr">
         <is>
           <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M52" s="4" t="inlineStr">
+      <c r="N52" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N52" s="4" t="inlineStr">
+      <c r="O52" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O52" s="4" t="inlineStr">
+      <c r="P52" s="4" t="inlineStr">
         <is>
           <t>-0,5</t>
         </is>
@@ -8396,7 +8396,7 @@
       <c r="T52" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="U52" s="8">
+      <c r="U52" s="6">
         <v>2009</v>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -8503,42 +8503,42 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7">
         <v>70</v>
       </c>
-      <c r="I53" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J53" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K53" s="7" t="inlineStr">
+      <c r="J53" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K53" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L53" s="8" t="inlineStr">
         <is>
           <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="M53" s="4" t="inlineStr">
         <is>
           <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M53" s="4" t="inlineStr">
+      <c r="N53" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N53" s="4" t="inlineStr">
+      <c r="O53" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O53" s="4" t="inlineStr">
+      <c r="P53" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
@@ -8650,39 +8650,39 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J54" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K54" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K54" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L54" s="8" t="inlineStr">
         <is>
           <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="L54" s="4" t="inlineStr">
+      <c r="M54" s="4" t="inlineStr">
         <is>
           <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="M54" s="4" t="inlineStr">
+      <c r="N54" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N54" s="4" t="inlineStr">
+      <c r="O54" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O54" s="4" t="inlineStr">
+      <c r="P54" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8794,39 +8794,39 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J55" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K55" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J55" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K55" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L55" s="8" t="inlineStr">
         <is>
           <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr">
         <is>
           <t>Steady and appropriate economic growth</t>
         </is>
       </c>
-      <c r="M55" s="4" t="inlineStr">
+      <c r="N55" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N55" s="4" t="inlineStr">
+      <c r="O55" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O55" s="4" t="inlineStr">
+      <c r="P55" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8938,47 +8938,47 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7">
         <v>65</v>
       </c>
-      <c r="I56" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J56" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K56" s="7" t="inlineStr">
+      <c r="J56" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K56" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L56" s="8" t="inlineStr">
         <is>
           <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
         <is>
           <t>Increase to 78% by 2030</t>
         </is>
       </c>
-      <c r="M56" s="4" t="inlineStr">
+      <c r="N56" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N56" s="4" t="inlineStr">
+      <c r="O56" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O56" s="4" t="inlineStr">
+      <c r="P56" s="4" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P56" s="8">
+      <c r="Q56" s="6">
         <v>2030</v>
       </c>
       <c r="T56" s="5" t="b">
@@ -9088,47 +9088,47 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
         <v>45</v>
       </c>
-      <c r="I57" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J57" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K57" s="7" t="inlineStr">
+      <c r="J57" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K57" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L57" s="8" t="inlineStr">
         <is>
           <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
-      <c r="L57" s="4" t="inlineStr">
+      <c r="M57" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2030</t>
         </is>
       </c>
-      <c r="M57" s="4" t="inlineStr">
+      <c r="N57" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N57" s="4" t="inlineStr">
+      <c r="O57" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O57" s="4" t="inlineStr">
+      <c r="P57" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P57" s="8">
+      <c r="Q57" s="6">
         <v>2030</v>
       </c>
       <c r="T57" s="5" t="b">
@@ -9238,39 +9238,39 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J58" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K58" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J58" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K58" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L58" s="8" t="inlineStr">
         <is>
           <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
-      <c r="L58" s="4" t="inlineStr">
+      <c r="M58" s="4" t="inlineStr">
         <is>
           <t>Significantly increase by 2030</t>
         </is>
       </c>
-      <c r="M58" s="4" t="inlineStr">
+      <c r="N58" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N58" s="4" t="inlineStr">
+      <c r="O58" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O58" s="4" t="inlineStr">
+      <c r="P58" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9384,46 +9384,46 @@
       <c r="F59" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I59" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J59" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K59" s="7" t="inlineStr">
+      <c r="G59" s="6">
+        <v>2018</v>
+      </c>
+      <c r="J59" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K59" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L59" s="8" t="inlineStr">
         <is>
           <t>Jährlich mindestens 3 % des BIP bis 2030</t>
         </is>
       </c>
-      <c r="L59" s="4" t="inlineStr">
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>At least 3% of GDP per year by 2030</t>
         </is>
       </c>
-      <c r="M59" s="4" t="inlineStr">
+      <c r="N59" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N59" s="4" t="inlineStr">
+      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O59" s="4" t="inlineStr">
+      <c r="P59" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P59" s="8">
+      <c r="Q59" s="6">
         <v>2030</v>
-      </c>
-      <c r="R59" s="8">
-        <v>2018</v>
       </c>
       <c r="T59" s="5" t="b">
         <v>0</v>
@@ -9532,50 +9532,50 @@
         <v>1</v>
       </c>
       <c r="F60" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="7">
         <v>3.2</v>
       </c>
-      <c r="I60" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J60" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K60" s="7" t="inlineStr">
+      <c r="J60" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K60" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L60" s="8" t="inlineStr">
         <is>
           <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
-      <c r="L60" s="4" t="inlineStr">
+      <c r="M60" s="4" t="inlineStr">
         <is>
           <t>At least 3.5% of GDP per year by 2025</t>
         </is>
       </c>
-      <c r="M60" s="4" t="inlineStr">
+      <c r="N60" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N60" s="4" t="inlineStr">
+      <c r="O60" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O60" s="4" t="inlineStr">
+      <c r="P60" s="4" t="inlineStr">
         <is>
           <t>3,5</t>
         </is>
       </c>
-      <c r="P60" s="8">
+      <c r="Q60" s="6">
         <v>2025</v>
       </c>
-      <c r="S60" s="8">
+      <c r="S60" s="6">
         <v>2018</v>
       </c>
       <c r="T60" s="5" t="b">
@@ -9685,47 +9685,47 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="7">
         <v>90</v>
       </c>
-      <c r="I61" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J61" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K61" s="7" t="inlineStr">
+      <c r="J61" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K61" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L61" s="8" t="inlineStr">
         <is>
           <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
-      <c r="L61" s="4" t="inlineStr">
+      <c r="M61" s="4" t="inlineStr">
         <is>
           <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
-      <c r="M61" s="4" t="inlineStr">
+      <c r="N61" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N61" s="4" t="inlineStr">
+      <c r="O61" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O61" s="4" t="inlineStr">
+      <c r="P61" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P61" s="8">
+      <c r="Q61" s="6">
         <v>2025</v>
       </c>
       <c r="T61" s="5" t="b">
@@ -9835,39 +9835,39 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J62" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K62" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K62" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L62" s="8" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
-      <c r="L62" s="4" t="inlineStr">
+      <c r="M62" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
-      <c r="M62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N62" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="O62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P62" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9981,37 +9981,37 @@
       <c r="F63" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I63" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J63" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K63" s="7" t="inlineStr">
+      <c r="J63" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K63" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L63" s="8" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss</t>
         </is>
       </c>
-      <c r="L63" s="4" t="inlineStr">
+      <c r="M63" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate</t>
         </is>
       </c>
-      <c r="M63" s="4" t="inlineStr">
+      <c r="N63" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N63" s="4" t="inlineStr">
+      <c r="O63" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O63" s="4" t="inlineStr">
+      <c r="P63" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10125,45 +10125,45 @@
       <c r="F64" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H64" s="6">
+      <c r="I64" s="7">
         <v>1.6</v>
       </c>
-      <c r="I64" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J64" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K64" s="7" t="inlineStr">
+      <c r="J64" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K64" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L64" s="8" t="inlineStr">
         <is>
           <t>Angleichung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
-      <c r="L64" s="4" t="inlineStr">
+      <c r="M64" s="4" t="inlineStr">
         <is>
           <t>Bring the proportion of foreign school leavers with a least a secondary general school certificate into line with that of German school leavers by 2030</t>
         </is>
       </c>
-      <c r="M64" s="4" t="inlineStr">
+      <c r="N64" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N64" s="4" t="inlineStr">
+      <c r="O64" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O64" s="4" t="inlineStr">
+      <c r="P64" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P64" s="8">
+      <c r="Q64" s="6">
         <v>2030</v>
       </c>
       <c r="T64" s="5" t="b">
@@ -10275,37 +10275,37 @@
       <c r="F65" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I65" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J65" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K65" s="7" t="inlineStr">
+      <c r="J65" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K65" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L65" s="8" t="inlineStr">
         <is>
           <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
-      <c r="L65" s="4" t="inlineStr">
+      <c r="M65" s="4" t="inlineStr">
         <is>
           <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
-      <c r="M65" s="4" t="inlineStr">
+      <c r="N65" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N65" s="4" t="inlineStr">
+      <c r="O65" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O65" s="4" t="inlineStr">
+      <c r="P65" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10417,47 +10417,47 @@
         <v>1</v>
       </c>
       <c r="F66" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7">
         <v>40</v>
       </c>
-      <c r="I66" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J66" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K66" s="7" t="inlineStr">
+      <c r="J66" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K66" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L66" s="8" t="inlineStr">
         <is>
           <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
-      <c r="L66" s="4" t="inlineStr">
+      <c r="M66" s="4" t="inlineStr">
         <is>
           <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
-      <c r="M66" s="4" t="inlineStr">
+      <c r="N66" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N66" s="4" t="inlineStr">
+      <c r="O66" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O66" s="4" t="inlineStr">
+      <c r="P66" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P66" s="8">
+      <c r="Q66" s="6">
         <v>2030</v>
       </c>
       <c r="T66" s="5" t="b">
@@ -10567,39 +10567,39 @@
         <v>0</v>
       </c>
       <c r="F67" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J67" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K67" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J67" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K67" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L67" s="8" t="inlineStr">
         <is>
           <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
-      <c r="L67" s="4" t="inlineStr">
+      <c r="M67" s="4" t="inlineStr">
         <is>
           <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
-      <c r="M67" s="4" t="inlineStr">
+      <c r="N67" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N67" s="4" t="inlineStr">
+      <c r="O67" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O67" s="4" t="inlineStr">
+      <c r="P67" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10711,39 +10711,39 @@
         <v>0</v>
       </c>
       <c r="F68" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J68" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K68" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J68" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K68" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L68" s="8" t="inlineStr">
         <is>
           <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
-      <c r="L68" s="4" t="inlineStr">
+      <c r="M68" s="4" t="inlineStr">
         <is>
           <t>No reduction in density of settlements</t>
         </is>
       </c>
-      <c r="M68" s="4" t="inlineStr">
+      <c r="N68" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N68" s="4" t="inlineStr">
+      <c r="O68" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O68" s="4" t="inlineStr">
+      <c r="P68" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10855,47 +10855,47 @@
         <v>1</v>
       </c>
       <c r="F69" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7">
         <v>90</v>
       </c>
-      <c r="I69" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J69" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K69" s="7" t="inlineStr">
+      <c r="J69" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K69" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L69" s="8" t="inlineStr">
         <is>
           <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
-      <c r="L69" s="4" t="inlineStr">
+      <c r="M69" s="4" t="inlineStr">
         <is>
           <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
-      <c r="M69" s="4" t="inlineStr">
+      <c r="N69" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N69" s="4" t="inlineStr">
+      <c r="O69" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O69" s="4" t="inlineStr">
+      <c r="P69" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="P69" s="8">
+      <c r="Q69" s="6">
         <v>2030</v>
       </c>
       <c r="T69" s="5" t="b">
@@ -11005,47 +11005,47 @@
         <v>1</v>
       </c>
       <c r="F70" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="6">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7">
         <v>90</v>
       </c>
-      <c r="I70" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J70" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K70" s="7" t="inlineStr">
+      <c r="J70" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K70" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L70" s="8" t="inlineStr">
         <is>
           <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
-      <c r="L70" s="4" t="inlineStr">
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
-      <c r="M70" s="4" t="inlineStr">
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N70" s="4" t="inlineStr">
+      <c r="O70" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O70" s="4" t="inlineStr">
+      <c r="P70" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="P70" s="8">
+      <c r="Q70" s="6">
         <v>2030</v>
       </c>
       <c r="T70" s="5" t="b">
@@ -11155,39 +11155,39 @@
         <v>0</v>
       </c>
       <c r="F71" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J71" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K71" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J71" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K71" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L71" s="8" t="inlineStr">
         <is>
           <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
+      <c r="N71" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N71" s="4" t="inlineStr">
+      <c r="O71" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O71" s="4" t="inlineStr">
+      <c r="P71" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11301,48 +11301,48 @@
       <c r="F72" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G72" s="6">
+      <c r="H72" s="7">
         <v>11.8</v>
       </c>
-      <c r="H72" s="6">
+      <c r="I72" s="7">
         <v>15</v>
       </c>
-      <c r="I72" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J72" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K72" s="7" t="inlineStr">
+      <c r="J72" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K72" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L72" s="8" t="inlineStr">
         <is>
           <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
-      <c r="L72" s="4" t="inlineStr">
+      <c r="M72" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
         </is>
       </c>
-      <c r="M72" s="4" t="inlineStr">
+      <c r="N72" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N72" s="4" t="inlineStr">
+      <c r="O72" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O72" s="4" t="inlineStr">
+      <c r="P72" s="4" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P72" s="8">
+      <c r="Q72" s="6">
         <v>2030</v>
       </c>
       <c r="T72" s="5" t="b">
@@ -11452,47 +11452,47 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7">
         <v>55</v>
       </c>
-      <c r="I73" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J73" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K73" s="7" t="inlineStr">
+      <c r="J73" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K73" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L73" s="8" t="inlineStr">
         <is>
           <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
-      <c r="L73" s="4" t="inlineStr">
+      <c r="M73" s="4" t="inlineStr">
         <is>
           <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
-      <c r="M73" s="4" t="inlineStr">
+      <c r="N73" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N73" s="4" t="inlineStr">
+      <c r="O73" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O73" s="4" t="inlineStr">
+      <c r="P73" s="4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P73" s="8">
+      <c r="Q73" s="6">
         <v>2030</v>
       </c>
       <c r="T73" s="5" t="b">
@@ -11602,47 +11602,47 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+      <c r="I74" s="7">
         <v>37</v>
       </c>
-      <c r="I74" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J74" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K74" s="7" t="inlineStr">
+      <c r="J74" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K74" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L74" s="8" t="inlineStr">
         <is>
           <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
-      <c r="L74" s="4" t="inlineStr">
+      <c r="M74" s="4" t="inlineStr">
         <is>
           <t>Increase the market share to 34% by 2030</t>
         </is>
       </c>
-      <c r="M74" s="4" t="inlineStr">
+      <c r="N74" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N74" s="4" t="inlineStr">
+      <c r="O74" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O74" s="4" t="inlineStr">
+      <c r="P74" s="4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P74" s="8">
+      <c r="Q74" s="6">
         <v>2030</v>
       </c>
       <c r="T74" s="5" t="b">
@@ -11752,39 +11752,39 @@
         <v>0</v>
       </c>
       <c r="F75" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J75" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K75" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J75" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K75" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L75" s="8" t="inlineStr">
         <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="L75" s="4" t="inlineStr">
+      <c r="M75" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="M75" s="4" t="inlineStr">
+      <c r="N75" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N75" s="4" t="inlineStr">
+      <c r="O75" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O75" s="4" t="inlineStr">
+      <c r="P75" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11896,39 +11896,39 @@
         <v>0</v>
       </c>
       <c r="F76" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J76" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K76" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J76" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K76" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L76" s="8" t="inlineStr">
         <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="L76" s="4" t="inlineStr">
+      <c r="M76" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="M76" s="4" t="inlineStr">
+      <c r="N76" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N76" s="4" t="inlineStr">
+      <c r="O76" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O76" s="4" t="inlineStr">
+      <c r="P76" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12040,39 +12040,39 @@
         <v>0</v>
       </c>
       <c r="F77" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J77" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K77" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K77" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L77" s="8" t="inlineStr">
         <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="L77" s="4" t="inlineStr">
+      <c r="M77" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="M77" s="4" t="inlineStr">
+      <c r="N77" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N77" s="4" t="inlineStr">
+      <c r="O77" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O77" s="4" t="inlineStr">
+      <c r="P77" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12184,47 +12184,47 @@
         <v>1</v>
       </c>
       <c r="F78" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6">
+        <v>1</v>
+      </c>
+      <c r="I78" s="7">
         <v>4500</v>
       </c>
-      <c r="I78" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J78" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K78" s="7" t="inlineStr">
+      <c r="J78" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K78" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L78" s="8" t="inlineStr">
         <is>
           <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
-      <c r="L78" s="4" t="inlineStr">
+      <c r="M78" s="4" t="inlineStr">
         <is>
           <t>5,000 locations of organisations by 2030</t>
         </is>
       </c>
-      <c r="M78" s="4" t="inlineStr">
+      <c r="N78" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N78" s="4" t="inlineStr">
+      <c r="O78" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O78" s="4" t="inlineStr">
+      <c r="P78" s="4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="P78" s="8">
+      <c r="Q78" s="6">
         <v>2030</v>
       </c>
       <c r="T78" s="5" t="b">
@@ -12334,50 +12334,50 @@
         <v>1</v>
       </c>
       <c r="F79" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7">
         <v>4.7</v>
       </c>
-      <c r="H79" s="6">
+      <c r="I79" s="7">
         <v>195</v>
       </c>
-      <c r="I79" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J79" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K79" s="7" t="inlineStr">
+      <c r="J79" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K79" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L79" s="8" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
-      <c r="L79" s="4" t="inlineStr">
+      <c r="M79" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 95% by 2020</t>
         </is>
       </c>
-      <c r="M79" s="4" t="inlineStr">
+      <c r="N79" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N79" s="4" t="inlineStr">
+      <c r="O79" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O79" s="4" t="inlineStr">
+      <c r="P79" s="4" t="inlineStr">
         <is>
           <t>210,8</t>
         </is>
       </c>
-      <c r="P79" s="8">
+      <c r="Q79" s="6">
         <v>2020</v>
       </c>
       <c r="T79" s="5" t="b">
@@ -12487,39 +12487,39 @@
         <v>0</v>
       </c>
       <c r="F80" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J80" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K80" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J80" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K80" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L80" s="8" t="inlineStr">
         <is>
           <t>Signifikante Senkung</t>
         </is>
       </c>
-      <c r="L80" s="4" t="inlineStr">
+      <c r="M80" s="4" t="inlineStr">
         <is>
           <t>Significantly reduce</t>
         </is>
       </c>
-      <c r="M80" s="4" t="inlineStr">
+      <c r="N80" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N80" s="4" t="inlineStr">
+      <c r="O80" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O80" s="4" t="inlineStr">
+      <c r="P80" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12633,46 +12633,46 @@
       <c r="F81" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J81" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K81" s="7" t="inlineStr">
+      <c r="G81" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J81" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K81" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L81" s="8" t="inlineStr">
         <is>
           <t>Minderung um mindestens 40 % bis 2020</t>
         </is>
       </c>
-      <c r="L81" s="4" t="inlineStr">
+      <c r="M81" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 40% by 2020</t>
         </is>
       </c>
-      <c r="M81" s="4" t="inlineStr">
+      <c r="N81" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N81" s="4" t="inlineStr">
+      <c r="O81" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O81" s="4" t="inlineStr">
+      <c r="P81" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P81" s="8">
+      <c r="Q81" s="6">
         <v>2020</v>
-      </c>
-      <c r="R81" s="8">
-        <v>2022</v>
       </c>
       <c r="T81" s="5" t="b">
         <v>0</v>
@@ -12783,46 +12783,46 @@
       <c r="F82" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I82" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J82" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K82" s="7" t="inlineStr">
+      <c r="G82" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J82" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K82" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L82" s="8" t="inlineStr">
         <is>
           <t>Minderung um mindestens 55 % bis 2030</t>
         </is>
       </c>
-      <c r="L82" s="4" t="inlineStr">
+      <c r="M82" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 55% by 2030</t>
         </is>
       </c>
-      <c r="M82" s="4" t="inlineStr">
+      <c r="N82" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N82" s="4" t="inlineStr">
+      <c r="O82" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O82" s="4" t="inlineStr">
+      <c r="P82" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P82" s="8">
+      <c r="Q82" s="6">
         <v>2030</v>
-      </c>
-      <c r="R82" s="8">
-        <v>2022</v>
       </c>
       <c r="T82" s="5" t="b">
         <v>0</v>
@@ -12931,50 +12931,50 @@
         <v>1</v>
       </c>
       <c r="F83" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" s="6">
+        <v>1</v>
+      </c>
+      <c r="I83" s="7">
         <v>41</v>
       </c>
-      <c r="I83" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J83" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K83" s="7" t="inlineStr">
+      <c r="J83" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K83" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L83" s="8" t="inlineStr">
         <is>
           <t>Minderung um mindestens 65 % bis 2030</t>
         </is>
       </c>
-      <c r="L83" s="4" t="inlineStr">
+      <c r="M83" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 65% by 2030</t>
         </is>
       </c>
-      <c r="M83" s="4" t="inlineStr">
+      <c r="N83" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N83" s="4" t="inlineStr">
+      <c r="O83" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O83" s="4" t="inlineStr">
+      <c r="P83" s="4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P83" s="8">
+      <c r="Q83" s="6">
         <v>2030</v>
       </c>
-      <c r="S83" s="8">
+      <c r="S83" s="6">
         <v>2022</v>
       </c>
       <c r="T83" s="5" t="b">
@@ -13086,49 +13086,49 @@
       <c r="F84" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I84" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J84" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K84" s="7" t="inlineStr">
+      <c r="G84" s="6">
+        <v>2021</v>
+      </c>
+      <c r="J84" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K84" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L84" s="8" t="inlineStr">
         <is>
           <t>Minderung um mindestens 70 % bis 2040</t>
         </is>
       </c>
-      <c r="L84" s="4" t="inlineStr">
+      <c r="M84" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 70% by 2040</t>
         </is>
       </c>
-      <c r="M84" s="4" t="inlineStr">
+      <c r="N84" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N84" s="4" t="inlineStr">
+      <c r="O84" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O84" s="4" t="inlineStr">
+      <c r="P84" s="4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P84" s="8">
+      <c r="Q84" s="6">
         <v>2040</v>
       </c>
-      <c r="Q84" s="8">
+      <c r="R84" s="6">
         <v>2030</v>
-      </c>
-      <c r="R84" s="8">
-        <v>2021</v>
       </c>
       <c r="T84" s="5" t="b">
         <v>0</v>
@@ -13231,7 +13231,7 @@
         </is>
       </c>
       <c r="D85" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="5" t="b">
         <v>1</v>
@@ -13239,51 +13239,51 @@
       <c r="F85" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H85" s="6">
+      <c r="I85" s="7">
         <v>18</v>
       </c>
-      <c r="I85" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J85" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K85" s="7" t="inlineStr">
+      <c r="J85" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K85" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L85" s="8" t="inlineStr">
         <is>
           <t>Minderung um mindestens 88 % bis 2040</t>
         </is>
       </c>
-      <c r="L85" s="4" t="inlineStr">
+      <c r="M85" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 88% by 2040</t>
         </is>
       </c>
-      <c r="M85" s="4" t="inlineStr">
+      <c r="N85" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N85" s="4" t="inlineStr">
+      <c r="O85" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O85" s="4" t="inlineStr">
+      <c r="P85" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P85" s="8">
+      <c r="Q85" s="6">
         <v>2040</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="R85" s="6">
         <v>2030</v>
       </c>
-      <c r="S85" s="8">
+      <c r="S85" s="6">
         <v>2022</v>
       </c>
       <c r="T85" s="5" t="b">
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="D86" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="5" t="b">
         <v>1</v>
@@ -13395,51 +13395,51 @@
       <c r="F86" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H86" s="6">
+      <c r="I86" s="7">
         <v>6</v>
       </c>
-      <c r="I86" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J86" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K86" s="7" t="inlineStr">
+      <c r="J86" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K86" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L86" s="8" t="inlineStr">
         <is>
           <t>Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
-      <c r="L86" s="4" t="inlineStr">
+      <c r="M86" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
-      <c r="M86" s="4" t="inlineStr">
+      <c r="N86" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N86" s="4" t="inlineStr">
+      <c r="O86" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O86" s="4" t="inlineStr">
+      <c r="P86" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P86" s="8">
+      <c r="Q86" s="6">
         <v>2045</v>
       </c>
-      <c r="Q86" s="8">
+      <c r="R86" s="6">
         <v>2040</v>
       </c>
-      <c r="S86" s="8">
+      <c r="S86" s="6">
         <v>2022</v>
       </c>
       <c r="T86" s="5" t="b">
@@ -13551,46 +13551,46 @@
       <c r="F87" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I87" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J87" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K87" s="7" t="inlineStr">
+      <c r="G87" s="6">
+        <v>2021</v>
+      </c>
+      <c r="J87" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K87" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L87" s="8" t="inlineStr">
         <is>
           <t>Minderung um mindestens 80 % bis 95 % bis 2050</t>
         </is>
       </c>
-      <c r="L87" s="4" t="inlineStr">
+      <c r="M87" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 80% to 95% by 2050</t>
         </is>
       </c>
-      <c r="M87" s="4" t="inlineStr">
+      <c r="N87" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N87" s="4" t="inlineStr">
+      <c r="O87" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O87" s="4" t="inlineStr">
+      <c r="P87" s="4" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P87" s="8">
+      <c r="Q87" s="6">
         <v>2050</v>
-      </c>
-      <c r="R87" s="8">
-        <v>2021</v>
       </c>
       <c r="T87" s="5" t="b">
         <v>0</v>
@@ -13701,51 +13701,51 @@
       <c r="F88" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I88" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J88" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K88" s="7" t="inlineStr">
+      <c r="G88" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J88" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K88" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L88" s="8" t="inlineStr">
         <is>
           <t>Erreichung der Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
-      <c r="L88" s="4" t="inlineStr">
+      <c r="M88" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas neutrality to be achieved by 2050</t>
         </is>
       </c>
-      <c r="M88" s="4" t="inlineStr">
+      <c r="N88" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N88" s="4" t="inlineStr">
+      <c r="O88" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O88" s="4" t="inlineStr">
+      <c r="P88" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P88" s="8">
+      <c r="Q88" s="6">
         <v>2050</v>
       </c>
-      <c r="Q88" s="8">
+      <c r="R88" s="6">
         <v>2040</v>
       </c>
-      <c r="R88" s="8">
-        <v>2022</v>
-      </c>
-      <c r="S88" s="8">
+      <c r="S88" s="6">
         <v>2021</v>
       </c>
       <c r="T88" s="5" t="b">
@@ -13857,46 +13857,46 @@
       <c r="F89" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I89" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J89" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K89" s="7" t="inlineStr">
+      <c r="G89" s="6">
+        <v>2022</v>
+      </c>
+      <c r="J89" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K89" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L89" s="8" t="inlineStr">
         <is>
           <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
         </is>
       </c>
-      <c r="L89" s="4" t="inlineStr">
+      <c r="M89" s="4" t="inlineStr">
         <is>
           <t>Double finance by 2020 compared to 2014</t>
         </is>
       </c>
-      <c r="M89" s="4" t="inlineStr">
+      <c r="N89" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N89" s="4" t="inlineStr">
+      <c r="O89" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O89" s="4" t="inlineStr">
+      <c r="P89" s="4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P89" s="8">
+      <c r="Q89" s="6">
         <v>2020</v>
-      </c>
-      <c r="R89" s="8">
-        <v>2022</v>
       </c>
       <c r="T89" s="5" t="b">
         <v>0</v>
@@ -14005,50 +14005,50 @@
         <v>1</v>
       </c>
       <c r="F90" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" s="6">
+        <v>1</v>
+      </c>
+      <c r="I90" s="7">
         <v>7</v>
       </c>
-      <c r="I90" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J90" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K90" s="7" t="inlineStr">
+      <c r="J90" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K90" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L90" s="8" t="inlineStr">
         <is>
           <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
-      <c r="L90" s="4" t="inlineStr">
+      <c r="M90" s="4" t="inlineStr">
         <is>
           <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest.</t>
         </is>
       </c>
-      <c r="M90" s="4" t="inlineStr">
+      <c r="N90" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N90" s="4" t="inlineStr">
+      <c r="O90" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O90" s="4" t="inlineStr">
+      <c r="P90" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P90" s="8">
+      <c r="Q90" s="6">
         <v>2025</v>
       </c>
-      <c r="S90" s="8">
+      <c r="S90" s="6">
         <v>2022</v>
       </c>
       <c r="T90" s="5" t="b">
@@ -14158,42 +14158,42 @@
         <v>1</v>
       </c>
       <c r="F91" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6">
+        <v>1</v>
+      </c>
+      <c r="I91" s="7">
         <v>2.7</v>
       </c>
-      <c r="I91" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J91" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K91" s="7" t="inlineStr">
+      <c r="J91" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K91" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L91" s="8" t="inlineStr">
         <is>
           <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
-      <c r="L91" s="4" t="inlineStr">
+      <c r="M91" s="4" t="inlineStr">
         <is>
           <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
-      <c r="M91" s="4" t="inlineStr">
+      <c r="N91" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N91" s="4" t="inlineStr">
+      <c r="O91" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O91" s="4" t="inlineStr">
+      <c r="P91" s="4" t="inlineStr">
         <is>
           <t>2,6</t>
         </is>
@@ -14305,42 +14305,42 @@
         <v>1</v>
       </c>
       <c r="F92" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="6">
+        <v>1</v>
+      </c>
+      <c r="I92" s="7">
         <v>2.9</v>
       </c>
-      <c r="I92" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J92" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K92" s="7" t="inlineStr">
+      <c r="J92" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K92" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L92" s="8" t="inlineStr">
         <is>
           <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
-      <c r="L92" s="4" t="inlineStr">
+      <c r="M92" s="4" t="inlineStr">
         <is>
           <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
-      <c r="M92" s="4" t="inlineStr">
+      <c r="N92" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N92" s="4" t="inlineStr">
+      <c r="O92" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O92" s="4" t="inlineStr">
+      <c r="P92" s="4" t="inlineStr">
         <is>
           <t>2,8</t>
         </is>
@@ -14452,47 +14452,47 @@
         <v>1</v>
       </c>
       <c r="F93" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="6">
+        <v>1</v>
+      </c>
+      <c r="I93" s="7">
         <v>90</v>
       </c>
-      <c r="I93" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J93" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K93" s="7" t="inlineStr">
+      <c r="J93" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K93" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L93" s="8" t="inlineStr">
         <is>
           <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
-      <c r="L93" s="4" t="inlineStr">
+      <c r="M93" s="4" t="inlineStr">
         <is>
           <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
-      <c r="M93" s="4" t="inlineStr">
+      <c r="N93" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N93" s="4" t="inlineStr">
+      <c r="O93" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O93" s="4" t="inlineStr">
+      <c r="P93" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P93" s="8">
+      <c r="Q93" s="6">
         <v>2020</v>
       </c>
       <c r="T93" s="5" t="b">
@@ -14602,47 +14602,47 @@
         <v>1</v>
       </c>
       <c r="F94" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="6">
+        <v>1</v>
+      </c>
+      <c r="I94" s="7">
         <v>90</v>
       </c>
-      <c r="I94" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J94" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K94" s="7" t="inlineStr">
+      <c r="J94" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K94" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L94" s="8" t="inlineStr">
         <is>
           <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
-      <c r="L94" s="4" t="inlineStr">
+      <c r="M94" s="4" t="inlineStr">
         <is>
           <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
-      <c r="M94" s="4" t="inlineStr">
+      <c r="N94" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N94" s="4" t="inlineStr">
+      <c r="O94" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O94" s="4" t="inlineStr">
+      <c r="P94" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P94" s="8">
+      <c r="Q94" s="6">
         <v>2030</v>
       </c>
       <c r="T94" s="5" t="b">
@@ -14752,47 +14752,47 @@
         <v>1</v>
       </c>
       <c r="F95" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" s="6">
+        <v>1</v>
+      </c>
+      <c r="I95" s="7">
         <v>70</v>
       </c>
-      <c r="I95" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J95" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K95" s="7" t="inlineStr">
+      <c r="J95" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K95" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L95" s="8" t="inlineStr">
         <is>
           <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
-      <c r="L95" s="4" t="inlineStr">
+      <c r="M95" s="4" t="inlineStr">
         <is>
           <t>Reduction by 35% by 2030 compared to 2005</t>
         </is>
       </c>
-      <c r="M95" s="4" t="inlineStr">
+      <c r="N95" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N95" s="4" t="inlineStr">
+      <c r="O95" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O95" s="4" t="inlineStr">
+      <c r="P95" s="4" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P95" s="8">
+      <c r="Q95" s="6">
         <v>2030</v>
       </c>
       <c r="T95" s="5" t="b">
@@ -14902,39 +14902,39 @@
         <v>0</v>
       </c>
       <c r="F96" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J96" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K96" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J96" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K96" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L96" s="8" t="inlineStr">
         <is>
           <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
-      <c r="L96" s="4" t="inlineStr">
+      <c r="M96" s="4" t="inlineStr">
         <is>
           <t>Increase payments by 2030</t>
         </is>
       </c>
-      <c r="M96" s="4" t="inlineStr">
+      <c r="N96" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N96" s="4" t="inlineStr">
+      <c r="O96" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O96" s="4" t="inlineStr">
+      <c r="P96" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15046,39 +15046,39 @@
         <v>0</v>
       </c>
       <c r="F97" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J97" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K97" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J97" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K97" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L97" s="8" t="inlineStr">
         <is>
           <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
-      <c r="L97" s="4" t="inlineStr">
+      <c r="M97" s="4" t="inlineStr">
         <is>
           <t>Increase payments by 2030</t>
         </is>
       </c>
-      <c r="M97" s="4" t="inlineStr">
+      <c r="N97" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N97" s="4" t="inlineStr">
+      <c r="O97" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O97" s="4" t="inlineStr">
+      <c r="P97" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15190,50 +15190,50 @@
         <v>1</v>
       </c>
       <c r="F98" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" s="6">
+        <v>1</v>
+      </c>
+      <c r="I98" s="7">
         <v>7000</v>
       </c>
-      <c r="I98" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J98" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K98" s="7" t="inlineStr">
+      <c r="J98" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K98" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L98" s="8" t="inlineStr">
         <is>
           <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
-      <c r="L98" s="4" t="inlineStr">
+      <c r="M98" s="4" t="inlineStr">
         <is>
           <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
-      <c r="M98" s="4" t="inlineStr">
+      <c r="N98" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N98" s="4" t="inlineStr">
+      <c r="O98" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O98" s="4" t="inlineStr">
+      <c r="P98" s="4" t="inlineStr">
         <is>
           <t>6500</t>
         </is>
       </c>
-      <c r="P98" s="8">
+      <c r="Q98" s="6">
         <v>2030</v>
       </c>
-      <c r="S98" s="8">
+      <c r="S98" s="6">
         <v>2021</v>
       </c>
       <c r="T98" s="5" t="b">
@@ -15345,46 +15345,46 @@
       <c r="F99" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I99" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J99" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K99" s="7" t="inlineStr">
+      <c r="G99" s="6">
+        <v>2021</v>
+      </c>
+      <c r="J99" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K99" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L99" s="8" t="inlineStr">
         <is>
           <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
-      <c r="L99" s="4" t="inlineStr">
+      <c r="M99" s="4" t="inlineStr">
         <is>
           <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
-      <c r="M99" s="4" t="inlineStr">
+      <c r="N99" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N99" s="4" t="inlineStr">
+      <c r="O99" s="4" t="inlineStr">
         <is>
           <t>sinken</t>
         </is>
       </c>
-      <c r="O99" s="4" t="inlineStr">
+      <c r="P99" s="4" t="inlineStr">
         <is>
           <t>7000</t>
         </is>
       </c>
-      <c r="P99" s="8">
+      <c r="Q99" s="6">
         <v>2030</v>
-      </c>
-      <c r="R99" s="8">
-        <v>2021</v>
       </c>
       <c r="T99" s="5" t="b">
         <v>0</v>
@@ -15493,42 +15493,42 @@
         <v>1</v>
       </c>
       <c r="F100" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" s="6">
+        <v>1</v>
+      </c>
+      <c r="I100" s="7">
         <v>18</v>
       </c>
-      <c r="I100" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J100" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K100" s="7" t="inlineStr">
+      <c r="J100" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K100" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L100" s="8" t="inlineStr">
         <is>
           <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="L100" s="4" t="inlineStr">
+      <c r="M100" s="4" t="inlineStr">
         <is>
           <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
-      <c r="M100" s="4" t="inlineStr">
+      <c r="N100" s="4" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N100" s="4" t="inlineStr">
+      <c r="O100" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O100" s="4" t="inlineStr">
+      <c r="P100" s="4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -15640,39 +15640,39 @@
         <v>0</v>
       </c>
       <c r="F101" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J101" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K101" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J101" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K101" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L101" s="8" t="inlineStr">
         <is>
           <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
-      <c r="L101" s="4" t="inlineStr">
+      <c r="M101" s="4" t="inlineStr">
         <is>
           <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
-      <c r="M101" s="4" t="inlineStr">
+      <c r="N101" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N101" s="4" t="inlineStr">
+      <c r="O101" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O101" s="4" t="inlineStr">
+      <c r="P101" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15764,7 +15764,7 @@
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>W_1603B_R</t>
+          <t>W_1603b_R</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -15784,39 +15784,39 @@
         <v>0</v>
       </c>
       <c r="F102" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J102" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K102" s="7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J102" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K102" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L102" s="8" t="inlineStr">
         <is>
           <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
-      <c r="L102" s="4" t="inlineStr">
+      <c r="M102" s="4" t="inlineStr">
         <is>
           <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
-      <c r="M102" s="4" t="inlineStr">
+      <c r="N102" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N102" s="4" t="inlineStr">
+      <c r="O102" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O102" s="4" t="inlineStr">
+      <c r="P102" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15928,47 +15928,47 @@
         <v>1</v>
       </c>
       <c r="F103" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" s="6">
+        <v>1</v>
+      </c>
+      <c r="I103" s="7">
         <v>0.75</v>
       </c>
-      <c r="I103" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J103" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K103" s="7" t="inlineStr">
+      <c r="J103" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K103" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L103" s="8" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
-      <c r="L103" s="4" t="inlineStr">
+      <c r="M103" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 0.7% of gross national income by 2030</t>
         </is>
       </c>
-      <c r="M103" s="4" t="inlineStr">
+      <c r="N103" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N103" s="4" t="inlineStr">
+      <c r="O103" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O103" s="4" t="inlineStr">
+      <c r="P103" s="4" t="inlineStr">
         <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="P103" s="8">
+      <c r="Q103" s="6">
         <v>2030</v>
       </c>
       <c r="T103" s="5" t="b">
@@ -16080,42 +16080,42 @@
       <c r="F104" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I104" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J104" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K104" s="7" t="inlineStr">
+      <c r="J104" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K104" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L104" s="8" t="inlineStr">
         <is>
           <t>Steigerung der Anzahl um 10 % von 2015 bis 2020</t>
         </is>
       </c>
-      <c r="L104" s="4" t="inlineStr">
+      <c r="M104" s="4" t="inlineStr">
         <is>
           <t>Increase the number by 10% from 2015 to 2020</t>
         </is>
       </c>
-      <c r="M104" s="4" t="inlineStr">
+      <c r="N104" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N104" s="4" t="inlineStr">
+      <c r="O104" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O104" s="4" t="inlineStr">
+      <c r="P104" s="4" t="inlineStr">
         <is>
           <t>237000</t>
         </is>
       </c>
-      <c r="P104" s="8">
+      <c r="Q104" s="6">
         <v>2020</v>
       </c>
       <c r="T104" s="5" t="b">
@@ -16225,42 +16225,42 @@
         <v>1</v>
       </c>
       <c r="F105" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" s="6">
+        <v>1</v>
+      </c>
+      <c r="I105" s="7">
         <v>237000</v>
       </c>
-      <c r="I105" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J105" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K105" s="7" t="inlineStr">
+      <c r="J105" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K105" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L105" s="8" t="inlineStr">
         <is>
           <t>Verstetigung des Zielwertes von 2020</t>
         </is>
       </c>
-      <c r="L105" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="M105" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N105" s="4" t="inlineStr">
+        <is>
           <t>J</t>
         </is>
       </c>
-      <c r="N105" s="4" t="inlineStr">
+      <c r="O105" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O105" s="4" t="inlineStr">
+      <c r="P105" s="4" t="inlineStr">
         <is>
           <t>237000</t>
         </is>
@@ -16268,7 +16268,7 @@
       <c r="T105" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="U105" s="8">
+      <c r="U105" s="6">
         <v>2020</v>
       </c>
       <c r="W105" s="4" t="inlineStr">
@@ -16375,47 +16375,47 @@
         <v>1</v>
       </c>
       <c r="F106" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" s="6">
+        <v>1</v>
+      </c>
+      <c r="I106" s="7">
         <v>1.3</v>
       </c>
-      <c r="I106" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J106" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K106" s="7" t="inlineStr">
+      <c r="J106" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K106" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L106" s="8" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="L106" s="4" t="inlineStr">
+      <c r="M106" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="M106" s="4" t="inlineStr">
+      <c r="N106" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="N106" s="4" t="inlineStr">
+      <c r="O106" s="4" t="inlineStr">
         <is>
           <t>steigen</t>
         </is>
       </c>
-      <c r="O106" s="4" t="inlineStr">
+      <c r="P106" s="4" t="inlineStr">
         <is>
           <t>1,43</t>
         </is>
       </c>
-      <c r="P106" s="8">
+      <c r="Q106" s="6">
         <v>2030</v>
       </c>
       <c r="T106" s="5" t="b">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -567,7 +567,7 @@
     <col customWidth="true" min="6" max="6" width="32.078125"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
-    <col customWidth="true" min="9" max="9" width="13.8359375"/>
+    <col customWidth="true" min="9" max="9" width="20.5078125"/>
     <col customWidth="true" min="10" max="10" width="18.30859375"/>
     <col customWidth="true" min="11" max="11" width="18.30859375"/>
     <col customWidth="true" min="12" max="12" width="11.71875"/>
@@ -4815,12 +4815,15 @@
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>Ziel: Gleichberechtigte Teilhabe ¹</t>
+          <t>Ziel:
+Gleichberechtigte 
+Teilhabe ¹</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>Target: equal
+          <t>Target: 
+equal
 participation ¹</t>
         </is>
       </c>
@@ -10123,12 +10126,14 @@
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Ziel: Jährlich 3,5 % des BIP</t>
+          <t>Ziel: Jährlich 
+3,5 % des BIP</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Target: 3.5% of GDP every year</t>
+          <t>Target: 3.5% of GDP 
+every year</t>
         </is>
       </c>
       <c r="K60" s="7">
@@ -11539,14 +11544,14 @@
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>Ziel:
+          <t>Ziel: 
 85 bis 80</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>Target:
-between
+          <t>Target: 
+between 
 80 and 85</t>
         </is>
       </c>
@@ -11702,14 +11707,14 @@
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Ziel:
+          <t>Ziel: 
 85 bis 80</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
           <t>Target:
-between
+between 
 80 and 85</t>
         </is>
       </c>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -5139,12 +5139,12 @@
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>Ziel¹: 473</t>
+          <t>Ziel: 473 ¹</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>Target¹: 473</t>
+          <t>Target: 473 ¹</t>
         </is>
       </c>
       <c r="K29" s="7">
@@ -6105,12 +6105,14 @@
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel:
+239 ¹</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target:
+239 ¹</t>
         </is>
       </c>
       <c r="K35" s="7">
@@ -8544,12 +8546,14 @@
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel:
+160 ¹</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target:
+160 ¹</t>
         </is>
       </c>
       <c r="K50" s="7">
@@ -15701,12 +15705,14 @@
       </c>
       <c r="H95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 
+50 % ¹</t>
         </is>
       </c>
       <c r="I95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target: 
+50% ¹</t>
         </is>
       </c>
       <c r="K95" s="7">
@@ -17277,12 +17283,14 @@
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: 
+237 000 ¹</t>
         </is>
       </c>
       <c r="I105" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target: 
+237,000 ¹</t>
         </is>
       </c>
       <c r="K105" s="7">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -567,7 +567,7 @@
     <col customWidth="true" min="6" max="6" width="32.078125"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
-    <col customWidth="true" min="9" max="9" width="20.5078125"/>
+    <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="18.30859375"/>
     <col customWidth="true" min="11" max="11" width="18.30859375"/>
     <col customWidth="true" min="12" max="12" width="11.71875"/>
@@ -581,7 +581,7 @@
     <col customWidth="true" min="20" max="20" width="13.8359375"/>
     <col customWidth="true" min="21" max="21" width="13.8359375"/>
     <col customWidth="true" min="22" max="22" width="30.3203125"/>
-    <col customWidth="true" min="23" max="23" width="17.72265625"/>
+    <col customWidth="true" min="23" max="23" width="13.62109375"/>
     <col customWidth="true" min="24" max="24" width="8.203125"/>
     <col customWidth="true" min="25" max="25" width="13.8359375"/>
     <col customWidth="true" min="26" max="26" width="13.8359375"/>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="K10" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="8" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="K11" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="8" t="inlineStr">
         <is>
@@ -4827,8 +4827,11 @@
 participation ¹</t>
         </is>
       </c>
+      <c r="J27" s="7">
+        <v>23.8</v>
+      </c>
       <c r="K27" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="8" t="inlineStr">
         <is>
@@ -8717,7 +8720,7 @@
         </is>
       </c>
       <c r="J51" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K51" s="7">
         <v>-3.5</v>
@@ -8877,7 +8880,7 @@
         </is>
       </c>
       <c r="J52" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K52" s="7">
         <v>-1</v>
@@ -9505,7 +9508,7 @@
         </is>
       </c>
       <c r="K56" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L56" s="8" t="inlineStr">
         <is>
@@ -9665,7 +9668,7 @@
         </is>
       </c>
       <c r="K57" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L57" s="8" t="inlineStr">
         <is>
@@ -10130,18 +10133,19 @@
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Ziel: Jährlich 
-3,5 % des BIP</t>
+          <t>Ziel: Jährlich 3,5 % des BIP</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Target: 3.5% of GDP 
-every year</t>
-        </is>
+          <t>Target: 3.5% of GDP every year</t>
+        </is>
+      </c>
+      <c r="J60" s="7">
+        <v>27</v>
       </c>
       <c r="K60" s="7">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L60" s="8" t="inlineStr">
         <is>
@@ -11549,18 +11553,22 @@
       <c r="H69" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
-85 bis 80</t>
+85
+bis
+80</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>Target: 
+          <t>Target:
 between 
-80 and 85</t>
+80 
+and 
+85</t>
         </is>
       </c>
       <c r="K69" s="7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L69" s="8" t="inlineStr">
         <is>
@@ -11722,6 +11730,9 @@
 80 and 85</t>
         </is>
       </c>
+      <c r="J70" s="7">
+        <v>15.7</v>
+      </c>
       <c r="K70" s="7">
         <v>90</v>
       </c>
@@ -16184,7 +16195,7 @@
         </is>
       </c>
       <c r="J98" s="7">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="K98" s="7">
         <v>7000</v>
@@ -17283,15 +17294,16 @@
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 
-237 000 ¹</t>
+          <t>Ziel: 237 000 ¹</t>
         </is>
       </c>
       <c r="I105" s="4" t="inlineStr">
         <is>
-          <t>Target: 
-237,000 ¹</t>
-        </is>
+          <t>Target: 237,000 ¹</t>
+        </is>
+      </c>
+      <c r="J105" s="7">
+        <v>10</v>
       </c>
       <c r="K105" s="7">
         <v>237000</v>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="J60" s="7">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="K60" s="7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L60" s="8" t="inlineStr">
         <is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -9083,6 +9083,9 @@
       <c r="V53" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="W53" s="6">
+        <v>2012</v>
+      </c>
       <c r="Y53" s="4" t="inlineStr">
         <is>
           <t/>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -3375,12 +3375,12 @@
       </c>
       <c r="I17" s="6" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf &lt;b&gt;10 % bis 2020&lt;/b&gt;</t>
+          <t>Verringerung des Anteils auf &lt;b&gt;10 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to &lt;b&gt;10% by 2020&lt;/b&gt;</t>
+          <t>Reduce the proportion to &lt;b&gt;10%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
@@ -3545,12 +3545,12 @@
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf &lt;b&gt;9,5 % bis 2030&lt;/b&gt;</t>
+          <t>Verringerung des Anteils auf &lt;b&gt;9,5 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to &lt;b&gt;9.5% by 2030&lt;/b&gt;</t>
+          <t>Reduce the proportion to &lt;b&gt;9.5%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="I19" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 42 % bis 2020</t>
+          <t>Steigerung des Anteils auf &lt;b&gt;42 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 24% by 2020</t>
+          <t>Increase the proportion to &lt;b&gt;24%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="I20" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Steigerung des Anteils auf &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 55% by 2030</t>
+          <t>Increase the proportion to &lt;b&gt;55%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -8313,7 +8313,7 @@
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030x</t>
+          <t>W_0702b_2040</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -8327,32 +8327,32 @@
         </is>
       </c>
       <c r="D46" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Anstieg auf 65 % bis 2040</t>
         </is>
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2030</t>
+          <t>Increase to 65% by 2040</t>
         </is>
       </c>
       <c r="I46" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
@@ -8367,14 +8367,17 @@
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>65</t>
         </is>
       </c>
       <c r="N46" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O46" s="7">
         <v>2030</v>
       </c>
-      <c r="Q46" s="7">
-        <v>2022</v>
+      <c r="P46" s="7">
+        <v>2021</v>
       </c>
       <c r="R46" s="4" t="inlineStr">
         <is>
@@ -8387,10 +8390,7 @@
         </is>
       </c>
       <c r="T46" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V46" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="6" t="inlineStr">
         <is>
@@ -8429,37 +8429,37 @@
       </c>
       <c r="AF46" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AG46" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AH46" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AI46" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AJ46" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AK46" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AL46" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM46" s="4" t="inlineStr">
@@ -8486,7 +8486,7 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2040</t>
+          <t>W_0702b_2050a</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -8510,22 +8510,22 @@
       </c>
       <c r="G47" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2040</t>
+          <t>Anstieg auf 80 % bis 2050</t>
         </is>
       </c>
       <c r="H47" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2040</t>
+          <t>Increase to 80% by 2050</t>
         </is>
       </c>
       <c r="I47" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by 2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
@@ -8540,14 +8540,14 @@
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N47" s="7">
+        <v>2050</v>
+      </c>
+      <c r="O47" s="7">
         <v>2040</v>
-      </c>
-      <c r="O47" s="7">
-        <v>2030</v>
       </c>
       <c r="P47" s="7">
         <v>2021</v>
@@ -8659,7 +8659,7 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050a</t>
+          <t>W_0702b_2050b</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -8683,22 +8683,22 @@
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2050</t>
+          <t>Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2050</t>
+          <t>Greenhouse gas neutrality by 2050</t>
         </is>
       </c>
       <c r="I48" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>&lt;b&gt;Treibhausgasneutralität&lt;/b&gt; des in Deutschland erzeugten und verbrauchten Stroms bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by 2050&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; of electricity generated and consumed in Germany by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
@@ -8713,16 +8713,16 @@
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
       <c r="N48" s="7">
         <v>2050</v>
       </c>
-      <c r="O48" s="7">
-        <v>2040</v>
-      </c>
       <c r="P48" s="7">
+        <v>2022</v>
+      </c>
+      <c r="Q48" s="7">
         <v>2021</v>
       </c>
       <c r="R48" s="4" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="AL48" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AM48" s="4" t="inlineStr">
@@ -8832,7 +8832,7 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050b</t>
+          <t>W_0702bx_2030</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -8846,32 +8846,32 @@
         </is>
       </c>
       <c r="D49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="6" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität bis 2050</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="H49" s="6" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality by 2050</t>
+          <t>Increase to 80% by 2030</t>
         </is>
       </c>
       <c r="I49" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Treibhausgasneutralität&lt;/b&gt; des in Deutschland erzeugten und verbrauchten Stroms bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; of electricity generated and consumed in Germany by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
@@ -8886,18 +8886,15 @@
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N49" s="7">
-        <v>2050</v>
-      </c>
-      <c r="P49" s="7">
+        <v>2030</v>
+      </c>
+      <c r="Q49" s="7">
         <v>2022</v>
       </c>
-      <c r="Q49" s="7">
-        <v>2021</v>
-      </c>
       <c r="R49" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8909,7 +8906,10 @@
         </is>
       </c>
       <c r="T49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V49" s="8">
+        <v>70</v>
       </c>
       <c r="Y49" s="6" t="inlineStr">
         <is>
@@ -8948,37 +8948,37 @@
       </c>
       <c r="AF49" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AG49" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AH49" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AI49" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AJ49" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AK49" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AL49" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AM49" s="4" t="inlineStr">
@@ -14567,7 +14567,7 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2030xb</t>
+          <t>W_1301a_2040a</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -14581,13 +14581,13 @@
         </is>
       </c>
       <c r="D83" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
@@ -14601,12 +14601,12 @@
       </c>
       <c r="I83" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J83" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K83" s="4" t="inlineStr">
@@ -14621,14 +14621,17 @@
       </c>
       <c r="M83" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N83" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O83" s="7">
         <v>2030</v>
       </c>
-      <c r="Q83" s="7">
-        <v>2022</v>
+      <c r="P83" s="7">
+        <v>2021</v>
       </c>
       <c r="R83" s="4" t="inlineStr">
         <is>
@@ -14641,10 +14644,7 @@
         </is>
       </c>
       <c r="T83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V83" s="8">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="6" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="AJ83" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AK83" s="4" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="AL83" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM83" s="4" t="inlineStr">
@@ -14740,7 +14740,7 @@
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2040a</t>
+          <t>W_1301a_2050a</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -14774,12 +14774,12 @@
       </c>
       <c r="I84" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J84" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;80%&lt;/b&gt; to &lt;b&gt;95%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K84" s="4" t="inlineStr">
@@ -14794,14 +14794,11 @@
       </c>
       <c r="M84" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N84" s="7">
-        <v>2040</v>
-      </c>
-      <c r="O84" s="7">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="P84" s="7">
         <v>2021</v>
@@ -14871,12 +14868,12 @@
       </c>
       <c r="AI84" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AJ84" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AK84" s="4" t="inlineStr">
@@ -14913,7 +14910,7 @@
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2040xb</t>
+          <t>W_1301a_2050b</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -14927,13 +14924,13 @@
         </is>
       </c>
       <c r="D85" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F85" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="6" t="inlineStr">
         <is>
@@ -14947,12 +14944,12 @@
       </c>
       <c r="I85" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J85" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;88%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K85" s="4" t="inlineStr">
@@ -14967,17 +14964,20 @@
       </c>
       <c r="M85" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N85" s="7">
+        <v>2050</v>
+      </c>
+      <c r="O85" s="7">
         <v>2040</v>
       </c>
-      <c r="O85" s="7">
-        <v>2030</v>
+      <c r="P85" s="7">
+        <v>2022</v>
       </c>
       <c r="Q85" s="7">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R85" s="4" t="inlineStr">
         <is>
@@ -14990,10 +14990,7 @@
         </is>
       </c>
       <c r="T85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V85" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y85" s="6" t="inlineStr">
         <is>
@@ -15062,7 +15059,7 @@
       </c>
       <c r="AL85" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM85" s="4" t="inlineStr">
@@ -15089,7 +15086,7 @@
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2045x</t>
+          <t>W_1301ax_2030b</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -15106,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="5" t="b">
         <v>1</v>
@@ -15123,12 +15120,12 @@
       </c>
       <c r="I86" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J86" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K86" s="4" t="inlineStr">
@@ -15143,14 +15140,11 @@
       </c>
       <c r="M86" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N86" s="7">
-        <v>2045</v>
-      </c>
-      <c r="O86" s="7">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="Q86" s="7">
         <v>2022</v>
@@ -15169,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="V86" s="8">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="Y86" s="6" t="inlineStr">
         <is>
@@ -15238,7 +15232,7 @@
       </c>
       <c r="AL86" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AM86" s="4" t="inlineStr">
@@ -15265,7 +15259,7 @@
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2050a</t>
+          <t>W_1301ax_2040b</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -15279,13 +15273,13 @@
         </is>
       </c>
       <c r="D87" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="6" t="inlineStr">
         <is>
@@ -15299,12 +15293,12 @@
       </c>
       <c r="I87" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J87" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;80%&lt;/b&gt; to &lt;b&gt;95%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;88%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K87" s="4" t="inlineStr">
@@ -15319,14 +15313,17 @@
       </c>
       <c r="M87" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N87" s="7">
-        <v>2050</v>
-      </c>
-      <c r="P87" s="7">
-        <v>2021</v>
+        <v>2040</v>
+      </c>
+      <c r="O87" s="7">
+        <v>2030</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>2022</v>
       </c>
       <c r="R87" s="4" t="inlineStr">
         <is>
@@ -15339,7 +15336,10 @@
         </is>
       </c>
       <c r="T87" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V87" s="8">
+        <v>18</v>
       </c>
       <c r="Y87" s="6" t="inlineStr">
         <is>
@@ -15393,22 +15393,22 @@
       </c>
       <c r="AI87" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ87" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AK87" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AL87" s="4" t="inlineStr">
+        <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AJ87" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AK87" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AL87" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
         </is>
       </c>
       <c r="AM87" s="4" t="inlineStr">
@@ -15435,7 +15435,7 @@
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2050b</t>
+          <t>W_1301ax_2045</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -15449,13 +15449,13 @@
         </is>
       </c>
       <c r="D88" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F88" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="6" t="inlineStr">
         <is>
@@ -15469,12 +15469,12 @@
       </c>
       <c r="I88" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J88" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K88" s="4" t="inlineStr">
@@ -15493,17 +15493,14 @@
         </is>
       </c>
       <c r="N88" s="7">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="O88" s="7">
         <v>2040</v>
       </c>
-      <c r="P88" s="7">
+      <c r="Q88" s="7">
         <v>2022</v>
       </c>
-      <c r="Q88" s="7">
-        <v>2021</v>
-      </c>
       <c r="R88" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15515,7 +15512,10 @@
         </is>
       </c>
       <c r="T88" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V88" s="8">
+        <v>6</v>
       </c>
       <c r="Y88" s="6" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="AL88" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AM88" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>0</v>
@@ -4231,12 +4231,12 @@
       </c>
       <c r="I22" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2020</t>
+          <t>Anstieg auf &lt;b&gt;60 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2020</t>
+          <t>Increase to &lt;b&gt;60%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="I23" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Anstieg auf &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>Increase to 70% by 2030</t>
+          <t>Increase to &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
@@ -5901,7 +5901,7 @@
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>W_06020_2030</t>
+          <t>W_06020_J</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -5935,17 +5935,17 @@
       </c>
       <c r="I32" s="6" t="inlineStr">
         <is>
-          <t>10 Millionen Menschen pro Jahr bis 2030</t>
+          <t>&lt;b&gt;10 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>10 million people per year by 2030</t>
+          <t>&lt;b&gt;10 million&lt;/b&gt; people per year by 2030</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
@@ -5979,6 +5979,9 @@
       </c>
       <c r="V32" s="8">
         <v>15</v>
+      </c>
+      <c r="X32" s="7">
+        <v>2019</v>
       </c>
       <c r="Y32" s="6" t="inlineStr">
         <is>
@@ -6074,7 +6077,7 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>W_0602a_2030</t>
+          <t>W_0602a_J</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -6108,17 +6111,17 @@
       </c>
       <c r="I33" s="6" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>&lt;b&gt;6 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>&lt;b&gt;6 million&lt;/b&gt; people per year by 2030</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
@@ -6152,6 +6155,9 @@
       </c>
       <c r="V33" s="8">
         <v>8</v>
+      </c>
+      <c r="W33" s="7">
+        <v>2019</v>
       </c>
       <c r="Y33" s="6" t="inlineStr">
         <is>
@@ -6247,7 +6253,7 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>W_0602b_2030</t>
+          <t>W_0602b_J</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -6281,17 +6287,17 @@
       </c>
       <c r="I34" s="6" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>&lt;b&gt;4 Millionen&lt;/b&gt; Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>&lt;b&gt;4 million&lt;/b&gt; people per year by 2030</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
@@ -6325,6 +6331,9 @@
       </c>
       <c r="V34" s="8">
         <v>6</v>
+      </c>
+      <c r="W34" s="7">
+        <v>2019</v>
       </c>
       <c r="Y34" s="6" t="inlineStr">
         <is>
@@ -6626,12 +6635,12 @@
       </c>
       <c r="I36" s="6" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
+          <t>Senkung um &lt;b&gt;20 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt; gegenüber 2008</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020 compared to 2008</t>
+          <t>Reduction by &lt;b&gt;20%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt; compared to 2008</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
@@ -6796,12 +6805,12 @@
       </c>
       <c r="I37" s="6" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
+          <t>Senkung um &lt;b&gt;30 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt; gegenüber 2008</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 30% by 2030 compared to 2008</t>
+          <t>Reduction by &lt;b&gt;30%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt; compared to 2008</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
@@ -6969,12 +6978,12 @@
       </c>
       <c r="I38" s="6" t="inlineStr">
         <is>
-          <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
+          <t>Senkung um &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt; gegenüber 2008</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 50% by 2050 compared to 2008</t>
+          <t>Reduction by &lt;b&gt;50%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt; compared to 2008</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
@@ -7142,12 +7151,12 @@
       </c>
       <c r="I39" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020</t>
+          <t>Anstieg auf &lt;b&gt;18 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020</t>
+          <t>Increase to &lt;b&gt;18%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
@@ -7312,12 +7321,12 @@
       </c>
       <c r="I40" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Anstieg auf &lt;b&gt;30 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>Increase to 30% by 2030</t>
+          <t>Increase to &lt;b&gt;30%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
@@ -7485,12 +7494,12 @@
       </c>
       <c r="I41" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 45 % bis 2040</t>
+          <t>Anstieg auf &lt;b&gt;45 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>Increase to 45% by 2040</t>
+          <t>Increase to &lt;b&gt;45%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
@@ -7658,12 +7667,12 @@
       </c>
       <c r="I42" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2050</t>
+          <t>Anstieg auf &lt;b&gt;60 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2050</t>
+          <t>Increase to &lt;b&gt;60%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
@@ -9591,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="U53" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V53" s="8">
         <v>73</v>
@@ -11450,12 +11459,12 @@
       </c>
       <c r="Y64" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Die beiden Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen zeitgleich erfüllt werden. Hier werden beide Ziele einzeln bewertet und zu der offiziellen Bewertung des Indikators zusammengeführt, indem jeweils das schlechtere Wettersymbol der beiden Einzelbewertungen ausgewählt wird.</t>
         </is>
       </c>
       <c r="Z64" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The two targets "increase the proportion of foreign school leavers with at least a secondary school leaving certificate" and "align the proportion with the rate of German school leavers" are to be met simultaneously. Here, both targets are evaluated individually and combined to form the official evaluation of the indicator by selecting the worse weather symbol of the two individual evaluations in each case.</t>
         </is>
       </c>
       <c r="AA64" s="4" t="inlineStr">
@@ -15694,7 +15703,7 @@
       </c>
       <c r="Z89" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>A doubling of international climate finance from 2014 corresponds to an increase to 4 bn. euro.</t>
         </is>
       </c>
       <c r="AA89" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -15512,12 +15512,16 @@
       </c>
       <c r="R88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Netto-
+Treibhausgas-
+neutralität</t>
         </is>
       </c>
       <c r="S88" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Net
+greenhouse gas
+neutrality</t>
         </is>
       </c>
       <c r="T88" s="5" t="b">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="U24" s="8">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V24" s="8">
         <v>12</v>
@@ -5958,9 +5958,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="N32" s="7">
-        <v>2030</v>
-      </c>
       <c r="P32" s="7">
         <v>2021</v>
       </c>
@@ -5977,11 +5974,14 @@
       <c r="T32" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U32" s="8">
+        <v>3.5</v>
+      </c>
       <c r="V32" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X32" s="7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Y32" s="6" t="inlineStr">
         <is>
@@ -6134,9 +6134,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="N33" s="7">
-        <v>2030</v>
-      </c>
       <c r="Q33" s="7">
         <v>2021</v>
       </c>
@@ -6153,11 +6150,14 @@
       <c r="T33" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U33" s="8">
+        <v>5</v>
+      </c>
       <c r="V33" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W33" s="7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Y33" s="6" t="inlineStr">
         <is>
@@ -6310,9 +6310,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="N34" s="7">
-        <v>2030</v>
-      </c>
       <c r="Q34" s="7">
         <v>2021</v>
       </c>
@@ -6329,11 +6326,14 @@
       <c r="T34" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U34" s="8">
+        <v>5</v>
+      </c>
       <c r="V34" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W34" s="7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Y34" s="6" t="inlineStr">
         <is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -576,8 +576,8 @@
     <col customWidth="true" min="15" max="15" width="13.8359375"/>
     <col customWidth="true" min="16" max="16" width="13.8359375"/>
     <col customWidth="true" min="17" max="17" width="13.8359375"/>
-    <col customWidth="true" min="18" max="18" width="13.8359375"/>
-    <col customWidth="true" min="19" max="19" width="13.8359375"/>
+    <col customWidth="true" min="18" max="18" width="21.6796875"/>
+    <col customWidth="true" min="19" max="19" width="24.90234375"/>
     <col customWidth="true" min="20" max="20" width="30.3203125"/>
     <col customWidth="true" min="21" max="21" width="18.30859375"/>
     <col customWidth="true" min="22" max="22" width="18.30859375"/>
@@ -12291,7 +12291,10 @@
         </is>
       </c>
       <c r="T69" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="U69" s="8">
+        <v>15.8</v>
       </c>
       <c r="V69" s="8">
         <v>95</v>
@@ -12453,24 +12456,28 @@
       <c r="R70" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
-85 bis 80</t>
+85
+bis
+80</t>
         </is>
       </c>
       <c r="S70" s="4" t="inlineStr">
         <is>
           <t>Target:
 between 
-80 and 85</t>
+80 
+and 
+85</t>
         </is>
       </c>
       <c r="T70" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" s="8">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="V70" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y70" s="6" t="inlineStr">
         <is>
@@ -12534,7 +12541,7 @@
       </c>
       <c r="AK70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AL70" s="4" t="inlineStr">
@@ -15512,23 +15519,24 @@
       </c>
       <c r="R88" s="4" t="inlineStr">
         <is>
-          <t>Netto-
-Treibhausgas-
-neutralität</t>
+          <t>Netto-Treibhaus-
+gasneutralität</t>
         </is>
       </c>
       <c r="S88" s="4" t="inlineStr">
         <is>
-          <t>Net
-greenhouse gas
-neutrality</t>
+          <t>Net greenhouse 
+gas neutrality</t>
         </is>
       </c>
       <c r="T88" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U88" s="8">
+        <v>33.8</v>
+      </c>
       <c r="V88" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y88" s="6" t="inlineStr">
         <is>
@@ -16026,12 +16034,12 @@
       </c>
       <c r="R91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährliches Ziel Ostsee: 2,6</t>
         </is>
       </c>
       <c r="S91" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Annual target Baltic sea: 2,6</t>
         </is>
       </c>
       <c r="T91" s="5" t="b">
@@ -16193,12 +16201,12 @@
       </c>
       <c r="R92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährliches Ziel Nordsee: 2,8</t>
         </is>
       </c>
       <c r="S92" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Annual target North sea: 2,8</t>
         </is>
       </c>
       <c r="T92" s="5" t="b">
@@ -18396,7 +18404,7 @@
         <v>237000</v>
       </c>
       <c r="W105" s="7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Y105" s="6" t="inlineStr">
         <is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -1219,6 +1219,9 @@
       <c r="T4" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U4" s="8">
+        <v>30.8</v>
+      </c>
       <c r="V4" s="8">
         <v>80</v>
       </c>
@@ -1562,6 +1565,9 @@
       <c r="T6" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U6" s="8">
+        <v>22.9</v>
+      </c>
       <c r="V6" s="8">
         <v>33</v>
       </c>
@@ -1896,6 +1902,9 @@
       <c r="T8" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U8" s="8">
+        <v>29.9</v>
+      </c>
       <c r="V8" s="8">
         <v>60</v>
       </c>
@@ -2066,6 +2075,9 @@
       <c r="T9" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U9" s="8">
+        <v>29.9</v>
+      </c>
       <c r="V9" s="8">
         <v>225</v>
       </c>
@@ -2236,6 +2248,9 @@
       <c r="T10" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U10" s="8">
+        <v>18.9</v>
+      </c>
       <c r="V10" s="8">
         <v>9</v>
       </c>
@@ -2406,6 +2421,9 @@
       <c r="T11" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U11" s="8">
+        <v>18.9</v>
+      </c>
       <c r="V11" s="8">
         <v>21</v>
       </c>
@@ -5963,19 +5981,19 @@
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährliches Ziel: 10 Millionen</t>
         </is>
       </c>
       <c r="S32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Annual target: 10 million</t>
         </is>
       </c>
       <c r="T32" s="5" t="b">
         <v>1</v>
       </c>
       <c r="U32" s="8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="V32" s="8">
         <v>17</v>
@@ -6139,12 +6157,12 @@
       </c>
       <c r="R33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährliches Ziel: 6 Millionen</t>
         </is>
       </c>
       <c r="S33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Annual target: 6 million</t>
         </is>
       </c>
       <c r="T33" s="5" t="b">
@@ -6315,12 +6333,12 @@
       </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährliches Ziel: 4 Millionen</t>
         </is>
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Annual target: 4 million</t>
         </is>
       </c>
       <c r="T34" s="5" t="b">
@@ -10781,7 +10799,7 @@
         <v>1</v>
       </c>
       <c r="U60" s="8">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="V60" s="8">
         <v>3.8</v>
@@ -12291,7 +12309,7 @@
         </is>
       </c>
       <c r="T69" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="8">
         <v>15.8</v>
@@ -12471,7 +12489,7 @@
         </is>
       </c>
       <c r="T70" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="8">
         <v>15.8</v>
@@ -15519,24 +15537,22 @@
       </c>
       <c r="R88" s="4" t="inlineStr">
         <is>
-          <t>Netto-Treibhaus-
-gasneutralität</t>
+          <t>Netto-Treibhausgasneutralität</t>
         </is>
       </c>
       <c r="S88" s="4" t="inlineStr">
         <is>
-          <t>Net greenhouse 
-gas neutrality</t>
+          <t>Net greenhouse gas neutrality</t>
         </is>
       </c>
       <c r="T88" s="5" t="b">
         <v>1</v>
       </c>
       <c r="U88" s="8">
-        <v>33.8</v>
+        <v>31</v>
       </c>
       <c r="V88" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y88" s="6" t="inlineStr">
         <is>
@@ -16382,6 +16398,9 @@
       <c r="T93" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U93" s="8">
+        <v>16.9</v>
+      </c>
       <c r="V93" s="8">
         <v>90</v>
       </c>
@@ -16552,6 +16571,9 @@
       <c r="T94" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U94" s="8">
+        <v>26.8</v>
+      </c>
       <c r="V94" s="8">
         <v>90</v>
       </c>
@@ -17396,7 +17418,7 @@
         <v>1</v>
       </c>
       <c r="U99" s="8">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="V99" s="8">
         <v>7000</v>
@@ -18063,6 +18085,9 @@
       <c r="T103" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U103" s="8">
+        <v>26.8</v>
+      </c>
       <c r="V103" s="8">
         <v>0.75</v>
       </c>
@@ -18572,6 +18597,9 @@
       </c>
       <c r="T106" s="5" t="b">
         <v>1</v>
+      </c>
+      <c r="U106" s="8">
+        <v>19.8</v>
       </c>
       <c r="V106" s="8">
         <v>1.3</v>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -15549,10 +15549,10 @@
         <v>1</v>
       </c>
       <c r="U88" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V88" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y88" s="6" t="inlineStr">
         <is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="D22" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="b">
         <v>0</v>
@@ -4274,9 +4274,6 @@
       </c>
       <c r="N22" s="7">
         <v>2020</v>
-      </c>
-      <c r="P22" s="7">
-        <v>2022</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -4444,6 +4441,9 @@
       </c>
       <c r="N23" s="7">
         <v>2030</v>
+      </c>
+      <c r="O23" s="7">
+        <v>2020</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>1</v>
       </c>
       <c r="U88" s="8">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="V88" s="8">
         <v>2</v>
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="V91" s="8">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Y91" s="6" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>1</v>
       </c>
       <c r="V92" s="8">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Y92" s="6" t="inlineStr">
         <is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -5993,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V32" s="8">
         <v>17</v>
@@ -18022,7 +18022,7 @@
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="D103" s="5" t="b">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -5981,12 +5981,12 @@
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Ziel: 10 Millionen</t>
+          <t>Jährliches Ziel insgesamt: 10 Millionen</t>
         </is>
       </c>
       <c r="S32" s="4" t="inlineStr">
         <is>
-          <t>Annual target: 10 million</t>
+          <t>Annual target total: 10 million</t>
         </is>
       </c>
       <c r="T32" s="5" t="b">
@@ -6157,12 +6157,12 @@
       </c>
       <c r="R33" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Ziel: 6 Millionen</t>
+          <t>Jährliches Ziel a) Trinkwasserversorgung: 6 Millionen</t>
         </is>
       </c>
       <c r="S33" s="4" t="inlineStr">
         <is>
-          <t>Annual target: 6 million</t>
+          <t>Annual target a) Access to drinking water: 6 million</t>
         </is>
       </c>
       <c r="T33" s="5" t="b">
@@ -6333,12 +6333,12 @@
       </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Ziel: 4 Millionen</t>
+          <t>Jährliches Ziel b) Sanitärversorgung: 4 Millionen</t>
         </is>
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
-          <t>Annual target: 4 million</t>
+          <t>Annual target b) Access to sanitation: 4 million</t>
         </is>
       </c>
       <c r="T34" s="5" t="b">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -5990,7 +5990,7 @@
         </is>
       </c>
       <c r="T32" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="8">
         <v>3.4</v>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="T33" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="8">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="T34" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="8">
         <v>5</v>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -5129,14 +5129,14 @@
         <is>
           <t>Ziel:
 Gleichberechtigte 
-Teilhabe ¹</t>
+Teilhabe</t>
         </is>
       </c>
       <c r="S27" s="4" t="inlineStr">
         <is>
           <t>Target: 
 equal
-participation ¹</t>
+participation</t>
         </is>
       </c>
       <c r="T27" s="5" t="b">
@@ -5474,12 +5474,12 @@
       </c>
       <c r="R29" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 473 ¹</t>
+          <t>Ziel: 473</t>
         </is>
       </c>
       <c r="S29" s="4" t="inlineStr">
         <is>
-          <t>Target: 473 ¹</t>
+          <t>Target: 473</t>
         </is>
       </c>
       <c r="T29" s="5" t="b">
@@ -6510,13 +6510,13 @@
       <c r="R35" s="4" t="inlineStr">
         <is>
           <t>Ziel:
-239 ¹</t>
+239</t>
         </is>
       </c>
       <c r="S35" s="4" t="inlineStr">
         <is>
           <t>Target:
-239 ¹</t>
+239</t>
         </is>
       </c>
       <c r="T35" s="5" t="b">
@@ -7824,7 +7824,7 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2020</t>
+          <t>W_0702bx_2020</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -7838,13 +7838,13 @@
         </is>
       </c>
       <c r="D43" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
@@ -8919,6 +8919,9 @@
       <c r="N49" s="7">
         <v>2030</v>
       </c>
+      <c r="O49" s="7">
+        <v>2020</v>
+      </c>
       <c r="Q49" s="7">
         <v>2022</v>
       </c>
@@ -9086,7 +9089,7 @@
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>160,2</t>
+          <t>160</t>
         </is>
       </c>
       <c r="N50" s="7">
@@ -9094,14 +9097,14 @@
       </c>
       <c r="R50" s="4" t="inlineStr">
         <is>
-          <t>Ziel:
-160 ¹</t>
+          <t>Ziel Gesamtrohstoffproduktivität:
+160</t>
         </is>
       </c>
       <c r="S50" s="4" t="inlineStr">
         <is>
-          <t>Target:
-160 ¹</t>
+          <t>Target raw material input productivity:
+160</t>
         </is>
       </c>
       <c r="T50" s="5" t="b">
@@ -11473,7 +11476,7 @@
         <v>1</v>
       </c>
       <c r="V64" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y64" s="6" t="inlineStr">
         <is>
@@ -14261,7 +14264,7 @@
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2020</t>
+          <t>W_1301ax_2020</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -14275,13 +14278,13 @@
         </is>
       </c>
       <c r="D81" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F81" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
@@ -15180,6 +15183,9 @@
       <c r="N86" s="7">
         <v>2030</v>
       </c>
+      <c r="O86" s="7">
+        <v>2020</v>
+      </c>
       <c r="Q86" s="7">
         <v>2022</v>
       </c>
@@ -16734,13 +16740,13 @@
       <c r="R95" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
-50 % ¹</t>
+50 %</t>
         </is>
       </c>
       <c r="S95" s="4" t="inlineStr">
         <is>
           <t>Target: 
-50% ¹</t>
+50%</t>
         </is>
       </c>
       <c r="T95" s="5" t="b">
@@ -18411,12 +18417,12 @@
       </c>
       <c r="R105" s="4" t="inlineStr">
         <is>
-          <t>Ziel: 237 000 ¹</t>
+          <t>Ziel: 237 000</t>
         </is>
       </c>
       <c r="S105" s="4" t="inlineStr">
         <is>
-          <t>Target: 237,000 ¹</t>
+          <t>Target: 237,000</t>
         </is>
       </c>
       <c r="T105" s="5" t="b">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -7900,6 +7900,9 @@
       <c r="T43" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="V43" s="8">
+        <v>25</v>
+      </c>
       <c r="Y43" s="6" t="inlineStr">
         <is>
           <t/>
@@ -9097,14 +9100,12 @@
       </c>
       <c r="R50" s="4" t="inlineStr">
         <is>
-          <t>Ziel Gesamtrohstoffproduktivität:
-160</t>
+          <t/>
         </is>
       </c>
       <c r="S50" s="4" t="inlineStr">
         <is>
-          <t>Target raw material input productivity:
-160</t>
+          <t/>
         </is>
       </c>
       <c r="T50" s="5" t="b">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -1319,7 +1319,7 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>W_0201b_2030a</t>
+          <t>W_0201bx_2030</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -1489,7 +1489,7 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>W_0201b_2030b</t>
+          <t>W_0201b_2030</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -3359,7 +3359,7 @@
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>W_0401a_2020</t>
+          <t>W_0401ax_2020</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -3702,7 +3702,7 @@
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>W_0401b_2020</t>
+          <t>W_0401bx_2020</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -7824,7 +7824,7 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2020</t>
+          <t>W_0702b_2020</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -7997,7 +7997,7 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030a</t>
+          <t>W_0702bx_2030a</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -8170,7 +8170,7 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030b</t>
+          <t>W_0702bx_2030b</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -8343,7 +8343,7 @@
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2040</t>
+          <t>W_0702bx_2040</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -8516,7 +8516,7 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050a</t>
+          <t>W_0702bx_2050a</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -8689,7 +8689,7 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2050b</t>
+          <t>W_0702bx_2050b</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -8862,7 +8862,7 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2030</t>
+          <t>W_0702b_2030</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -10556,7 +10556,7 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>W_0901a_Ja</t>
+          <t>W_0901ax_J</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -10726,7 +10726,7 @@
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>W_0901a_Jb</t>
+          <t>W_0901a_J</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -14265,7 +14265,7 @@
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2020</t>
+          <t>W_1301a_2020</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -14435,7 +14435,7 @@
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2030a</t>
+          <t>W_1301ax_2030</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -14605,7 +14605,7 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2040a</t>
+          <t>W_1301ax_2040</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -14778,7 +14778,7 @@
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2050a</t>
+          <t>W_1301ax_2050a</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -14948,7 +14948,7 @@
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2050b</t>
+          <t>W_1301ax_2050b</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -15124,7 +15124,7 @@
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2030b</t>
+          <t>W_1301a_2030</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -15300,7 +15300,7 @@
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2040b</t>
+          <t>W_1301a_2040</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -15476,7 +15476,7 @@
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2045</t>
+          <t>W_1301a_2045</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D89" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="5" t="b">
         <v>0</v>
@@ -15885,6 +15885,9 @@
       <c r="N90" s="7">
         <v>2025</v>
       </c>
+      <c r="O90" s="7">
+        <v>2020</v>
+      </c>
       <c r="Q90" s="7">
         <v>2022</v>
       </c>
@@ -17178,7 +17181,7 @@
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>W_1601x_2030a</t>
+          <t>W_1601x_2030</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -17348,7 +17351,7 @@
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>W_1601x_2030b</t>
+          <t>W_1601_2030</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -1319,7 +1319,7 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>W_0201bx_2030</t>
+          <t>W_0201b_2030</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="D5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -1353,12 +1353,12 @@
       </c>
       <c r="I5" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf &lt;b&gt;20 %&lt;/b&gt; bis 2030</t>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf &lt;b&gt;30 %&lt;/b&gt; bis 2030</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;20%&lt;/b&gt; by 2030</t>
+          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;30%&lt;/b&gt; by 2030</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
@@ -1373,13 +1373,13 @@
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N5" s="7">
         <v>2030</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>2022</v>
       </c>
       <c r="R5" s="4" t="inlineStr">
@@ -1393,7 +1393,13 @@
         </is>
       </c>
       <c r="T5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>22.9</v>
+      </c>
+      <c r="V5" s="8">
+        <v>33</v>
       </c>
       <c r="Y5" s="6" t="inlineStr">
         <is>
@@ -1489,7 +1495,7 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>W_0201b_2030</t>
+          <t>W_0201bx_2030</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -1503,13 +1509,13 @@
         </is>
       </c>
       <c r="D6" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -1523,12 +1529,12 @@
       </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf &lt;b&gt;30 %&lt;/b&gt; bis 2030</t>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf &lt;b&gt;20 %&lt;/b&gt; bis 2030</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;30%&lt;/b&gt; by 2030</t>
+          <t>Increase the proportion of organically farmed agricultural land to &lt;b&gt;20%&lt;/b&gt; by 2030</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
@@ -1543,13 +1549,13 @@
       </c>
       <c r="M6" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N6" s="7">
         <v>2030</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="P6" s="7">
         <v>2022</v>
       </c>
       <c r="R6" s="4" t="inlineStr">
@@ -1563,13 +1569,7 @@
         </is>
       </c>
       <c r="T6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8">
-        <v>22.9</v>
-      </c>
-      <c r="V6" s="8">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="6" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>W_0401ax_2020</t>
+          <t>W_0401a_2030</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -3373,13 +3373,13 @@
         </is>
       </c>
       <c r="D17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -3393,12 +3393,12 @@
       </c>
       <c r="I17" s="6" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf &lt;b&gt;10 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Verringerung des Anteils auf &lt;b&gt;9,5 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to &lt;b&gt;10%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Reduce the proportion to &lt;b&gt;9.5%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
@@ -3413,13 +3413,13 @@
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="N17" s="7">
-        <v>2020</v>
-      </c>
-      <c r="P17" s="7">
+        <v>2030</v>
+      </c>
+      <c r="Q17" s="7">
         <v>2021</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
@@ -3433,7 +3433,10 @@
         </is>
       </c>
       <c r="T17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V17" s="8">
+        <v>8</v>
       </c>
       <c r="Y17" s="6" t="inlineStr">
         <is>
@@ -3477,12 +3480,12 @@
       </c>
       <c r="AG17" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AH17" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AI17" s="4" t="inlineStr">
@@ -3502,7 +3505,7 @@
       </c>
       <c r="AL17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>B</t>
         </is>
       </c>
       <c r="AM17" s="4" t="inlineStr">
@@ -3529,7 +3532,7 @@
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>W_0401a_2030</t>
+          <t>W_0401ax_2020</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -3543,13 +3546,13 @@
         </is>
       </c>
       <c r="D18" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -3563,12 +3566,12 @@
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf &lt;b&gt;9,5 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Verringerung des Anteils auf &lt;b&gt;10 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to &lt;b&gt;9.5%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce the proportion to &lt;b&gt;10%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
@@ -3583,13 +3586,13 @@
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N18" s="7">
-        <v>2030</v>
-      </c>
-      <c r="Q18" s="7">
+        <v>2020</v>
+      </c>
+      <c r="P18" s="7">
         <v>2021</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
@@ -3603,10 +3606,7 @@
         </is>
       </c>
       <c r="T18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V18" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="6" t="inlineStr">
         <is>
@@ -3650,12 +3650,12 @@
       </c>
       <c r="AG18" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AH18" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AI18" s="4" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="AL18" s="4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t/>
         </is>
       </c>
       <c r="AM18" s="4" t="inlineStr">
@@ -3702,7 +3702,7 @@
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>W_0401bx_2020</t>
+          <t>W_0401b_2030</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="D19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -3736,12 +3736,12 @@
       </c>
       <c r="I19" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf &lt;b&gt;42 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Steigerung des Anteils auf &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to &lt;b&gt;24%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
+          <t>Increase the proportion to &lt;b&gt;55%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
@@ -3756,13 +3756,13 @@
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N19" s="7">
-        <v>2020</v>
-      </c>
-      <c r="P19" s="7">
+        <v>2030</v>
+      </c>
+      <c r="Q19" s="7">
         <v>2021</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
@@ -3776,7 +3776,10 @@
         </is>
       </c>
       <c r="T19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V19" s="8">
+        <v>60</v>
       </c>
       <c r="Y19" s="6" t="inlineStr">
         <is>
@@ -3845,7 +3848,7 @@
       </c>
       <c r="AL19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>S</t>
         </is>
       </c>
       <c r="AM19" s="4" t="inlineStr">
@@ -3872,7 +3875,7 @@
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>W_0401b_2030</t>
+          <t>W_0401bx_2020</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -3886,13 +3889,13 @@
         </is>
       </c>
       <c r="D20" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -3906,12 +3909,12 @@
       </c>
       <c r="I20" s="6" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Steigerung des Anteils auf &lt;b&gt;42 %&lt;/b&gt; bis &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to &lt;b&gt;55%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase the proportion to &lt;b&gt;24%&lt;/b&gt; by &lt;b&gt;2020&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -3926,13 +3929,13 @@
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N20" s="7">
-        <v>2030</v>
-      </c>
-      <c r="Q20" s="7">
+        <v>2020</v>
+      </c>
+      <c r="P20" s="7">
         <v>2021</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
@@ -3946,10 +3949,7 @@
         </is>
       </c>
       <c r="T20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V20" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="6" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="AL20" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AM20" s="4" t="inlineStr">
@@ -7997,7 +7997,7 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2030a</t>
+          <t>W_0702b_2030</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -8011,32 +8011,32 @@
         </is>
       </c>
       <c r="D44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 50 % bis 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
+          <t>Increase to 80% by 2030</t>
         </is>
       </c>
       <c r="I44" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;50%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N44" s="7">
@@ -8060,8 +8060,8 @@
       <c r="O44" s="7">
         <v>2020</v>
       </c>
-      <c r="P44" s="7">
-        <v>2021</v>
+      <c r="Q44" s="7">
+        <v>2022</v>
       </c>
       <c r="R44" s="4" t="inlineStr">
         <is>
@@ -8074,7 +8074,10 @@
         </is>
       </c>
       <c r="T44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V44" s="8">
+        <v>70</v>
       </c>
       <c r="Y44" s="6" t="inlineStr">
         <is>
@@ -8113,37 +8116,37 @@
       </c>
       <c r="AF44" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AG44" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AH44" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AI44" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AJ44" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AK44" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AL44" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AM44" s="4" t="inlineStr">
@@ -8170,7 +8173,7 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2030b</t>
+          <t>W_0702bx_2030a</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -8194,22 +8197,22 @@
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2030</t>
+          <t>Anstieg auf 50 % bis 2030</t>
         </is>
       </c>
       <c r="H45" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
+          <t>Increase to 50% by 2030</t>
         </is>
       </c>
       <c r="I45" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;50%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
@@ -8224,16 +8227,16 @@
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N45" s="7">
         <v>2030</v>
       </c>
+      <c r="O45" s="7">
+        <v>2020</v>
+      </c>
       <c r="P45" s="7">
-        <v>2022</v>
-      </c>
-      <c r="Q45" s="7">
         <v>2021</v>
       </c>
       <c r="R45" s="4" t="inlineStr">
@@ -8291,7 +8294,7 @@
       </c>
       <c r="AG45" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AH45" s="4" t="inlineStr">
@@ -8316,7 +8319,7 @@
       </c>
       <c r="AL45" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM45" s="4" t="inlineStr">
@@ -8343,7 +8346,7 @@
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2040</t>
+          <t>W_0702bx_2030b</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -8367,22 +8370,22 @@
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2040</t>
+          <t>Anstieg auf 65 % bis 2030</t>
         </is>
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2040</t>
+          <t>Increase to 65% by 2030</t>
         </is>
       </c>
       <c r="I46" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
@@ -8401,12 +8404,12 @@
         </is>
       </c>
       <c r="N46" s="7">
-        <v>2040</v>
-      </c>
-      <c r="O46" s="7">
         <v>2030</v>
       </c>
       <c r="P46" s="7">
+        <v>2022</v>
+      </c>
+      <c r="Q46" s="7">
         <v>2021</v>
       </c>
       <c r="R46" s="4" t="inlineStr">
@@ -8464,7 +8467,7 @@
       </c>
       <c r="AG46" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AH46" s="4" t="inlineStr">
@@ -8489,7 +8492,7 @@
       </c>
       <c r="AL46" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AM46" s="4" t="inlineStr">
@@ -8516,7 +8519,7 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2050a</t>
+          <t>W_0702bx_2040</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -8540,22 +8543,22 @@
       </c>
       <c r="G47" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2050</t>
+          <t>Anstieg auf 65 % bis 2040</t>
         </is>
       </c>
       <c r="H47" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2050</t>
+          <t>Increase to 65% by 2040</t>
         </is>
       </c>
       <c r="I47" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by 2050&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
@@ -8570,14 +8573,14 @@
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>65</t>
         </is>
       </c>
       <c r="N47" s="7">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="O47" s="7">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="P47" s="7">
         <v>2021</v>
@@ -8689,7 +8692,7 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2050b</t>
+          <t>W_0702bx_2050a</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -8713,22 +8716,22 @@
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität bis 2050</t>
+          <t>Anstieg auf 80 % bis 2050</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality by 2050</t>
+          <t>Increase to 80% by 2050</t>
         </is>
       </c>
       <c r="I48" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Treibhausgasneutralität&lt;/b&gt; des in Deutschland erzeugten und verbrauchten Stroms bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; of electricity generated and consumed in Germany by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by 2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
@@ -8743,16 +8746,16 @@
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N48" s="7">
         <v>2050</v>
       </c>
+      <c r="O48" s="7">
+        <v>2040</v>
+      </c>
       <c r="P48" s="7">
-        <v>2022</v>
-      </c>
-      <c r="Q48" s="7">
         <v>2021</v>
       </c>
       <c r="R48" s="4" t="inlineStr">
@@ -8835,7 +8838,7 @@
       </c>
       <c r="AL48" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM48" s="4" t="inlineStr">
@@ -8862,7 +8865,7 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>W_0702b_2030</t>
+          <t>W_0702bx_2050b</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -8876,32 +8879,32 @@
         </is>
       </c>
       <c r="D49" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="H49" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2030</t>
+          <t>Greenhouse gas neutrality by 2050</t>
         </is>
       </c>
       <c r="I49" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>&lt;b&gt;Treibhausgasneutralität&lt;/b&gt; des in Deutschland erzeugten und verbrauchten Stroms bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; of electricity generated and consumed in Germany by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
@@ -8916,17 +8919,17 @@
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
       <c r="N49" s="7">
-        <v>2030</v>
-      </c>
-      <c r="O49" s="7">
-        <v>2020</v>
+        <v>2050</v>
+      </c>
+      <c r="P49" s="7">
+        <v>2022</v>
       </c>
       <c r="Q49" s="7">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R49" s="4" t="inlineStr">
         <is>
@@ -8939,10 +8942,7 @@
         </is>
       </c>
       <c r="T49" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V49" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="6" t="inlineStr">
         <is>
@@ -8981,37 +8981,37 @@
       </c>
       <c r="AF49" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AK49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AL49" s="4" t="inlineStr">
+        <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AG49" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AH49" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AI49" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AJ49" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AK49" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AL49" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
         </is>
       </c>
       <c r="AM49" s="4" t="inlineStr">
@@ -10556,7 +10556,7 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>W_0901ax_J</t>
+          <t>W_0901a_J</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -10570,13 +10570,13 @@
         </is>
       </c>
       <c r="D59" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="6" t="inlineStr">
         <is>
@@ -10590,12 +10590,12 @@
       </c>
       <c r="I59" s="6" t="inlineStr">
         <is>
-          <t>Jährlich mindestens &lt;b&gt;3 %&lt;/b&gt; des BIP bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Jährlich mindestens &lt;b&gt;3,5 %&lt;/b&gt; des BIP bis &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>At least &lt;b&gt;3%&lt;/b&gt; of GDP per year by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>At least &lt;b&gt;3.5%&lt;/b&gt; of GDP per year by &lt;b&gt;2025&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
@@ -10610,27 +10610,36 @@
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="N59" s="7">
-        <v>2030</v>
-      </c>
-      <c r="P59" s="7">
+        <v>2025</v>
+      </c>
+      <c r="Q59" s="7">
         <v>2018</v>
       </c>
       <c r="R59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziel: Jährlich 3,5 % des BIP</t>
         </is>
       </c>
       <c r="S59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Target: 3.5% of GDP every year</t>
         </is>
       </c>
       <c r="T59" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U59" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="V59" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="W59" s="7">
+        <v>2015</v>
       </c>
       <c r="Y59" s="6" t="inlineStr">
         <is>
@@ -10679,22 +10688,22 @@
       </c>
       <c r="AH59" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AI59" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AJ59" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AK59" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AL59" s="4" t="inlineStr">
@@ -10726,7 +10735,7 @@
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>W_0901a_J</t>
+          <t>W_0901ax_J</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -10740,13 +10749,13 @@
         </is>
       </c>
       <c r="D60" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="6" t="inlineStr">
         <is>
@@ -10760,12 +10769,12 @@
       </c>
       <c r="I60" s="6" t="inlineStr">
         <is>
-          <t>Jährlich mindestens &lt;b&gt;3,5 %&lt;/b&gt; des BIP bis &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>Jährlich mindestens &lt;b&gt;3 %&lt;/b&gt; des BIP bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>At least &lt;b&gt;3.5%&lt;/b&gt; of GDP per year by &lt;b&gt;2025&lt;/b&gt;</t>
+          <t>At least &lt;b&gt;3%&lt;/b&gt; of GDP per year by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
@@ -10780,36 +10789,27 @@
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N60" s="7">
-        <v>2025</v>
-      </c>
-      <c r="Q60" s="7">
+        <v>2030</v>
+      </c>
+      <c r="P60" s="7">
         <v>2018</v>
       </c>
       <c r="R60" s="4" t="inlineStr">
         <is>
-          <t>Ziel: Jährlich 3,5 % des BIP</t>
+          <t/>
         </is>
       </c>
       <c r="S60" s="4" t="inlineStr">
         <is>
-          <t>Target: 3.5% of GDP every year</t>
+          <t/>
         </is>
       </c>
       <c r="T60" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U60" s="8">
-        <v>27.7</v>
-      </c>
-      <c r="V60" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="W60" s="7">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="6" t="inlineStr">
         <is>
@@ -10858,22 +10858,22 @@
       </c>
       <c r="AH60" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AI60" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AJ60" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AK60" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AL60" s="4" t="inlineStr">
@@ -14435,7 +14435,7 @@
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2030</t>
+          <t>W_1301a_2030</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -14449,13 +14449,13 @@
         </is>
       </c>
       <c r="D82" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="6" t="inlineStr">
         <is>
@@ -14469,12 +14469,12 @@
       </c>
       <c r="I82" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J82" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;55%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K82" s="4" t="inlineStr">
@@ -14489,13 +14489,16 @@
       </c>
       <c r="M82" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N82" s="7">
         <v>2030</v>
       </c>
-      <c r="P82" s="7">
+      <c r="O82" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q82" s="7">
         <v>2022</v>
       </c>
       <c r="R82" s="4" t="inlineStr">
@@ -14509,7 +14512,10 @@
         </is>
       </c>
       <c r="T82" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V82" s="8">
+        <v>41</v>
       </c>
       <c r="Y82" s="6" t="inlineStr">
         <is>
@@ -14568,7 +14574,7 @@
       </c>
       <c r="AJ82" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AK82" s="4" t="inlineStr">
@@ -14578,7 +14584,7 @@
       </c>
       <c r="AL82" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AM82" s="4" t="inlineStr">
@@ -14605,7 +14611,7 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2040</t>
+          <t>W_1301a_2040</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -14619,13 +14625,13 @@
         </is>
       </c>
       <c r="D83" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F83" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
@@ -14639,12 +14645,12 @@
       </c>
       <c r="I83" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J83" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;88%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K83" s="4" t="inlineStr">
@@ -14659,7 +14665,7 @@
       </c>
       <c r="M83" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N83" s="7">
@@ -14668,8 +14674,8 @@
       <c r="O83" s="7">
         <v>2030</v>
       </c>
-      <c r="P83" s="7">
-        <v>2021</v>
+      <c r="Q83" s="7">
+        <v>2022</v>
       </c>
       <c r="R83" s="4" t="inlineStr">
         <is>
@@ -14682,7 +14688,10 @@
         </is>
       </c>
       <c r="T83" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V83" s="8">
+        <v>18</v>
       </c>
       <c r="Y83" s="6" t="inlineStr">
         <is>
@@ -14741,17 +14750,17 @@
       </c>
       <c r="AJ83" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AK83" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AL83" s="4" t="inlineStr">
+        <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AK83" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AL83" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
         </is>
       </c>
       <c r="AM83" s="4" t="inlineStr">
@@ -14778,7 +14787,7 @@
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2050a</t>
+          <t>W_1301a_2045</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -14792,13 +14801,13 @@
         </is>
       </c>
       <c r="D84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="6" t="inlineStr">
         <is>
@@ -14812,12 +14821,12 @@
       </c>
       <c r="I84" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J84" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;80%&lt;/b&gt; to &lt;b&gt;95%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K84" s="4" t="inlineStr">
@@ -14832,27 +14841,36 @@
       </c>
       <c r="M84" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N84" s="7">
-        <v>2050</v>
-      </c>
-      <c r="P84" s="7">
-        <v>2021</v>
+        <v>2045</v>
+      </c>
+      <c r="O84" s="7">
+        <v>2040</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>2022</v>
       </c>
       <c r="R84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Netto-Treibhausgasneutralität</t>
         </is>
       </c>
       <c r="S84" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Net greenhouse gas neutrality</t>
         </is>
       </c>
       <c r="T84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U84" s="8">
+        <v>29.5</v>
+      </c>
+      <c r="V84" s="8">
+        <v>2</v>
       </c>
       <c r="Y84" s="6" t="inlineStr">
         <is>
@@ -14906,22 +14924,22 @@
       </c>
       <c r="AI84" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ84" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AK84" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AL84" s="4" t="inlineStr">
+        <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AJ84" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AK84" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AL84" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
         </is>
       </c>
       <c r="AM84" s="4" t="inlineStr">
@@ -14948,7 +14966,7 @@
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2050b</t>
+          <t>W_1301ax_2030</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -14982,12 +15000,12 @@
       </c>
       <c r="I85" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;55 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J85" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;55%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K85" s="4" t="inlineStr">
@@ -15002,21 +15020,15 @@
       </c>
       <c r="M85" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N85" s="7">
-        <v>2050</v>
-      </c>
-      <c r="O85" s="7">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="P85" s="7">
         <v>2022</v>
       </c>
-      <c r="Q85" s="7">
-        <v>2021</v>
-      </c>
       <c r="R85" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15087,7 +15099,7 @@
       </c>
       <c r="AJ85" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AK85" s="4" t="inlineStr">
@@ -15124,7 +15136,7 @@
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2030</t>
+          <t>W_1301ax_2040</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -15138,13 +15150,13 @@
         </is>
       </c>
       <c r="D86" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
@@ -15158,12 +15170,12 @@
       </c>
       <c r="I86" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J86" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K86" s="4" t="inlineStr">
@@ -15178,17 +15190,17 @@
       </c>
       <c r="M86" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N86" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O86" s="7">
         <v>2030</v>
       </c>
-      <c r="O86" s="7">
-        <v>2020</v>
-      </c>
-      <c r="Q86" s="7">
-        <v>2022</v>
+      <c r="P86" s="7">
+        <v>2021</v>
       </c>
       <c r="R86" s="4" t="inlineStr">
         <is>
@@ -15201,10 +15213,7 @@
         </is>
       </c>
       <c r="T86" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V86" s="8">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="6" t="inlineStr">
         <is>
@@ -15263,7 +15272,7 @@
       </c>
       <c r="AJ86" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AK86" s="4" t="inlineStr">
@@ -15273,7 +15282,7 @@
       </c>
       <c r="AL86" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM86" s="4" t="inlineStr">
@@ -15300,7 +15309,7 @@
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2040</t>
+          <t>W_1301ax_2050a</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -15314,13 +15323,13 @@
         </is>
       </c>
       <c r="D87" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="6" t="inlineStr">
         <is>
@@ -15334,12 +15343,12 @@
       </c>
       <c r="I87" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;88 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J87" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;88%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;80%&lt;/b&gt; to &lt;b&gt;95%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K87" s="4" t="inlineStr">
@@ -15354,17 +15363,14 @@
       </c>
       <c r="M87" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N87" s="7">
-        <v>2040</v>
-      </c>
-      <c r="O87" s="7">
-        <v>2030</v>
-      </c>
-      <c r="Q87" s="7">
-        <v>2022</v>
+        <v>2050</v>
+      </c>
+      <c r="P87" s="7">
+        <v>2021</v>
       </c>
       <c r="R87" s="4" t="inlineStr">
         <is>
@@ -15377,10 +15383,7 @@
         </is>
       </c>
       <c r="T87" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V87" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="6" t="inlineStr">
         <is>
@@ -15434,12 +15437,12 @@
       </c>
       <c r="AI87" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AJ87" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AK87" s="4" t="inlineStr">
@@ -15449,7 +15452,7 @@
       </c>
       <c r="AL87" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM87" s="4" t="inlineStr">
@@ -15476,7 +15479,7 @@
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>W_1301a_2045</t>
+          <t>W_1301ax_2050b</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -15490,13 +15493,13 @@
         </is>
       </c>
       <c r="D88" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F88" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="6" t="inlineStr">
         <is>
@@ -15510,12 +15513,12 @@
       </c>
       <c r="I88" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2045&lt;/b&gt;</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J88" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2045&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K88" s="4" t="inlineStr">
@@ -15534,32 +15537,29 @@
         </is>
       </c>
       <c r="N88" s="7">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="O88" s="7">
         <v>2040</v>
       </c>
+      <c r="P88" s="7">
+        <v>2022</v>
+      </c>
       <c r="Q88" s="7">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R88" s="4" t="inlineStr">
         <is>
-          <t>Netto-Treibhausgasneutralität</t>
+          <t/>
         </is>
       </c>
       <c r="S88" s="4" t="inlineStr">
         <is>
-          <t>Net greenhouse gas neutrality</t>
+          <t/>
         </is>
       </c>
       <c r="T88" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U88" s="8">
-        <v>29.5</v>
-      </c>
-      <c r="V88" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="6" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="AL88" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM88" s="4" t="inlineStr">
@@ -17181,7 +17181,7 @@
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>W_1601x_2030</t>
+          <t>W_1601_2030</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -17195,13 +17195,13 @@
         </is>
       </c>
       <c r="D98" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
@@ -17215,12 +17215,12 @@
       </c>
       <c r="I98" s="6" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J98" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;7,000&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;6,500 &lt;/b&gt;by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K98" s="4" t="inlineStr">
@@ -17235,13 +17235,13 @@
       </c>
       <c r="M98" s="4" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>6500</t>
         </is>
       </c>
       <c r="N98" s="7">
         <v>2030</v>
       </c>
-      <c r="P98" s="7">
+      <c r="Q98" s="7">
         <v>2021</v>
       </c>
       <c r="R98" s="4" t="inlineStr">
@@ -17255,7 +17255,13 @@
         </is>
       </c>
       <c r="T98" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U98" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="V98" s="8">
+        <v>7000</v>
       </c>
       <c r="Y98" s="6" t="inlineStr">
         <is>
@@ -17351,7 +17357,7 @@
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>W_1601_2030</t>
+          <t>W_1601x_2030</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -17365,13 +17371,13 @@
         </is>
       </c>
       <c r="D99" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="6" t="inlineStr">
         <is>
@@ -17385,12 +17391,12 @@
       </c>
       <c r="I99" s="6" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter &lt;b&gt;6 500&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter &lt;b&gt;7 000&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J99" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;6,500 &lt;/b&gt;by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than &lt;b&gt;7,000&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K99" s="4" t="inlineStr">
@@ -17405,13 +17411,13 @@
       </c>
       <c r="M99" s="4" t="inlineStr">
         <is>
-          <t>6500</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="N99" s="7">
         <v>2030</v>
       </c>
-      <c r="Q99" s="7">
+      <c r="P99" s="7">
         <v>2021</v>
       </c>
       <c r="R99" s="4" t="inlineStr">
@@ -17425,13 +17431,7 @@
         </is>
       </c>
       <c r="T99" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U99" s="8">
-        <v>28.8</v>
-      </c>
-      <c r="V99" s="8">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="Y99" s="6" t="inlineStr">
         <is>

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -4275,6 +4275,9 @@
       <c r="N22" s="7">
         <v>2020</v>
       </c>
+      <c r="P22" s="7">
+        <v>2022</v>
+      </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4444,6 +4447,9 @@
       </c>
       <c r="O23" s="7">
         <v>2020</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>2022</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -16735,7 +16741,7 @@
       </c>
       <c r="M95" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N95" s="7">
@@ -16744,20 +16750,20 @@
       <c r="R95" s="4" t="inlineStr">
         <is>
           <t>Ziel: 
-50 %</t>
+52 %</t>
         </is>
       </c>
       <c r="S95" s="4" t="inlineStr">
         <is>
           <t>Target: 
-50%</t>
+52%</t>
         </is>
       </c>
       <c r="T95" s="5" t="b">
         <v>1</v>
       </c>
       <c r="V95" s="8">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Y95" s="6" t="inlineStr">
         <is>
@@ -16771,32 +16777,32 @@
       </c>
       <c r="AA95" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AB95" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AC95" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="AD95" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AE95" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="AF95" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t/>
         </is>
       </c>
       <c r="AG95" s="4" t="inlineStr">
@@ -16806,17 +16812,17 @@
       </c>
       <c r="AH95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AI95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AJ95" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AK95" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -584,7 +584,7 @@
     <col customWidth="true" min="23" max="23" width="13.62109375"/>
     <col customWidth="true" min="24" max="24" width="8.203125"/>
     <col customWidth="true" min="25" max="25" width="59.6171875"/>
-    <col customWidth="true" min="26" max="26" width="13.8359375"/>
+    <col customWidth="true" min="26" max="26" width="39.40234375"/>
     <col customWidth="true" min="27" max="27" width="13.8359375"/>
     <col customWidth="true" min="28" max="28" width="13.8359375"/>
     <col customWidth="true" min="29" max="29" width="13.8359375"/>
@@ -1403,12 +1403,12 @@
       </c>
       <c r="Y5" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 20 % bis 2030).</t>
         </is>
       </c>
       <c r="Z5" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 20% by 2030).</t>
         </is>
       </c>
       <c r="AA5" s="4" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="Y17" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 10 % bis 2020).</t>
         </is>
       </c>
       <c r="Z17" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 10% by 2020).</t>
         </is>
       </c>
       <c r="AA17" s="4" t="inlineStr">
@@ -3783,12 +3783,12 @@
       </c>
       <c r="Y19" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 42 % bis 2020).</t>
         </is>
       </c>
       <c r="Z19" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 42% by 2020).</t>
         </is>
       </c>
       <c r="AA19" s="4" t="inlineStr">
@@ -4469,12 +4469,12 @@
       </c>
       <c r="Y23" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs).</t>
         </is>
       </c>
       <c r="Z23" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (target for 2020 not applicable due to date of expiration).</t>
         </is>
       </c>
       <c r="AA23" s="4" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="Y25" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="Z25" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="AA25" s="4" t="inlineStr">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="AC27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AD27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AE27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>W</t>
         </is>
       </c>
       <c r="AF27" s="4" t="inlineStr">
@@ -6158,9 +6158,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="Q33" s="7">
-        <v>2021</v>
-      </c>
       <c r="R33" s="4" t="inlineStr">
         <is>
           <t>Jährliches Ziel a) Trinkwasserversorgung: 6 Millionen</t>
@@ -6334,9 +6331,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="Q34" s="7">
-        <v>2021</v>
-      </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
           <t>Jährliches Ziel b) Sanitärversorgung: 4 Millionen</t>
@@ -6703,12 +6697,12 @@
       </c>
       <c r="Y36" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="Z36" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="AA36" s="4" t="inlineStr">
@@ -7219,12 +7213,12 @@
       </c>
       <c r="Y39" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="Z39" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="AA39" s="4" t="inlineStr">
@@ -7911,12 +7905,12 @@
       </c>
       <c r="Y43" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="Z43" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="AA43" s="4" t="inlineStr">
@@ -8087,12 +8081,12 @@
       </c>
       <c r="Y44" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 65 % bis 2030).</t>
         </is>
       </c>
       <c r="Z44" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 65% by 2030).</t>
         </is>
       </c>
       <c r="AA44" s="4" t="inlineStr">
@@ -10649,12 +10643,12 @@
       </c>
       <c r="Y59" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 3 % bis 2030).</t>
         </is>
       </c>
       <c r="Z59" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 3% by 2030).</t>
         </is>
       </c>
       <c r="AA59" s="4" t="inlineStr">
@@ -11487,12 +11481,12 @@
       </c>
       <c r="Y64" s="6" t="inlineStr">
         <is>
-          <t>Die beiden Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen zeitgleich erfüllt werden. Hier werden beide Ziele einzeln bewertet und zu der offiziellen Bewertung des Indikators zusammengeführt, indem jeweils das schlechtere Wettersymbol der beiden Einzelbewertungen ausgewählt wird.</t>
+          <t>Beide Ziele „Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss“ und „Angleichung des Anteils an die Quote deutscher Schulabgänger“ sollen parallel erfüllt werden, sodass für die Gesamtbewertung des Indikators die Einzelbewertungen zusammengeführt werden, indem jeweils das "schlechtere" Wettersymbol übernommen wird.</t>
         </is>
       </c>
       <c r="Z64" s="6" t="inlineStr">
         <is>
-          <t>The two targets "increase the proportion of foreign school leavers with at least a secondary school leaving certificate" and "align the proportion with the rate of German school leavers" are to be met simultaneously. Here, both targets are evaluated individually and combined to form the official evaluation of the indicator by selecting the worse weather symbol of the two individual evaluations in each case.</t>
+          <t>The two targets of "increasing the proportion of foreign school leavers with at least a secondary school leaving certificate" and "aligning the proportion with the proportion of German school leavers" are to be met in parallel, so that for the overall evaluation of the indicator the individual evaluations are combined by adopting the "worse" weather symbol in each case.</t>
         </is>
       </c>
       <c r="AA64" s="4" t="inlineStr">
@@ -14349,12 +14343,12 @@
       </c>
       <c r="Y81" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="Z81" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="AA81" s="4" t="inlineStr">
@@ -14525,12 +14519,12 @@
       </c>
       <c r="Y82" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher mindestens 55 % bis 2030 gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050).</t>
         </is>
       </c>
       <c r="Z82" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously at least 55% by 2030; Greenhouse gas neutrality to be achieved by 2050).</t>
         </is>
       </c>
       <c r="AA82" s="4" t="inlineStr">
@@ -15915,12 +15909,12 @@
       </c>
       <c r="Y90" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs).</t>
         </is>
       </c>
       <c r="Z90" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (target for 2020 not applicable due to date of expiration).</t>
         </is>
       </c>
       <c r="AA90" s="4" t="inlineStr">
@@ -17271,12 +17265,12 @@
       </c>
       <c r="Y98" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 7 000 bis 2030).</t>
         </is>
       </c>
       <c r="Z98" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 7,000 by 2030).</t>
         </is>
       </c>
       <c r="AA98" s="4" t="inlineStr">
@@ -18276,12 +18270,12 @@
       </c>
       <c r="Y104" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="Z104" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="AA104" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -4293,12 +4293,12 @@
       </c>
       <c r="Y22" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs</t>
         </is>
       </c>
       <c r="Z22" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="AA22" s="4" t="inlineStr">
@@ -4469,12 +4469,12 @@
       </c>
       <c r="Y23" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs).</t>
+          <t/>
         </is>
       </c>
       <c r="Z23" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (target for 2020 not applicable due to date of expiration).</t>
+          <t/>
         </is>
       </c>
       <c r="AA23" s="4" t="inlineStr">
@@ -4642,12 +4642,12 @@
       </c>
       <c r="Y24" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="Z24" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Omission of 2020 target due to expiration of time.</t>
         </is>
       </c>
       <c r="AA24" s="4" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="Y25" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
+          <t/>
         </is>
       </c>
       <c r="Z25" s="6" t="inlineStr">
         <is>
-          <t>Omission of 2020 target due to expiration of time.</t>
+          <t/>
         </is>
       </c>
       <c r="AA25" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -4275,9 +4275,6 @@
       <c r="N22" s="7">
         <v>2020</v>
       </c>
-      <c r="P22" s="7">
-        <v>2022</v>
-      </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4293,7 +4290,7 @@
       </c>
       <c r="Y22" s="6" t="inlineStr">
         <is>
-          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs</t>
+          <t>Wegfall des Ziels für 2020 wegen zeitlichen Ablaufs.</t>
         </is>
       </c>
       <c r="Z22" s="6" t="inlineStr">
@@ -5828,6 +5825,9 @@
       <c r="T31" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="U31" s="8">
+        <v>6</v>
+      </c>
       <c r="V31" s="8">
         <v>93</v>
       </c>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="P32" s="7">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
@@ -7884,9 +7884,6 @@
       <c r="N43" s="7">
         <v>2020</v>
       </c>
-      <c r="P43" s="7">
-        <v>2022</v>
-      </c>
       <c r="R43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8173,7 +8170,7 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2030a</t>
+          <t>W_0702bx_2030b</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -8197,22 +8194,22 @@
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 50 % bis 2030</t>
+          <t>Anstieg auf 65 % bis 2030</t>
         </is>
       </c>
       <c r="H45" s="6" t="inlineStr">
         <is>
-          <t>Increase to 50% by 2030</t>
+          <t>Increase to 65% by 2030</t>
         </is>
       </c>
       <c r="I45" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;50%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
@@ -8227,16 +8224,16 @@
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>65</t>
         </is>
       </c>
       <c r="N45" s="7">
         <v>2030</v>
       </c>
-      <c r="O45" s="7">
-        <v>2020</v>
-      </c>
       <c r="P45" s="7">
+        <v>2022</v>
+      </c>
+      <c r="Q45" s="7">
         <v>2021</v>
       </c>
       <c r="R45" s="4" t="inlineStr">
@@ -8294,7 +8291,7 @@
       </c>
       <c r="AG45" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AH45" s="4" t="inlineStr">
@@ -8319,7 +8316,7 @@
       </c>
       <c r="AL45" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AM45" s="4" t="inlineStr">
@@ -8346,7 +8343,7 @@
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2030b</t>
+          <t>W_0702bx_2050b</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -8370,22 +8367,22 @@
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2030</t>
+          <t>Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2030</t>
+          <t>Greenhouse gas neutrality by 2050</t>
         </is>
       </c>
       <c r="I46" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>&lt;b&gt;Treibhausgasneutralität&lt;/b&gt; des in Deutschland erzeugten und verbrauchten Stroms bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; of electricity generated and consumed in Germany by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
@@ -8400,11 +8397,11 @@
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>100</t>
         </is>
       </c>
       <c r="N46" s="7">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="P46" s="7">
         <v>2022</v>
@@ -8467,32 +8464,32 @@
       </c>
       <c r="AG46" s="4" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH46" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI46" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ46" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AK46" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AL46" s="4" t="inlineStr">
+        <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AH46" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AI46" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AJ46" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AK46" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AL46" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
         </is>
       </c>
       <c r="AM46" s="4" t="inlineStr">
@@ -8519,7 +8516,7 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2040</t>
+          <t>W_0702by_2030a</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -8543,22 +8540,22 @@
       </c>
       <c r="G47" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 65 % bis 2040</t>
+          <t>Anstieg auf 50 % bis 2030</t>
         </is>
       </c>
       <c r="H47" s="6" t="inlineStr">
         <is>
-          <t>Increase to 65% by 2040</t>
+          <t>Increase to 50% by 2030</t>
         </is>
       </c>
       <c r="I47" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;50 %&lt;/b&gt; bis &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;50%&lt;/b&gt; by &lt;b&gt;2030&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
@@ -8573,14 +8570,14 @@
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N47" s="7">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="O47" s="7">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="P47" s="7">
         <v>2021</v>
@@ -8692,7 +8689,7 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2050a</t>
+          <t>W_0702by_2040</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -8716,22 +8713,22 @@
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2050</t>
+          <t>Anstieg auf 65 % bis 2040</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2050</t>
+          <t>Increase to 65% by 2040</t>
         </is>
       </c>
       <c r="I48" s="6" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;65 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by 2050&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;65%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
@@ -8746,14 +8743,14 @@
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>65</t>
         </is>
       </c>
       <c r="N48" s="7">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="O48" s="7">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="P48" s="7">
         <v>2021</v>
@@ -8865,7 +8862,7 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>W_0702bx_2050b</t>
+          <t>W_0702by_2050a</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -8889,22 +8886,22 @@
       </c>
       <c r="G49" s="6" t="inlineStr">
         <is>
-          <t>Treibhausgasneutralität bis 2050</t>
+          <t>Anstieg auf 80 % bis 2050</t>
         </is>
       </c>
       <c r="H49" s="6" t="inlineStr">
         <is>
-          <t>Greenhouse gas neutrality by 2050</t>
+          <t>Increase to 80% by 2050</t>
         </is>
       </c>
       <c r="I49" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Treibhausgasneutralität&lt;/b&gt; des in Deutschland erzeugten und verbrauchten Stroms bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Anstieg auf mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; of electricity generated and consumed in Germany by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Increase to at least &lt;b&gt;80%&lt;/b&gt; by 2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
@@ -8919,16 +8916,16 @@
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N49" s="7">
         <v>2050</v>
       </c>
+      <c r="O49" s="7">
+        <v>2040</v>
+      </c>
       <c r="P49" s="7">
-        <v>2022</v>
-      </c>
-      <c r="Q49" s="7">
         <v>2021</v>
       </c>
       <c r="R49" s="4" t="inlineStr">
@@ -9011,7 +9008,7 @@
       </c>
       <c r="AL49" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AM49" s="4" t="inlineStr">
@@ -14325,9 +14322,6 @@
       <c r="N81" s="7">
         <v>2020</v>
       </c>
-      <c r="P81" s="7">
-        <v>2022</v>
-      </c>
       <c r="R81" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15136,7 +15130,7 @@
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2040</t>
+          <t>W_1301ax_2050b</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -15170,12 +15164,12 @@
       </c>
       <c r="I86" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J86" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
+          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K86" s="4" t="inlineStr">
@@ -15190,16 +15184,19 @@
       </c>
       <c r="M86" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N86" s="7">
+        <v>2050</v>
+      </c>
+      <c r="O86" s="7">
         <v>2040</v>
       </c>
-      <c r="O86" s="7">
-        <v>2030</v>
-      </c>
       <c r="P86" s="7">
+        <v>2022</v>
+      </c>
+      <c r="Q86" s="7">
         <v>2021</v>
       </c>
       <c r="R86" s="4" t="inlineStr">
@@ -15272,7 +15269,7 @@
       </c>
       <c r="AJ86" s="4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AK86" s="4" t="inlineStr">
@@ -15309,7 +15306,7 @@
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2050a</t>
+          <t>W_1301ay_2040</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -15343,12 +15340,12 @@
       </c>
       <c r="I87" s="6" t="inlineStr">
         <is>
-          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;70 %&lt;/b&gt; bis &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J87" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least &lt;b&gt;80%&lt;/b&gt; to &lt;b&gt;95%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;70%&lt;/b&gt; by &lt;b&gt;2040&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K87" s="4" t="inlineStr">
@@ -15363,11 +15360,14 @@
       </c>
       <c r="M87" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N87" s="7">
-        <v>2050</v>
+        <v>2040</v>
+      </c>
+      <c r="O87" s="7">
+        <v>2030</v>
       </c>
       <c r="P87" s="7">
         <v>2021</v>
@@ -15437,12 +15437,12 @@
       </c>
       <c r="AI87" s="4" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AJ87" s="4" t="inlineStr">
+        <is>
           <t>L</t>
-        </is>
-      </c>
-      <c r="AJ87" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
         </is>
       </c>
       <c r="AK87" s="4" t="inlineStr">
@@ -15479,7 +15479,7 @@
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>W_1301ax_2050b</t>
+          <t>W_1301ay_2050a</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -15513,12 +15513,12 @@
       </c>
       <c r="I88" s="6" t="inlineStr">
         <is>
-          <t>Erreichung der &lt;b&gt;Treibhausgasneutralität&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Minderung um mindestens &lt;b&gt;80 %&lt;/b&gt; bis &lt;b&gt;95 %&lt;/b&gt; bis &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="J88" s="4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Greenhouse gas neutrality&lt;/b&gt; to be achieved by &lt;b&gt;2050&lt;/b&gt;</t>
+          <t>Reduce by at least &lt;b&gt;80%&lt;/b&gt; to &lt;b&gt;95%&lt;/b&gt; by &lt;b&gt;2050&lt;/b&gt;</t>
         </is>
       </c>
       <c r="K88" s="4" t="inlineStr">
@@ -15533,19 +15533,13 @@
       </c>
       <c r="M88" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N88" s="7">
         <v>2050</v>
       </c>
-      <c r="O88" s="7">
-        <v>2040</v>
-      </c>
       <c r="P88" s="7">
-        <v>2022</v>
-      </c>
-      <c r="Q88" s="7">
         <v>2021</v>
       </c>
       <c r="R88" s="4" t="inlineStr">
@@ -15613,12 +15607,12 @@
       </c>
       <c r="AI88" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AJ88" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AK88" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -1403,12 +1403,12 @@
       </c>
       <c r="Y5" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 20 % bis 2030).</t>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 20 % bis 2030).</t>
         </is>
       </c>
       <c r="Z5" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 20% by 2030).</t>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 20% by 2030).</t>
         </is>
       </c>
       <c r="AA5" s="4" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="Y17" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 10 % bis 2020).</t>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 10 % bis 2020).</t>
         </is>
       </c>
       <c r="Z17" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 10% by 2020).</t>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 10% by 2020).</t>
         </is>
       </c>
       <c r="AA17" s="4" t="inlineStr">
@@ -3783,12 +3783,12 @@
       </c>
       <c r="Y19" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 42 % bis 2020).</t>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 42 % bis 2020).</t>
         </is>
       </c>
       <c r="Z19" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 42% by 2020).</t>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 42% by 2020).</t>
         </is>
       </c>
       <c r="AA19" s="4" t="inlineStr">
@@ -4275,6 +4275,9 @@
       <c r="N22" s="7">
         <v>2020</v>
       </c>
+      <c r="P22" s="7">
+        <v>2022</v>
+      </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4445,9 +4448,6 @@
       <c r="O23" s="7">
         <v>2020</v>
       </c>
-      <c r="Q23" s="7">
-        <v>2022</v>
-      </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7884,6 +7884,9 @@
       <c r="N43" s="7">
         <v>2020</v>
       </c>
+      <c r="P43" s="7">
+        <v>2022</v>
+      </c>
       <c r="R43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8078,12 +8081,12 @@
       </c>
       <c r="Y44" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 65 % bis 2030).</t>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 65 % bis 2030).</t>
         </is>
       </c>
       <c r="Z44" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 65% by 2030).</t>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 65% by 2030).</t>
         </is>
       </c>
       <c r="AA44" s="4" t="inlineStr">
@@ -10640,12 +10643,12 @@
       </c>
       <c r="Y59" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 3 % bis 2030).</t>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 3 % bis 2030).</t>
         </is>
       </c>
       <c r="Z59" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 3% by 2030).</t>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 3% by 2030).</t>
         </is>
       </c>
       <c r="AA59" s="4" t="inlineStr">
@@ -14322,6 +14325,9 @@
       <c r="N81" s="7">
         <v>2020</v>
       </c>
+      <c r="P81" s="7">
+        <v>2022</v>
+      </c>
       <c r="R81" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14513,12 +14519,12 @@
       </c>
       <c r="Y82" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher mindestens 55 % bis 2030 gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050).</t>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: mindestens 55 % bis 2030 gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050).</t>
         </is>
       </c>
       <c r="Z82" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously at least 55% by 2030; Greenhouse gas neutrality to be achieved by 2050).</t>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: at least 55% by 2030; Greenhouse gas neutrality to be achieved by 2050).</t>
         </is>
       </c>
       <c r="AA82" s="4" t="inlineStr">
@@ -17259,12 +17265,12 @@
       </c>
       <c r="Y98" s="6" t="inlineStr">
         <is>
-          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher 7 000 bis 2030).</t>
+          <t>Neues Ziel im Rahmen der Weiterentwicklung von Zielen der Deutschen Nachhaltigkeitsstrategie (vorher: 7 000 bis 2030).</t>
         </is>
       </c>
       <c r="Z98" s="6" t="inlineStr">
         <is>
-          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously 7,000 by 2030).</t>
+          <t>New target as part of the further development of targets of the German Sustainability Strategy (previously: 7,000 by 2030).</t>
         </is>
       </c>
       <c r="AA98" s="4" t="inlineStr">

--- a/Tab_5c_Wetter.xlsx
+++ b/Tab_5c_Wetter.xlsx
@@ -568,7 +568,7 @@
     <col customWidth="true" min="7" max="7" width="11.71875"/>
     <col customWidth="true" min="8" max="8" width="12.7421875"/>
     <col customWidth="true" min="9" max="9" width="58.15234375"/>
-    <col customWidth="true" min="10" max="10" width="35.88671875"/>
+    <col customWidth="true" min="10" max="10" width="49.65625"/>
     <col customWidth="true" min="11" max="11" width="8.7890625"/>
     <col customWidth="true" min="12" max="12" width="13.8359375"/>
     <col customWidth="true" min="13" max="13" width="10.69140625"/>
@@ -4765,12 +4765,12 @@
       </c>
       <c r="I25" s="6" t="inlineStr">
         <is>
-          <t>Beibehaltung des Abstandes von 10 % bis 2030</t>
+          <t>Beibehaltung des Abstandes von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Maintaine the gap of 10 % by 2030</t>
+          <t>Maintaining the gap of a maximum of 10 % until 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
